--- a/自己的财务计划.xlsx
+++ b/自己的财务计划.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\资料备份\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repository\FileSaveV1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78032995-8F53-4763-88DE-9C5DB5ADD441}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8CBF48-7EE0-4B3F-A070-C91900AFEBC7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +169,38 @@
   </si>
   <si>
     <t>仑后沙县小吃排骨面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共计：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国贸中心自助餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仑后快餐2两荤一素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仑后胡萝卜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仑后豆腐皮炒瘦肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不少量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝游泳浮水棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -525,7 +557,7 @@
     <col min="2" max="2" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -538,13 +570,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43659</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -552,7 +587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -560,7 +595,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -568,7 +603,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -579,7 +614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -593,7 +628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -607,7 +642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -621,21 +656,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <f>SUM(D3:D9)</f>
         <v>77.599999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43660</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -646,7 +681,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
@@ -660,7 +695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
@@ -671,7 +706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
@@ -679,7 +714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
@@ -693,7 +728,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
@@ -701,7 +736,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
@@ -715,21 +750,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
         <v>16</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <f>SUM(D13:D18)</f>
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>43660</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+        <v>43661</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>27</v>
       </c>
@@ -740,7 +775,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
@@ -748,7 +783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
@@ -756,21 +791,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
         <v>31</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <f>SUM(D21:D23)</f>
         <v>30.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43662</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>32</v>
       </c>
@@ -778,7 +813,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>33</v>
       </c>
@@ -786,7 +821,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>34</v>
       </c>
@@ -794,10 +829,199 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29">
         <f>SUM(D26:D28)</f>
         <v>26.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34">
+        <f>SUM(D31:D33)</f>
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>43664</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39">
+        <f>SUM(D36:D38)</f>
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>43665</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42">
+        <v>48</v>
+      </c>
+      <c r="D42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44">
+        <f>SUM(D41:D43)</f>
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>43666</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48">
+        <v>13</v>
+      </c>
+      <c r="F48">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51">
+        <f>SUM(D46:D50,F48)</f>
+        <v>31.62</v>
       </c>
     </row>
   </sheetData>

--- a/自己的财务计划.xlsx
+++ b/自己的财务计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repository\FileSaveV1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8CBF48-7EE0-4B3F-A070-C91900AFEBC7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB269C5-CCE0-46A2-98BE-DC53BA5F135F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,6 +201,30 @@
   </si>
   <si>
     <t>优惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仑后早餐两菜一肉一豆浆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国贸中心同事拼盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆腐皮炒瘦肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附近超市买内裤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共计：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -960,7 +984,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>43666</v>
+        <v>43667</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
@@ -1022,6 +1046,102 @@
       <c r="E51">
         <f>SUM(D46:D50,F48)</f>
         <v>31.62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>43668</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57">
+        <f>SUM(D53:D56)</f>
+        <v>61.75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>43666</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60">
+        <v>48</v>
+      </c>
+      <c r="D60">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>48</v>
+      </c>
+      <c r="E62">
+        <f>SUM(D59:D61)</f>
+        <v>33.5</v>
       </c>
     </row>
   </sheetData>

--- a/自己的财务计划.xlsx
+++ b/自己的财务计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repository\FileSaveV1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB269C5-CCE0-46A2-98BE-DC53BA5F135F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF5AE8D-E962-4268-97C7-4E927D74D4B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,6 +225,38 @@
   </si>
   <si>
     <t>共计：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共计：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48|2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1斤|1人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仑后刀削面大碗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国贸中心子母粉丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共计：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仑后刀大碗非干的炸酱面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国贸中心沙县小吃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77:E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1144,6 +1176,135 @@
         <v>33.5</v>
       </c>
     </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>43669</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" t="s">
+        <v>51</v>
+      </c>
+      <c r="D65">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>49</v>
+      </c>
+      <c r="E67">
+        <f>SUM(D64:D66)</f>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>43670</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D70">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>54</v>
+      </c>
+      <c r="E72">
+        <f>SUM(D69:D71)</f>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>43670</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D75">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D76">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>54</v>
+      </c>
+      <c r="E77">
+        <f>SUM(D74:D76)</f>
+        <v>31.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/自己的财务计划.xlsx
+++ b/自己的财务计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repository\FileSaveV1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF5AE8D-E962-4268-97C7-4E927D74D4B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EF1F11-9149-4EF0-A664-0FDFA3D36BD9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,6 +257,42 @@
   </si>
   <si>
     <t>国贸中心沙县小吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仑后刀小碗非干的炸酱面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共计：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仑后快餐炸鸡腿两素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仑后快餐一荤两素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仑后快餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共计：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国贸中心豪悦佳拼盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仑后咸水鸭套餐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -601,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77:E77"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91:E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1266,7 +1302,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>43670</v>
+        <v>43671</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
@@ -1303,6 +1339,165 @@
       <c r="E77">
         <f>SUM(D74:D76)</f>
         <v>31.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>43672</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D80">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>58</v>
+      </c>
+      <c r="E82">
+        <f>SUM(D79:D81)</f>
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>43673</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B85" t="s">
+        <v>60</v>
+      </c>
+      <c r="D85">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>58</v>
+      </c>
+      <c r="E86">
+        <f>SUM(D84:D85)</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>43674</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D89">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>63</v>
+      </c>
+      <c r="E91">
+        <f>SUM(D88:D90)</f>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>43675</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D94">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D95">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>63</v>
+      </c>
+      <c r="E96">
+        <f>SUM(D93:D95)</f>
+        <v>29.1</v>
       </c>
     </row>
   </sheetData>

--- a/自己的财务计划.xlsx
+++ b/自己的财务计划.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repository\FileSaveV1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EF1F11-9149-4EF0-A664-0FDFA3D36BD9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C18BB5-9E6A-4CB5-AAF6-03E9C7FE0EB6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="7月" sheetId="1" r:id="rId1"/>
+    <sheet name="8月" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="75">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -293,6 +294,42 @@
   </si>
   <si>
     <t>仑后咸水鸭套餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仑后早餐肉包咸菜饼菜包豆浆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国贸中心按斤自助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仑后沙县脱骨肉套餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仑后沙县鸡腿肉套餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国贸中心沙县鸡腿套餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共计：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月统计：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仑后沙县排骨汤饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国贸商务中心肉丝饭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -637,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91:E91"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1500,9 +1537,178 @@
         <v>29.1</v>
       </c>
     </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>43676</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C98" t="s">
+        <v>24</v>
+      </c>
+      <c r="D98">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D99">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>71</v>
+      </c>
+      <c r="E101">
+        <f>SUM(D98:D100)</f>
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>43677</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C103" t="s">
+        <v>24</v>
+      </c>
+      <c r="D103">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D104">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>71</v>
+      </c>
+      <c r="E106">
+        <f>SUM(D103:D105)</f>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>72</v>
+      </c>
+      <c r="E107">
+        <f>SUM(E2:E106)</f>
+        <v>642.16999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0519BFED-A1E9-4EE9-A514-D07AF2C50619}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <f>SUM(D3:D5)</f>
+        <v>31.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/自己的财务计划.xlsx
+++ b/自己的财务计划.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repository\FileSaveV1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C18BB5-9E6A-4CB5-AAF6-03E9C7FE0EB6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DFD3D4-A46F-45F1-8C83-A9939A091785}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,6 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -31,305 +28,365 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="90">
   <si>
     <t>时间</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>早餐</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>小计(元)</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>从五缘湾坐车到安兜</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>货拉拉安兜搬家车费</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>货拉拉给好司机买水</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>1瓶</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>自己买水</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>个一瓶</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>3+1</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>仑后宿舍冒菜</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>斤</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>单价(元/{单位})</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>宿舍沙县香菇肉丝盖浇饭</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>盘</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>共计：</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>安兜仓库讲了半天计费用(算1-18到7-18)</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>6*90-500-90-50</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>安兜买农夫山泉矿泉水</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>加香肠和猪肉的肠粉</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>仑后快餐两荤一豆芽一白菜</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>仑后早餐鸡蛋饼肉包菜包豆浆</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>2+1.5+1+1</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>各1</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>摩拜共享单车包月套餐</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>9点香蕉</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>仑后早餐鸡蛋饼鸡蛋菜包豆浆</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>各1</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>国贸中心同事拼盘</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>肠粉和兜汤</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>共计：</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>仑后早餐如昨天</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>国贸中心同事拼盘</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>仑后沙县小吃排骨面</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>共计：</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>国贸中心自助餐</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>仑后快餐2两荤一素</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>仑后胡萝卜</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>仑后豆腐皮炒瘦肉</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>不少量</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>淘宝游泳浮水棒</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>优惠</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>仑后早餐两菜一肉一豆浆</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>国贸中心同事拼盘</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>豆腐皮炒瘦肉</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>附近超市买内裤</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>包</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>共计：</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>共计：</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>48|2</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>1斤|1人</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>仑后刀削面大碗</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>国贸中心子母粉丝</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>共计：</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>仑后刀大碗非干的炸酱面</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>国贸中心沙县小吃</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>仑后刀小碗非干的炸酱面</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>共计：</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>仑后快餐炸鸡腿两素</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>5+..</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>仑后快餐一荤两素</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>仑后快餐</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>共计：</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>国贸中心豪悦佳拼盘</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>仑后咸水鸭套餐</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>仑后早餐肉包咸菜饼菜包豆浆</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>国贸中心按斤自助</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>仑后沙县脱骨肉套餐</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>仑后沙县鸡腿肉套餐</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>国贸中心沙县鸡腿套餐</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>共计：</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>7月统计：</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>仑后沙县排骨汤饭</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>国贸商务中心肉丝饭</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>仑后沙县金牌炸酱面</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>仑后快餐店</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>游泳圈+农夫山泉水</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单位</t>
+    <t>16+2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>早餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小计(元)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从五缘湾坐车到安兜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货拉拉安兜搬家车费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货拉拉给好司机买水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自己买水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个一瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仑后宿舍冒菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单价(元/{单位})</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宿舍沙县香菇肉丝盖浇饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>仑后沙县鸡腿饭</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>仑后沙县小吃脱骨肉套餐</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>共计：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>安兜仓库讲了半天计费用(算1-18到7-18)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6*90-500-90-50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安兜买农夫山泉矿泉水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加香肠和猪肉的肠粉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仑后快餐两荤一豆芽一白菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仑后早餐鸡蛋饼肉包菜包豆浆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2+1.5+1+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摩拜共享单车包月套餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9点香蕉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仑后早餐鸡蛋饼鸡蛋菜包豆浆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国贸中心同事拼盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肠粉和兜汤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>仑后早餐韭菜饼肉包豆浆</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>共计：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>仑后早餐如昨天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国贸中心同事拼盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仑后沙县小吃排骨面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>国贸商务中心沙县小吃脱骨肉套餐</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>共计：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>国贸中心自助餐</t>
+    <t>国贸商务中心字母粉丝罗汉肉套餐</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>仑后簸箕板</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>仑后沙县扁肉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>仑后快餐2两荤一素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仑后胡萝卜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仑后豆腐皮炒瘦肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不少量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淘宝游泳浮水棒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仑后早餐两菜一肉一豆浆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国贸中心同事拼盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆腐皮炒瘦肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附近超市买内裤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>共计：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共计：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48|2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1斤|1人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仑后刀削面大碗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国贸中心子母粉丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共计：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仑后刀大碗非干的炸酱面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国贸中心沙县小吃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仑后刀小碗非干的炸酱面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共计：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仑后快餐炸鸡腿两素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仑后快餐一荤两素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仑后快餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共计：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国贸中心豪悦佳拼盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仑后咸水鸭套餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仑后早餐肉包咸菜饼菜包豆浆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国贸中心按斤自助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仑后沙县脱骨肉套餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仑后沙县鸡腿肉套餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国贸中心沙县鸡腿套餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共计：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7月统计：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仑后沙县排骨汤饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国贸商务中心肉丝饭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,7 +469,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -428,7 +485,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -440,7 +497,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -457,7 +514,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -487,12 +544,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -522,6 +596,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -676,14 +767,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -771,7 +861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -810,7 +900,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
@@ -835,7 +925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
@@ -857,7 +947,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
@@ -1158,7 +1248,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>43</v>
       </c>
@@ -1361,7 +1451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>55</v>
       </c>
@@ -1402,7 +1492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>57</v>
       </c>
@@ -1553,7 +1643,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>70</v>
       </c>
@@ -1631,21 +1721,20 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0519BFED-A1E9-4EE9-A514-D07AF2C50619}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1704,6 +1793,260 @@
       <c r="E6">
         <f>SUM(D3:D5)</f>
         <v>31.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>43679</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11">
+        <f>SUM(D8:D10)</f>
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>43680</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16">
+        <f>SUM(D13:D15)</f>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>43681</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21">
+        <f>SUM(D18:D20)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>43682</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26">
+        <f>SUM(D23:D25)</f>
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>43682</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31">
+        <f>SUM(D28:D30)</f>
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>43682</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37">
+        <f>SUM(D33:D36)</f>
+        <v>35.5</v>
       </c>
     </row>
   </sheetData>

--- a/自己的财务计划.xlsx
+++ b/自己的财务计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repository\FileSaveV1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DFD3D4-A46F-45F1-8C83-A9939A091785}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D95546-EAFA-4C57-858C-AD693189B6EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="93">
   <si>
     <t>时间</t>
     <phoneticPr fontId="0" type="Hiragana"/>
@@ -384,6 +384,18 @@
   <si>
     <t>仑后沙县扁肉</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共计：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仑后杂酱面(干)</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>国贸商务中心沙县小吃大排套餐</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>共计：</t>
@@ -1726,10 +1738,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37:E37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1961,7 +1973,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>43682</v>
+        <v>43683</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
@@ -2002,7 +2014,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>43682</v>
+        <v>43684</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
@@ -2047,6 +2059,47 @@
       <c r="E37">
         <f>SUM(D33:D36)</f>
         <v>35.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>43685</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42">
+        <f>SUM(D39:D41)</f>
+        <v>30.5</v>
       </c>
     </row>
   </sheetData>

--- a/自己的财务计划.xlsx
+++ b/自己的财务计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repository\FileSaveV1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D95546-EAFA-4C57-858C-AD693189B6EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36123671-813F-4409-9C0D-49951A209D1F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="98">
   <si>
     <t>时间</t>
     <phoneticPr fontId="0" type="Hiragana"/>
@@ -399,6 +399,26 @@
   </si>
   <si>
     <t>共计：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国贸商务中心沙县小吃肉丝套餐</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>仑后沙茶面</t>
+    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>农夫山泉，大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共计：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费，前几天就交完了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -779,7 +799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
@@ -1738,10 +1758,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42:E42"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2102,6 +2122,63 @@
         <v>30.5</v>
       </c>
     </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>43685</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49">
+        <f>SUM(D44:D48)</f>
+        <v>62.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/自己的财务计划.xlsx
+++ b/自己的财务计划.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repository\FileSaveV1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36123671-813F-4409-9C0D-49951A209D1F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AAAEB5-9420-46FD-ABC0-EF1207ECD995}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7月" sheetId="1" r:id="rId1"/>
     <sheet name="8月" sheetId="2" r:id="rId2"/>
+    <sheet name="9月" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="111">
   <si>
     <t>时间</t>
     <phoneticPr fontId="0" type="Hiragana"/>
@@ -419,6 +420,58 @@
   </si>
   <si>
     <t>话费，前几天就交完了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厦门银行使用工商银行取款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行使用工商银行取款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500+7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从7219.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3500+19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工资入账工商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑共享单车到国贸中心做公交回来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超市洋葱盼盼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在充值时就算入了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国贸上午中心附近沙县小吃烤鸭套餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机话费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行信用卡套现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商一行信用卡还款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1760,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2184,4 +2237,137 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF4CE67-1809-419A-85EE-A85E97020111}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>43713</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4">
+        <v>3519</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6">
+        <v>0.8</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7">
+        <v>3.8</v>
+      </c>
+      <c r="D7">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10">
+        <f>-3500+3500*0.55%</f>
+        <v>-3480.75</v>
+      </c>
+      <c r="D10">
+        <v>-3480</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11">
+        <v>7500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/自己的财务计划.xlsx
+++ b/自己的财务计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repository\FileSaveV1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AAAEB5-9420-46FD-ABC0-EF1207ECD995}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC9B951-712E-44EA-8E21-F1942E5F996B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="113">
   <si>
     <t>时间</t>
     <phoneticPr fontId="0" type="Hiragana"/>
@@ -472,6 +472,14 @@
   </si>
   <si>
     <t>招商一行信用卡还款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超市加多宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2241,10 +2249,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF4CE67-1809-419A-85EE-A85E97020111}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2365,6 +2373,25 @@
         <v>7500</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>43717</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/自己的财务计划.xlsx
+++ b/自己的财务计划.xlsx
@@ -1,504 +1,329 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repository\FileSaveV1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC9B951-712E-44EA-8E21-F1942E5F996B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="7月" sheetId="1" r:id="rId1"/>
     <sheet name="8月" sheetId="2" r:id="rId2"/>
     <sheet name="9月" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="97">
   <si>
     <t>时间</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>单价(元/{单位})</t>
   </si>
   <si>
     <t>单位</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>小计(元)</t>
+  </si>
+  <si>
+    <t>优惠</t>
   </si>
   <si>
     <t>早餐</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>小计(元)</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>从五缘湾坐车到安兜</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>货拉拉安兜搬家车费</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>货拉拉给好司机买水</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>1瓶</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>自己买水</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>3+1</t>
   </si>
   <si>
     <t>个一瓶</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>3+1</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>仑后宿舍冒菜</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>斤</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>单价(元/{单位})</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>宿舍沙县香菇肉丝盖浇饭</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>盘</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>共计：</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>安兜仓库讲了半天计费用(算1-18到7-18)</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>6*90-500-90-50</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>安兜买农夫山泉矿泉水</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>加香肠和猪肉的肠粉</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>仑后快餐两荤一豆芽一白菜</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>仑后早餐鸡蛋饼肉包菜包豆浆</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>2+1.5+1+1</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>各1</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>摩拜共享单车包月套餐</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>9点香蕉</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>仑后早餐鸡蛋饼鸡蛋菜包豆浆</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>各1</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>国贸中心同事拼盘</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>肠粉和兜汤</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>共计：</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>仑后早餐如昨天</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>国贸中心同事拼盘</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>仑后沙县小吃排骨面</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>共计：</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>国贸中心自助餐</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>仑后快餐2两荤一素</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>仑后豆腐皮炒瘦肉</t>
+  </si>
+  <si>
+    <t>不少量</t>
   </si>
   <si>
     <t>仑后胡萝卜</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>仑后豆腐皮炒瘦肉</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>不少量</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>淘宝游泳浮水棒</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>优惠</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>仑后早餐两菜一肉一豆浆</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>国贸中心同事拼盘</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>豆腐皮炒瘦肉</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>附近超市买内裤</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>包</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>共计：</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>共计：</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>48|2</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>1斤|1人</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>国贸中心子母粉丝</t>
   </si>
   <si>
     <t>仑后刀削面大碗</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>国贸中心子母粉丝</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>共计：</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>国贸中心沙县小吃</t>
   </si>
   <si>
     <t>仑后刀大碗非干的炸酱面</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>国贸中心沙县小吃</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>仑后刀小碗非干的炸酱面</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>共计：</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>仑后快餐炸鸡腿两素</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>5+..</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>仑后快餐</t>
   </si>
   <si>
     <t>仑后快餐一荤两素</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>仑后快餐</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>共计：</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>国贸中心豪悦佳拼盘</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>仑后咸水鸭套餐</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>仑后早餐肉包咸菜饼菜包豆浆</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>国贸中心沙县鸡腿套餐</t>
+  </si>
+  <si>
+    <t>仑后沙县鸡腿肉套餐</t>
   </si>
   <si>
     <t>国贸中心按斤自助</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>仑后沙县脱骨肉套餐</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>仑后沙县鸡腿肉套餐</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>国贸中心沙县鸡腿套餐</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>共计：</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>7月统计：</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>国贸商务中心肉丝饭</t>
   </si>
   <si>
     <t>仑后沙县排骨汤饭</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>国贸商务中心肉丝饭</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
+  </si>
+  <si>
+    <t>仑后沙县小吃脱骨肉套餐</t>
+  </si>
+  <si>
+    <t>仑后沙县鸡腿饭</t>
+  </si>
+  <si>
+    <t>仑后快餐店</t>
+  </si>
+  <si>
+    <t>游泳圈+农夫山泉水</t>
+  </si>
+  <si>
+    <t>16+2</t>
   </si>
   <si>
     <t>仑后沙县金牌炸酱面</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>仑后快餐店</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>游泳圈+农夫山泉水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仑后沙县鸡腿饭</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>仑后沙县小吃脱骨肉套餐</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>共计：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>仑后早餐韭菜饼肉包豆浆</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>共计：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>国贸商务中心沙县小吃脱骨肉套餐</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>共计：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>国贸商务中心字母粉丝罗汉肉套餐</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>仑后簸箕板</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>仑后沙县扁肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共计：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国贸商务中心沙县小吃大排套餐</t>
   </si>
   <si>
     <t>仑后杂酱面(干)</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>国贸商务中心沙县小吃大排套餐</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
-  </si>
-  <si>
-    <t>共计：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>国贸商务中心沙县小吃肉丝套餐</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>仑后沙茶面</t>
-    <phoneticPr fontId="0" type="Hiragana"/>
   </si>
   <si>
     <t>农夫山泉，大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共计：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>话费，前几天就交完了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工资入账工商银行</t>
   </si>
   <si>
     <t>厦门银行使用工商银行取款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3500+19</t>
+  </si>
+  <si>
+    <t>从7219.2</t>
   </si>
   <si>
     <t>建设银行使用工商银行取款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>500+7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从7219.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3500+19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工资入账工商银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>骑共享单车到国贸中心做公交回来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在充值时就算入了</t>
   </si>
   <si>
     <t>超市洋葱盼盼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在充值时就算入了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>国贸上午中心附近沙县小吃烤鸭套餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>手机话费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>招商银行信用卡套现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手续费3500*0.55%</t>
   </si>
   <si>
     <t>招商一行信用卡还款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>超市加多宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -507,20 +332,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -528,34 +689,322 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -604,7 +1053,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -637,26 +1086,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -689,23 +1121,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -847,169 +1262,164 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" customWidth="1"/>
+    <col min="1" max="1" width="24.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="6">
         <v>43659</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D4">
         <v>1.6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D5">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B8">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B9">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:5">
       <c r="D10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <f>SUM(D3:D9)</f>
-        <v>77.599999999999994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+        <v>77.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="6">
         <v>43660</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>17</v>
+    <row r="12" ht="27.6" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12">
         <v>-100</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>19</v>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>20</v>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -1018,233 +1428,233 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>21</v>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>22</v>
+    <row r="16" ht="27.6" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16">
         <v>5.5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>25</v>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>26</v>
+        <v>8.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B18">
         <v>2.5</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:5">
       <c r="D19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <f>SUM(D13:D18)</f>
-        <v>38.299999999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+        <v>38.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="6">
         <v>43661</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>27</v>
+    <row r="21" ht="27.6" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D21">
         <v>5.5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D22">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D23">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:5">
       <c r="D24" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <f>SUM(D21:D23)</f>
         <v>30.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="25" spans="1:1">
+      <c r="A25" s="6">
         <v>43662</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>32</v>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D26">
         <v>5.5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>33</v>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D27">
         <v>10.6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>34</v>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D28">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:5">
       <c r="D29" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <f>SUM(D26:D28)</f>
         <v>26.1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+    <row r="30" spans="1:1">
+      <c r="A30" s="6">
         <v>43663</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>32</v>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D31">
         <v>5.5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D32">
         <v>10.6</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>34</v>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D33">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:5">
       <c r="D34" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <f>SUM(D31:D33)</f>
         <v>26.1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+    <row r="35" spans="1:1">
+      <c r="A35" s="6">
         <v>43664</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>32</v>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D36">
         <v>5.5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D37">
         <v>10.6</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>34</v>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D38">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:5">
       <c r="D39" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E39">
         <f>SUM(D36:D38)</f>
         <v>26.1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+    <row r="40" spans="1:1">
+      <c r="A40" s="6">
         <v>43665</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>27</v>
+    <row r="41" ht="27.6" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D41">
         <v>5.5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>36</v>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B42">
         <v>48</v>
@@ -1253,53 +1663,53 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>37</v>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D43">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:5">
       <c r="D44" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E44">
         <f>SUM(D41:D43)</f>
         <v>33.5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+    <row r="45" spans="1:1">
+      <c r="A45" s="6">
         <v>43667</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>27</v>
+    <row r="46" ht="27.6" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D46">
         <v>5.5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>37</v>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D47">
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>39</v>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D48">
         <v>13</v>
@@ -1308,9 +1718,9 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>38</v>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B49">
         <v>6</v>
@@ -1319,94 +1729,94 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>41</v>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D50">
         <v>0.85</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:5">
       <c r="D51" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E51">
         <f>SUM(D46:D50,F48)</f>
         <v>31.62</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+    <row r="52" spans="1:1">
+      <c r="A52" s="6">
         <v>43668</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>43</v>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D53">
         <v>4.5</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>44</v>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D54">
         <v>13.25</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>45</v>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D55">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>46</v>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D56">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:5">
       <c r="D57" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E57">
         <f>SUM(D53:D56)</f>
         <v>61.75</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+    <row r="58" spans="1:1">
+      <c r="A58" s="6">
         <v>43666</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>27</v>
+    <row r="59" ht="27.6" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C59" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D59">
         <v>5.5</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>36</v>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B60">
         <v>48</v>
@@ -1415,825 +1825,826 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>37</v>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D61">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:5">
       <c r="D62" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E62">
         <f>SUM(D59:D61)</f>
         <v>33.5</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+    <row r="63" spans="1:1">
+      <c r="A63" s="6">
         <v>43669</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>27</v>
+    <row r="64" ht="27.6" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D64">
         <v>5.5</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>36</v>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B65" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C65" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D65">
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>37</v>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D66">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:5">
       <c r="D67" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E67">
         <f>SUM(D64:D66)</f>
         <v>32.5</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+    <row r="68" spans="1:1">
+      <c r="A68" s="6">
         <v>43670</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>27</v>
+    <row r="69" ht="27.6" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C69" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D69">
         <v>5.5</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>53</v>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="D70">
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>52</v>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D71">
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:5">
       <c r="D72" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="E72">
         <f>SUM(D69:D71)</f>
         <v>32.5</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+    <row r="73" spans="1:1">
+      <c r="A73" s="6">
         <v>43671</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>27</v>
+    <row r="74" ht="27.6" spans="1:4">
+      <c r="A74" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C74" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D74">
         <v>5.5</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>56</v>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D75">
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>55</v>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D76">
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:5">
       <c r="D77" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="E77">
         <f>SUM(D74:D76)</f>
         <v>31.5</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+    <row r="78" spans="1:1">
+      <c r="A78" s="6">
         <v>43672</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>27</v>
+    <row r="79" ht="27.6" spans="1:4">
+      <c r="A79" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C79" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D79">
         <v>5.5</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>56</v>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D80">
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>57</v>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="D81">
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:5">
       <c r="D82" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E82">
         <f>SUM(D79:D81)</f>
         <v>29.5</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+    <row r="83" spans="1:1">
+      <c r="A83" s="6">
         <v>43673</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>27</v>
+    <row r="84" ht="27.6" spans="1:4">
+      <c r="A84" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C84" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D84">
         <v>5.5</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>59</v>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B85" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D85">
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:5">
       <c r="D86" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E86">
         <f>SUM(D84:D85)</f>
         <v>17.5</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+    <row r="87" spans="1:1">
+      <c r="A87" s="6">
         <v>43674</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>27</v>
+    <row r="88" ht="27.6" spans="1:4">
+      <c r="A88" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C88" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D88">
         <v>5.5</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>62</v>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D89">
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>61</v>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D90">
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:5">
       <c r="D91" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E91">
         <f>SUM(D88:D90)</f>
         <v>27.5</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
+    <row r="92" spans="1:1">
+      <c r="A92" s="6">
         <v>43675</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>27</v>
+    <row r="93" ht="27.6" spans="1:4">
+      <c r="A93" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C93" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D93">
         <v>5.5</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>64</v>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D94">
         <v>10.6</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>65</v>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="D95">
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:5">
       <c r="D96" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E96">
         <f>SUM(D93:D95)</f>
         <v>29.1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
+    <row r="97" spans="1:1">
+      <c r="A97" s="6">
         <v>43676</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
-        <v>66</v>
+    <row r="98" ht="27.6" spans="1:4">
+      <c r="A98" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C98" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D98">
         <v>5.5</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>70</v>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D99">
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
-        <v>69</v>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D100">
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:5">
       <c r="D101" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="E101">
         <f>SUM(D98:D100)</f>
         <v>29.5</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
+    <row r="102" spans="1:1">
+      <c r="A102" s="6">
         <v>43677</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>66</v>
+    <row r="103" ht="27.6" spans="1:4">
+      <c r="A103" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C103" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D103">
         <v>4.5</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>67</v>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D104">
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
-        <v>68</v>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D105">
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:5">
       <c r="D106" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="E106">
         <f>SUM(D103:D105)</f>
         <v>27.5</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:5">
       <c r="D107" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E107">
         <f>SUM(E2:E106)</f>
-        <v>642.16999999999996</v>
+        <v>642.17</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="19.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="6">
         <v>43678</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>22</v>
+    <row r="3" ht="27.6" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>5.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>74</v>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D4">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>73</v>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D5">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:5">
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <f>SUM(D3:D5)</f>
         <v>31.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:1">
+      <c r="A7" s="6">
         <v>43679</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>22</v>
+    <row r="8" ht="27.6" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>5.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>74</v>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D9">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>73</v>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D10">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:5">
       <c r="D11" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <f>SUM(D8:D10)</f>
         <v>31.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="1:1">
+      <c r="A12" s="6">
         <v>43680</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>22</v>
+    <row r="13" ht="27.6" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13">
         <v>5.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>80</v>
+    <row r="14" ht="27.6" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>79</v>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D15">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:5">
       <c r="D16" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <f>SUM(D13:D15)</f>
         <v>27.5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="17" spans="1:1">
+      <c r="A17" s="6">
         <v>43681</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>76</v>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="D18">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>77</v>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>75</v>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="D20">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:5">
       <c r="D21" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <f>SUM(D18:D20)</f>
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="22" spans="1:1">
+      <c r="A22" s="6">
         <v>43682</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>82</v>
+    <row r="23" ht="27.6" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23">
         <v>4.5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>80</v>
+    <row r="24" ht="27.6" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D24">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>79</v>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D25">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:5">
       <c r="D26" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <f>SUM(D23:D25)</f>
         <v>28.5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="27" spans="1:1">
+      <c r="A27" s="6">
         <v>43683</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>22</v>
+    <row r="28" ht="27.6" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D28">
         <v>5.5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>84</v>
+    <row r="29" ht="27.6" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="D29">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>79</v>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D30">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:5">
       <c r="D31" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="E31">
         <f>SUM(D28:D30)</f>
         <v>29.5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+    <row r="32" spans="1:1">
+      <c r="A32" s="6">
         <v>43684</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>22</v>
+    <row r="33" ht="27.6" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D33">
         <v>5.5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>86</v>
+    <row r="34" ht="27.6" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="D34">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>87</v>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="D35">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>88</v>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="D36">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:5">
       <c r="D37" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <f>SUM(D33:D36)</f>
         <v>35.5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+    <row r="38" spans="1:1">
+      <c r="A38" s="6">
         <v>43685</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>22</v>
+    <row r="39" ht="27.6" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D39">
         <v>5.5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>91</v>
+    <row r="40" ht="27.6" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="D40">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>90</v>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="D41">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:5">
       <c r="D42" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <f>SUM(D39:D41)</f>
         <v>30.5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+    <row r="43" spans="1:1">
+      <c r="A43" s="6">
         <v>43685</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>22</v>
+    <row r="44" ht="27.6" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D44">
         <v>5.5</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>93</v>
+    <row r="45" ht="27.6" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="D45">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>94</v>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D46">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>95</v>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="D47">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>97</v>
+    <row r="48" ht="27.6" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="D48">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:5">
       <c r="D49" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="E49">
         <f>SUM(D44:D48)</f>
@@ -2241,160 +2652,161 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF4CE67-1809-419A-85EE-A85E97020111}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="18.6666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7777777777778" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="6">
         <v>43713</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" t="s">
-        <v>102</v>
+    <row r="3" spans="1:1">
+      <c r="A3" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" ht="27.6" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="D4">
         <v>3519</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" t="s">
-        <v>100</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" ht="27.6" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="D5">
         <v>507</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6">
+    <row r="6" ht="27.6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="2">
         <v>0.8</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="2">
         <v>3.8</v>
       </c>
       <c r="D7">
         <v>3.8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>107</v>
+    <row r="8" ht="27.6" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D8">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>108</v>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D9">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10">
-        <f>-3500+3500*0.55%</f>
-        <v>-3480.75</v>
+    <row r="10" ht="27.6" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="D10">
-        <v>-3480</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>110</v>
+        <v>-19.25</v>
+      </c>
+    </row>
+    <row r="11" ht="27.6" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D11">
         <v>7500</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="1:1">
+      <c r="A12" s="6">
         <v>43717</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="2">
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D13">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/自己的财务计划.xlsx
+++ b/自己的财务计划.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="7月" sheetId="1" r:id="rId1"/>
-    <sheet name="8月" sheetId="2" r:id="rId2"/>
-    <sheet name="9月" sheetId="3" r:id="rId3"/>
+    <sheet name="2019年7月" sheetId="1" r:id="rId1"/>
+    <sheet name="2019年8月" sheetId="2" r:id="rId2"/>
+    <sheet name="2019年9月" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="246">
   <si>
     <t>时间</t>
   </si>
@@ -307,19 +308,467 @@
   </si>
   <si>
     <t>瓶</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>因为可能好几天买一个地方的商品，几个地方有一样的商品</t>
+  </si>
+  <si>
+    <t>水、蔬菜、米、面-&gt;水果-&gt;配食-&gt;冰冻-&gt;熟食-&gt;零食(蛋糕、卤制袋装)-&gt;肉类-&gt;生活用品</t>
+  </si>
+  <si>
+    <t>小计(临时计算用)：</t>
+  </si>
+  <si>
+    <t>省</t>
+  </si>
+  <si>
+    <t>市</t>
+  </si>
+  <si>
+    <t>县、区</t>
+  </si>
+  <si>
+    <t>具体地址</t>
+  </si>
+  <si>
+    <t>商品名称</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>实际金额</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>原价</t>
+  </si>
+  <si>
+    <t>河南</t>
+  </si>
+  <si>
+    <t>洛阳</t>
+  </si>
+  <si>
+    <t>洛龙区</t>
+  </si>
+  <si>
+    <t>大张超市，伊滨1号店&lt;-最后会抹去分，很好的老板</t>
+  </si>
+  <si>
+    <t>[C]散馁化长粒香</t>
+  </si>
+  <si>
+    <t>[C]东北长粒香</t>
+  </si>
+  <si>
+    <t>东北长粒香</t>
+  </si>
+  <si>
+    <t>1.5L农夫山泉天然矿泉水</t>
+  </si>
+  <si>
+    <t>[C]380ml*12农夫山泉</t>
+  </si>
+  <si>
+    <t>塑料包</t>
+  </si>
+  <si>
+    <t>[C]550ml今麦郎纯净水</t>
+  </si>
+  <si>
+    <t>[C]5L今麦郎纯净水</t>
+  </si>
+  <si>
+    <t>[C]4.5L娃哈哈纯净水</t>
+  </si>
+  <si>
+    <t>[C]596ml*12哇哈哈纯净水</t>
+  </si>
+  <si>
+    <t>4.5L哇哈哈纯净水</t>
+  </si>
+  <si>
+    <t>550ml和其正凉茶</t>
+  </si>
+  <si>
+    <t>生菜</t>
+  </si>
+  <si>
+    <t>菠菜</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>青菜</t>
+  </si>
+  <si>
+    <t>水果玉米</t>
+  </si>
+  <si>
+    <t>黄芯土豆</t>
+  </si>
+  <si>
+    <t>黄瓜</t>
+  </si>
+  <si>
+    <t>小黄瓜</t>
+  </si>
+  <si>
+    <t>精品红萝卜</t>
+  </si>
+  <si>
+    <t>红皮鸡蛋</t>
+  </si>
+  <si>
+    <t>包装红皮鸡蛋</t>
+  </si>
+  <si>
+    <t>红皮破壳蛋</t>
+  </si>
+  <si>
+    <t>变蛋</t>
+  </si>
+  <si>
+    <t>蜂蜜石李子</t>
+  </si>
+  <si>
+    <t>精品柿椒</t>
+  </si>
+  <si>
+    <t>千禧</t>
+  </si>
+  <si>
+    <t>越南荔枝</t>
+  </si>
+  <si>
+    <t>进口桂圆</t>
+  </si>
+  <si>
+    <t>香蕉</t>
+  </si>
+  <si>
+    <t>香蕉特价</t>
+  </si>
+  <si>
+    <t>晓密瓜(切块)</t>
+  </si>
+  <si>
+    <t>西红柿</t>
+  </si>
+  <si>
+    <t>西洲蜜25#</t>
+  </si>
+  <si>
+    <t>75#水晶红富士</t>
+  </si>
+  <si>
+    <t>80号水晶红富士</t>
+  </si>
+  <si>
+    <t>红瓢火龙果(切块)</t>
+  </si>
+  <si>
+    <t>火龙果</t>
+  </si>
+  <si>
+    <t>精品冬枣</t>
+  </si>
+  <si>
+    <t>带叶蜜橘</t>
+  </si>
+  <si>
+    <t>汉中蜜橘</t>
+  </si>
+  <si>
+    <t>精品油桃</t>
+  </si>
+  <si>
+    <t>熟毛豆</t>
+  </si>
+  <si>
+    <t>包装凉皮</t>
+  </si>
+  <si>
+    <t>350g大张内酯豆腐</t>
+  </si>
+  <si>
+    <t>豆芽特价</t>
+  </si>
+  <si>
+    <t>400g大张绿豆芽</t>
+  </si>
+  <si>
+    <t>根茎类特价</t>
+  </si>
+  <si>
+    <t>大张面条特价</t>
+  </si>
+  <si>
+    <t>豆制品特价</t>
+  </si>
+  <si>
+    <t>新鲜素粽子</t>
+  </si>
+  <si>
+    <t>[C]510g陶老大速冻粽</t>
+  </si>
+  <si>
+    <t>[C]散思念粽子</t>
+  </si>
+  <si>
+    <t>山西风味饼</t>
+  </si>
+  <si>
+    <t>[C]96g双汇素食界蛋白</t>
+  </si>
+  <si>
+    <t>1380g思念桶装水饺</t>
+  </si>
+  <si>
+    <t>袋</t>
+  </si>
+  <si>
+    <t>[C]500g思念素馅水饺</t>
+  </si>
+  <si>
+    <t>水工混沌水饺</t>
+  </si>
+  <si>
+    <t>安井丸子系列</t>
+  </si>
+  <si>
+    <t>335g李子柒柳州螺蛳粉</t>
+  </si>
+  <si>
+    <t>自制面点（蒸制类）</t>
+  </si>
+  <si>
+    <t>自制面点</t>
+  </si>
+  <si>
+    <t>缸炉饼</t>
+  </si>
+  <si>
+    <t>百家口熟食</t>
+  </si>
+  <si>
+    <t>煎饺(自制)</t>
+  </si>
+  <si>
+    <t>大饼(自制)</t>
+  </si>
+  <si>
+    <t>小熊蛋糕</t>
+  </si>
+  <si>
+    <t>糕点特价</t>
+  </si>
+  <si>
+    <t>蛋糕卷（虎皮）</t>
+  </si>
+  <si>
+    <t>蜂蜜蛋糕</t>
+  </si>
+  <si>
+    <t>绿豆糕</t>
+  </si>
+  <si>
+    <t>豆沙糕点</t>
+  </si>
+  <si>
+    <t>风味烤饼</t>
+  </si>
+  <si>
+    <t>特价季节品</t>
+  </si>
+  <si>
+    <t>40g好真佳海湾码头馒头</t>
+  </si>
+  <si>
+    <t>家常肉馅</t>
+  </si>
+  <si>
+    <t>石牌香菇豆腐</t>
+  </si>
+  <si>
+    <t>蜂蜜华夫蛋糕</t>
+  </si>
+  <si>
+    <t>[C]散艾思利酸奶暖胃</t>
+  </si>
+  <si>
+    <t>108g盼盼薯片</t>
+  </si>
+  <si>
+    <t>[C]散多能多纯蛋糕</t>
+  </si>
+  <si>
+    <t>[C]休闲农场小被卷</t>
+  </si>
+  <si>
+    <t>北京9号</t>
+  </si>
+  <si>
+    <t>麦香鸡味块</t>
+  </si>
+  <si>
+    <t>腊肉散(腊粤湘)</t>
+  </si>
+  <si>
+    <t>御香居酱菜</t>
+  </si>
+  <si>
+    <t>[c]145g*5康师傅大食代</t>
+  </si>
+  <si>
+    <t>40粒益达西瓜口香糖</t>
+  </si>
+  <si>
+    <t>八珍五香牛腩</t>
+  </si>
+  <si>
+    <t>八珍现拌凉菜</t>
+  </si>
+  <si>
+    <t>八珍五香牛腱</t>
+  </si>
+  <si>
+    <t>八珍凉菜</t>
+  </si>
+  <si>
+    <t>八珍鸡肝</t>
+  </si>
+  <si>
+    <t>八珍童子鸡</t>
+  </si>
+  <si>
+    <t>八珍鸡叉骨</t>
+  </si>
+  <si>
+    <t>八珍炸鸡腿</t>
+  </si>
+  <si>
+    <t>纯瘦肉片</t>
+  </si>
+  <si>
+    <t>无颈前排</t>
+  </si>
+  <si>
+    <t>鲜鸡大胸</t>
+  </si>
+  <si>
+    <t>袋装金针菇</t>
+  </si>
+  <si>
+    <t>160g小肥羊火锅底料</t>
+  </si>
+  <si>
+    <t>26g*10枚贤哥无壳五香</t>
+  </si>
+  <si>
+    <t>尼登香抗菌运动鞋垫</t>
+  </si>
+  <si>
+    <t>双</t>
+  </si>
+  <si>
+    <t>尼登香抗菌除臭鞋垫</t>
+  </si>
+  <si>
+    <t>大号购物袋</t>
+  </si>
+  <si>
+    <t>个</t>
+  </si>
+  <si>
+    <t>[C]145g云南白药金口</t>
+  </si>
+  <si>
+    <t>顺艺12只不锈钢衣架</t>
+  </si>
+  <si>
+    <t>[C]清风110抽*6原木软</t>
+  </si>
+  <si>
+    <t>250g百钻食用小苏打</t>
+  </si>
+  <si>
+    <t>跨省</t>
+  </si>
+  <si>
+    <t>大庆东-&gt;哈尔滨，D6924，二等座</t>
+  </si>
+  <si>
+    <t>洛阳龙门-&gt;郑州东，G3154，二等座</t>
+  </si>
+  <si>
+    <t>黑龙江省</t>
+  </si>
+  <si>
+    <t>哈尔滨</t>
+  </si>
+  <si>
+    <t>庆丰包子铺，石头道店</t>
+  </si>
+  <si>
+    <t>生煎包</t>
+  </si>
+  <si>
+    <t>皮蛋瘦肉粥</t>
+  </si>
+  <si>
+    <t>百家好一生诸葛店</t>
+  </si>
+  <si>
+    <t>广东长兴生物科技股(长兴)一次性使用医用口罩</t>
+  </si>
+  <si>
+    <t>福建</t>
+  </si>
+  <si>
+    <t>三明市</t>
+  </si>
+  <si>
+    <t>三元区</t>
+  </si>
+  <si>
+    <t>佳嘉惠连锁超市富鑫超市，分店0101</t>
+  </si>
+  <si>
+    <t>金沙河扁袋原位</t>
+  </si>
+  <si>
+    <t>900g</t>
+  </si>
+  <si>
+    <t>河田鸡蛋</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>00007上海青</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,21 +786,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,29 +843,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,6 +856,14 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -425,7 +884,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,23 +892,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,19 +914,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -496,37 +938,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,13 +980,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,13 +992,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,13 +1094,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,85 +1118,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,33 +1129,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -732,28 +1147,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,179 +1186,213 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1280,7 +1727,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -1297,7 +1744,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="6">
+      <c r="A2" s="9">
         <v>43659</v>
       </c>
     </row>
@@ -1388,7 +1835,7 @@
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="6">
+      <c r="A11" s="9">
         <v>43660</v>
       </c>
     </row>
@@ -1482,7 +1929,7 @@
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="6">
+      <c r="A20" s="9">
         <v>43661</v>
       </c>
     </row>
@@ -1523,7 +1970,7 @@
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="6">
+      <c r="A25" s="9">
         <v>43662</v>
       </c>
     </row>
@@ -1561,7 +2008,7 @@
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="6">
+      <c r="A30" s="9">
         <v>43663</v>
       </c>
     </row>
@@ -1599,7 +2046,7 @@
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="6">
+      <c r="A35" s="9">
         <v>43664</v>
       </c>
     </row>
@@ -1637,7 +2084,7 @@
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="6">
+      <c r="A40" s="9">
         <v>43665</v>
       </c>
     </row>
@@ -1681,7 +2128,7 @@
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="6">
+      <c r="A45" s="9">
         <v>43667</v>
       </c>
     </row>
@@ -1747,7 +2194,7 @@
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="6">
+      <c r="A52" s="9">
         <v>43668</v>
       </c>
     </row>
@@ -1799,7 +2246,7 @@
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="6">
+      <c r="A58" s="9">
         <v>43666</v>
       </c>
     </row>
@@ -1843,7 +2290,7 @@
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="6">
+      <c r="A63" s="9">
         <v>43669</v>
       </c>
     </row>
@@ -1890,7 +2337,7 @@
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="6">
+      <c r="A68" s="9">
         <v>43670</v>
       </c>
     </row>
@@ -1931,7 +2378,7 @@
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="6">
+      <c r="A73" s="9">
         <v>43671</v>
       </c>
     </row>
@@ -1972,7 +2419,7 @@
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="6">
+      <c r="A78" s="9">
         <v>43672</v>
       </c>
     </row>
@@ -2013,7 +2460,7 @@
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="6">
+      <c r="A83" s="9">
         <v>43673</v>
       </c>
     </row>
@@ -2049,7 +2496,7 @@
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="6">
+      <c r="A87" s="9">
         <v>43674</v>
       </c>
     </row>
@@ -2090,7 +2537,7 @@
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="6">
+      <c r="A92" s="9">
         <v>43675</v>
       </c>
     </row>
@@ -2131,7 +2578,7 @@
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="6">
+      <c r="A97" s="9">
         <v>43676</v>
       </c>
     </row>
@@ -2172,7 +2619,7 @@
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="6">
+      <c r="A102" s="9">
         <v>43677</v>
       </c>
     </row>
@@ -2242,7 +2689,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -2259,7 +2706,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="6">
+      <c r="A2" s="9">
         <v>43678</v>
       </c>
     </row>
@@ -2300,7 +2747,7 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="6">
+      <c r="A7" s="9">
         <v>43679</v>
       </c>
     </row>
@@ -2341,7 +2788,7 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="6">
+      <c r="A12" s="9">
         <v>43680</v>
       </c>
     </row>
@@ -2382,7 +2829,7 @@
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="6">
+      <c r="A17" s="9">
         <v>43681</v>
       </c>
     </row>
@@ -2423,7 +2870,7 @@
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="6">
+      <c r="A22" s="9">
         <v>43682</v>
       </c>
     </row>
@@ -2464,7 +2911,7 @@
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="6">
+      <c r="A27" s="9">
         <v>43683</v>
       </c>
     </row>
@@ -2505,7 +2952,7 @@
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="6">
+      <c r="A32" s="9">
         <v>43684</v>
       </c>
     </row>
@@ -2554,7 +3001,7 @@
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="6">
+      <c r="A38" s="9">
         <v>43685</v>
       </c>
     </row>
@@ -2595,7 +3042,7 @@
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="6">
+      <c r="A43" s="9">
         <v>43685</v>
       </c>
     </row>
@@ -2663,21 +3110,21 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.6666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7777777777778" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.7777777777778" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -2691,12 +3138,12 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="6">
+      <c r="A2" s="9">
         <v>43713</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2704,7 +3151,7 @@
       <c r="A4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>83</v>
       </c>
       <c r="D4">
@@ -2718,7 +3165,7 @@
       <c r="A5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>86</v>
       </c>
       <c r="D5">
@@ -2729,7 +3176,7 @@
       <c r="A6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="8">
         <v>0.8</v>
       </c>
       <c r="D6">
@@ -2743,7 +3190,7 @@
       <c r="A7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="8">
         <v>3.8</v>
       </c>
       <c r="D7">
@@ -2770,7 +3217,7 @@
       <c r="A10" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D10">
@@ -2786,7 +3233,7 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="6">
+      <c r="A12" s="9">
         <v>43717</v>
       </c>
     </row>
@@ -2794,7 +3241,7 @@
       <c r="A13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="8">
         <v>4</v>
       </c>
       <c r="C13" t="s">
@@ -2809,4 +3256,3724 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AH223"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F48" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="F55" sqref="F55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="5.44444444444444" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
+    <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
+    <col min="4" max="4" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.4444444444444"/>
+    <col min="10" max="10" width="52.7777777777778" customWidth="1"/>
+    <col min="11" max="11" width="5.66666666666667" customWidth="1"/>
+    <col min="14" max="14" width="9.11111111111111"/>
+    <col min="19" max="19" width="9.11111111111111"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="A1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1">
+        <f>H6</f>
+        <v>2.33</v>
+      </c>
+      <c r="O1">
+        <f>H6</f>
+        <v>2.33</v>
+      </c>
+      <c r="P1">
+        <f>H25+H62</f>
+        <v>5</v>
+      </c>
+      <c r="Q1">
+        <f>H135</f>
+        <v>4.29</v>
+      </c>
+      <c r="S1">
+        <f>SUM(N1:R1)</f>
+        <v>13.95</v>
+      </c>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+    </row>
+    <row r="2" ht="27.6" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" ht="41.4" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" customFormat="1" spans="5:9">
+      <c r="E4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4">
+        <v>1.16</v>
+      </c>
+      <c r="G4">
+        <v>6.3</v>
+      </c>
+      <c r="H4">
+        <v>6.24</v>
+      </c>
+      <c r="I4" s="6">
+        <v>44022</v>
+      </c>
+    </row>
+    <row r="5" spans="5:8">
+      <c r="E5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5">
+        <v>0.45</v>
+      </c>
+      <c r="G5">
+        <v>6.56</v>
+      </c>
+      <c r="H5">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="6" spans="5:9">
+      <c r="E6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6">
+        <v>0.39</v>
+      </c>
+      <c r="G6">
+        <v>6.56</v>
+      </c>
+      <c r="H6">
+        <v>2.33</v>
+      </c>
+      <c r="I6" s="6">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="7" spans="5:10">
+      <c r="E7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.9</v>
+      </c>
+      <c r="H7">
+        <v>2.5</v>
+      </c>
+      <c r="I7" s="6">
+        <v>43972</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="5:10">
+      <c r="E8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.9</v>
+      </c>
+      <c r="H8">
+        <v>2.9</v>
+      </c>
+      <c r="I8" s="6">
+        <v>44115</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10">
+      <c r="E9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>13.9</v>
+      </c>
+      <c r="H9">
+        <v>11.9</v>
+      </c>
+      <c r="I9" s="6">
+        <v>44090</v>
+      </c>
+      <c r="J9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9">
+      <c r="E10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>0.8</v>
+      </c>
+      <c r="H10">
+        <v>5.9</v>
+      </c>
+      <c r="I10" s="6">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="11" spans="5:10">
+      <c r="E11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.9</v>
+      </c>
+      <c r="H11">
+        <v>4.9</v>
+      </c>
+      <c r="I11" s="6">
+        <v>43976</v>
+      </c>
+      <c r="J11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:10">
+      <c r="A12" s="1"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>6.9</v>
+      </c>
+      <c r="H12">
+        <v>6.9</v>
+      </c>
+      <c r="I12" s="6">
+        <v>44022</v>
+      </c>
+      <c r="J12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="5:10">
+      <c r="E13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>13.9</v>
+      </c>
+      <c r="H13">
+        <v>10.9</v>
+      </c>
+      <c r="I13" s="6">
+        <v>44039</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10">
+      <c r="E14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6.9</v>
+      </c>
+      <c r="H14">
+        <v>6.9</v>
+      </c>
+      <c r="I14" s="6">
+        <v>44000</v>
+      </c>
+      <c r="J14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="5:10">
+      <c r="E15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.5</v>
+      </c>
+      <c r="H15">
+        <v>3.5</v>
+      </c>
+      <c r="I15" s="6">
+        <v>44075</v>
+      </c>
+      <c r="J15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9">
+      <c r="E16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16">
+        <v>0.39</v>
+      </c>
+      <c r="G16">
+        <v>9.16</v>
+      </c>
+      <c r="H16">
+        <v>3.54</v>
+      </c>
+      <c r="I16" s="6">
+        <v>44205</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10">
+      <c r="E17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17">
+        <v>0.29</v>
+      </c>
+      <c r="G17">
+        <v>5.96</v>
+      </c>
+      <c r="H17">
+        <v>1.74</v>
+      </c>
+      <c r="I17" s="6">
+        <v>44197</v>
+      </c>
+      <c r="J17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9">
+      <c r="E18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18">
+        <v>0.48</v>
+      </c>
+      <c r="G18">
+        <v>5.16</v>
+      </c>
+      <c r="H18">
+        <v>2.46</v>
+      </c>
+      <c r="I18" s="6">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:10">
+      <c r="A19" s="1"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19">
+        <v>0.43</v>
+      </c>
+      <c r="G19">
+        <v>6.56</v>
+      </c>
+      <c r="H19">
+        <v>2.85</v>
+      </c>
+      <c r="I19" s="6">
+        <v>44111</v>
+      </c>
+      <c r="J19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:10">
+      <c r="A20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20">
+        <v>0.43</v>
+      </c>
+      <c r="G20">
+        <v>6.96</v>
+      </c>
+      <c r="H20">
+        <v>3.4</v>
+      </c>
+      <c r="I20" s="6">
+        <v>44021</v>
+      </c>
+      <c r="J20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:10">
+      <c r="A21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21">
+        <v>0.56</v>
+      </c>
+      <c r="G21">
+        <v>5.96</v>
+      </c>
+      <c r="H21">
+        <v>3.34</v>
+      </c>
+      <c r="I21" s="6">
+        <v>44023</v>
+      </c>
+      <c r="J21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:10">
+      <c r="A22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22">
+        <v>0.43</v>
+      </c>
+      <c r="G22">
+        <v>5.96</v>
+      </c>
+      <c r="H22">
+        <v>2.56</v>
+      </c>
+      <c r="I22" s="6">
+        <v>44024</v>
+      </c>
+      <c r="J22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:10">
+      <c r="A23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23">
+        <v>2.78</v>
+      </c>
+      <c r="G23">
+        <v>1.8</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23" s="6">
+        <v>44024</v>
+      </c>
+      <c r="J23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9">
+      <c r="E24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24">
+        <v>0.43</v>
+      </c>
+      <c r="G24">
+        <v>5.96</v>
+      </c>
+      <c r="H24">
+        <v>2.54</v>
+      </c>
+      <c r="I24" s="6">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9">
+      <c r="E25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25">
+        <v>0.29</v>
+      </c>
+      <c r="G25">
+        <v>3.96</v>
+      </c>
+      <c r="H25">
+        <v>1.13</v>
+      </c>
+      <c r="I25" s="6">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:9">
+      <c r="A26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26">
+        <v>0.63</v>
+      </c>
+      <c r="G26">
+        <v>3.96</v>
+      </c>
+      <c r="H26">
+        <v>2.48</v>
+      </c>
+      <c r="I26" s="6">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:9">
+      <c r="A27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27">
+        <v>0.31</v>
+      </c>
+      <c r="G27">
+        <v>5.16</v>
+      </c>
+      <c r="H27">
+        <v>1.59</v>
+      </c>
+      <c r="I27" s="6">
+        <v>44003</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:9">
+      <c r="A28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28">
+        <v>0.58</v>
+      </c>
+      <c r="G28">
+        <v>3.16</v>
+      </c>
+      <c r="H28">
+        <v>1.84</v>
+      </c>
+      <c r="I28" s="6">
+        <v>43997</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:9">
+      <c r="A29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29">
+        <v>0.18</v>
+      </c>
+      <c r="G29">
+        <v>5.76</v>
+      </c>
+      <c r="H29">
+        <v>1.06</v>
+      </c>
+      <c r="I29" s="6">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:9">
+      <c r="A30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30">
+        <v>0.35</v>
+      </c>
+      <c r="G30">
+        <v>3.96</v>
+      </c>
+      <c r="H30">
+        <v>1.39</v>
+      </c>
+      <c r="I30" s="6">
+        <v>43992</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:9">
+      <c r="A31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31">
+        <v>0.21</v>
+      </c>
+      <c r="G31">
+        <v>4.72</v>
+      </c>
+      <c r="H31">
+        <v>0.99</v>
+      </c>
+      <c r="I31" s="6">
+        <v>44010</v>
+      </c>
+    </row>
+    <row r="32" spans="5:10">
+      <c r="E32" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32">
+        <v>0.62</v>
+      </c>
+      <c r="G32">
+        <v>7.36</v>
+      </c>
+      <c r="H32">
+        <v>4.53</v>
+      </c>
+      <c r="I32" s="6">
+        <v>44122</v>
+      </c>
+      <c r="J32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:10">
+      <c r="A33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33">
+        <v>0.75</v>
+      </c>
+      <c r="G33">
+        <v>7.96</v>
+      </c>
+      <c r="H33">
+        <v>5.97</v>
+      </c>
+      <c r="I33" s="6">
+        <v>44126</v>
+      </c>
+      <c r="J33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:10">
+      <c r="A34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+      <c r="G34">
+        <v>7.96</v>
+      </c>
+      <c r="H34">
+        <v>3.98</v>
+      </c>
+      <c r="I34" s="6">
+        <v>44102</v>
+      </c>
+      <c r="J34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:10">
+      <c r="A35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F35">
+        <v>0.61</v>
+      </c>
+      <c r="G35">
+        <v>7.56</v>
+      </c>
+      <c r="H35">
+        <v>4.63</v>
+      </c>
+      <c r="I35" s="6">
+        <v>44095</v>
+      </c>
+      <c r="J35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:10">
+      <c r="A36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F36">
+        <v>0.34</v>
+      </c>
+      <c r="G36">
+        <v>5.76</v>
+      </c>
+      <c r="H36">
+        <v>1.97</v>
+      </c>
+      <c r="I36" s="6">
+        <v>44010</v>
+      </c>
+      <c r="J36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:10">
+      <c r="A37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F37">
+        <v>1.32</v>
+      </c>
+      <c r="G37">
+        <v>5.56</v>
+      </c>
+      <c r="H37">
+        <v>7.34</v>
+      </c>
+      <c r="I37" s="6">
+        <v>44022</v>
+      </c>
+      <c r="J37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:10">
+      <c r="A38" s="1"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38">
+        <v>1.42</v>
+      </c>
+      <c r="G38">
+        <v>7.16</v>
+      </c>
+      <c r="H38">
+        <v>10.14</v>
+      </c>
+      <c r="I38" s="6">
+        <v>44132</v>
+      </c>
+      <c r="J38" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:10">
+      <c r="A39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39">
+        <v>0.42</v>
+      </c>
+      <c r="G39">
+        <v>5.2</v>
+      </c>
+      <c r="H39">
+        <v>2.19</v>
+      </c>
+      <c r="I39" s="6">
+        <v>44021</v>
+      </c>
+      <c r="J39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="5:9">
+      <c r="E40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40">
+        <v>0.31</v>
+      </c>
+      <c r="G40">
+        <v>5.16</v>
+      </c>
+      <c r="H40">
+        <v>1.59</v>
+      </c>
+      <c r="I40" s="6">
+        <v>44003</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:9">
+      <c r="A41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" customFormat="1" spans="1:9">
+      <c r="A42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" customFormat="1" spans="1:9">
+      <c r="A43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="5:9">
+      <c r="E44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44">
+        <v>0.47</v>
+      </c>
+      <c r="G44">
+        <v>3.56</v>
+      </c>
+      <c r="H44">
+        <v>1.68</v>
+      </c>
+      <c r="I44" s="6">
+        <v>44043</v>
+      </c>
+    </row>
+    <row r="45" spans="5:9">
+      <c r="E45" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F45">
+        <v>0.14</v>
+      </c>
+      <c r="G45">
+        <v>5.78</v>
+      </c>
+      <c r="H45">
+        <v>0.78</v>
+      </c>
+      <c r="I45" s="6">
+        <v>44021</v>
+      </c>
+    </row>
+    <row r="46" spans="5:9">
+      <c r="E46" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F46">
+        <v>0.13</v>
+      </c>
+      <c r="G46">
+        <v>13.96</v>
+      </c>
+      <c r="H46">
+        <v>2.46</v>
+      </c>
+      <c r="I46" s="6">
+        <v>44043</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:9">
+      <c r="A47" s="1"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F47">
+        <v>0.24</v>
+      </c>
+      <c r="G47">
+        <v>5.96</v>
+      </c>
+      <c r="H47">
+        <v>1.44</v>
+      </c>
+      <c r="I47" s="6">
+        <v>44006</v>
+      </c>
+    </row>
+    <row r="48" spans="5:9">
+      <c r="E48" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F48">
+        <v>0.3</v>
+      </c>
+      <c r="G48">
+        <v>19.6</v>
+      </c>
+      <c r="H48">
+        <v>5.88</v>
+      </c>
+      <c r="I48" s="6">
+        <v>43992</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9">
+      <c r="E49" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F49">
+        <v>0.19</v>
+      </c>
+      <c r="G49">
+        <v>13.96</v>
+      </c>
+      <c r="H49">
+        <v>2.6</v>
+      </c>
+      <c r="I49" s="6">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="1:9">
+      <c r="A50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F50">
+        <v>0.27</v>
+      </c>
+      <c r="G50">
+        <v>19.8</v>
+      </c>
+      <c r="H50">
+        <v>5.35</v>
+      </c>
+      <c r="I50" s="6">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="51" spans="5:9">
+      <c r="E51" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F51">
+        <v>0.77</v>
+      </c>
+      <c r="G51">
+        <v>4.76</v>
+      </c>
+      <c r="H51">
+        <v>3.65</v>
+      </c>
+      <c r="I51" s="6">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:9">
+      <c r="A52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F52">
+        <v>0.37</v>
+      </c>
+      <c r="G52">
+        <v>4.76</v>
+      </c>
+      <c r="H52">
+        <v>1.77</v>
+      </c>
+      <c r="I52" s="6">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:9">
+      <c r="A53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F53">
+        <v>1.3</v>
+      </c>
+      <c r="G53">
+        <v>3.96</v>
+      </c>
+      <c r="H53">
+        <v>5.14</v>
+      </c>
+      <c r="I53" s="6">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:9">
+      <c r="A54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F54">
+        <v>0.87</v>
+      </c>
+      <c r="G54">
+        <v>3.96</v>
+      </c>
+      <c r="H54">
+        <v>3.46</v>
+      </c>
+      <c r="I54" s="6">
+        <v>44014</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:9">
+      <c r="A55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>2.47</v>
+      </c>
+      <c r="H55">
+        <v>2.47</v>
+      </c>
+      <c r="I55" s="6">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="1:9">
+      <c r="A56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>2.48</v>
+      </c>
+      <c r="H56">
+        <v>2.48</v>
+      </c>
+      <c r="I56" s="6">
+        <v>44090</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="1:9">
+      <c r="A57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>3.24</v>
+      </c>
+      <c r="H57">
+        <v>3.24</v>
+      </c>
+      <c r="I57" s="6">
+        <v>43997</v>
+      </c>
+    </row>
+    <row r="58" spans="5:9">
+      <c r="E58" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>10.8</v>
+      </c>
+      <c r="H58">
+        <v>10.8</v>
+      </c>
+      <c r="I58" s="6">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="1:9">
+      <c r="A59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F59">
+        <v>0.56</v>
+      </c>
+      <c r="G59">
+        <v>10.8</v>
+      </c>
+      <c r="H59">
+        <v>6</v>
+      </c>
+      <c r="I59" s="6">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" spans="1:9">
+      <c r="A60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F60">
+        <v>0.38</v>
+      </c>
+      <c r="G60">
+        <v>13</v>
+      </c>
+      <c r="H60">
+        <v>5</v>
+      </c>
+      <c r="I60" s="6">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="1:9">
+      <c r="A61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F61">
+        <v>0.27</v>
+      </c>
+      <c r="G61">
+        <v>5.56</v>
+      </c>
+      <c r="H61">
+        <v>1.52</v>
+      </c>
+      <c r="I61" s="6">
+        <v>44021</v>
+      </c>
+    </row>
+    <row r="62" spans="5:9">
+      <c r="E62" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F62">
+        <v>0.53</v>
+      </c>
+      <c r="G62">
+        <v>7.36</v>
+      </c>
+      <c r="H62">
+        <v>3.87</v>
+      </c>
+      <c r="I62" s="6">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="63" spans="5:9">
+      <c r="E63" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F63">
+        <v>0.51</v>
+      </c>
+      <c r="G63">
+        <v>9.96</v>
+      </c>
+      <c r="H63">
+        <v>5.04</v>
+      </c>
+      <c r="I63" s="6">
+        <v>44033</v>
+      </c>
+    </row>
+    <row r="64" spans="5:9">
+      <c r="E64" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F64">
+        <v>0.79</v>
+      </c>
+      <c r="G64">
+        <v>7.96</v>
+      </c>
+      <c r="H64">
+        <v>6.27</v>
+      </c>
+      <c r="I64" s="6">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="65" spans="5:9">
+      <c r="E65" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F65">
+        <v>0.3</v>
+      </c>
+      <c r="G65">
+        <v>10</v>
+      </c>
+      <c r="H65">
+        <v>3</v>
+      </c>
+      <c r="I65" s="6">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="66" spans="5:9">
+      <c r="E66" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F66">
+        <v>0.44</v>
+      </c>
+      <c r="G66">
+        <v>9.96</v>
+      </c>
+      <c r="H66">
+        <v>4.4</v>
+      </c>
+      <c r="I66" s="6">
+        <v>44085</v>
+      </c>
+    </row>
+    <row r="67" spans="5:9">
+      <c r="E67" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F67">
+        <v>0.25</v>
+      </c>
+      <c r="G67">
+        <v>19.6</v>
+      </c>
+      <c r="H67">
+        <v>4.98</v>
+      </c>
+      <c r="I67" s="6">
+        <v>44076</v>
+      </c>
+    </row>
+    <row r="68" spans="5:9">
+      <c r="E68" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F68">
+        <v>0.35</v>
+      </c>
+      <c r="G68">
+        <v>9.96</v>
+      </c>
+      <c r="H68">
+        <v>3.47</v>
+      </c>
+      <c r="I68" s="6">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="69" spans="5:9">
+      <c r="E69" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F69">
+        <v>1.46</v>
+      </c>
+      <c r="G69">
+        <v>5.96</v>
+      </c>
+      <c r="H69">
+        <v>8.71</v>
+      </c>
+      <c r="I69" s="6">
+        <v>44115</v>
+      </c>
+    </row>
+    <row r="70" spans="5:9">
+      <c r="E70" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F70">
+        <v>1.01</v>
+      </c>
+      <c r="G70">
+        <v>7.96</v>
+      </c>
+      <c r="H70">
+        <v>8.04</v>
+      </c>
+      <c r="I70" s="6">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" spans="1:9">
+      <c r="A71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F71">
+        <v>0.24</v>
+      </c>
+      <c r="G71">
+        <v>4.76</v>
+      </c>
+      <c r="H71">
+        <v>1.15</v>
+      </c>
+      <c r="I71" s="6">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" spans="1:9">
+      <c r="A72" s="1"/>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F72">
+        <v>0.49</v>
+      </c>
+      <c r="G72">
+        <v>5.16</v>
+      </c>
+      <c r="H72">
+        <v>2.52</v>
+      </c>
+      <c r="I72" s="6">
+        <v>43994</v>
+      </c>
+    </row>
+    <row r="73" spans="9:9">
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="9:9">
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="5:9">
+      <c r="E75" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F75">
+        <v>0.14</v>
+      </c>
+      <c r="G75">
+        <v>9.96</v>
+      </c>
+      <c r="H75">
+        <v>1.41</v>
+      </c>
+      <c r="I75" s="6">
+        <v>44022</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="1:9">
+      <c r="A76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>6</v>
+      </c>
+      <c r="H76">
+        <v>6</v>
+      </c>
+      <c r="I76" s="6">
+        <v>43994</v>
+      </c>
+    </row>
+    <row r="77" customFormat="1" spans="1:9">
+      <c r="A77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F77" s="7">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>3.5</v>
+      </c>
+      <c r="H77">
+        <v>3.5</v>
+      </c>
+      <c r="I77" s="6">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" spans="1:9">
+      <c r="A78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F78" s="7">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>0.4</v>
+      </c>
+      <c r="H78">
+        <v>0.4</v>
+      </c>
+      <c r="I78" s="6">
+        <v>44021</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" spans="1:9">
+      <c r="A79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F79" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="G79">
+        <v>1.5</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79" s="6">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" spans="1:9">
+      <c r="A80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F80" s="7">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1.32</v>
+      </c>
+      <c r="H80">
+        <v>1.32</v>
+      </c>
+      <c r="I80" s="6">
+        <v>44021</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" spans="1:9">
+      <c r="A81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F81" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>0.8</v>
+      </c>
+      <c r="I81" s="6">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="82" customFormat="1" spans="1:9">
+      <c r="A82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F82" s="7">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>1.27</v>
+      </c>
+      <c r="H82">
+        <v>1.27</v>
+      </c>
+      <c r="I82" s="6">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="83" customFormat="1" spans="1:9">
+      <c r="A83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" s="7">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>1.73</v>
+      </c>
+      <c r="H83">
+        <v>1.73</v>
+      </c>
+      <c r="I83" s="6">
+        <v>44010</v>
+      </c>
+    </row>
+    <row r="84" spans="5:9">
+      <c r="E84" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F84">
+        <v>0.63</v>
+      </c>
+      <c r="G84">
+        <v>15.6</v>
+      </c>
+      <c r="H84">
+        <v>9.89</v>
+      </c>
+      <c r="I84" s="6">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="85" customFormat="1" spans="1:9">
+      <c r="A85" s="1"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F85">
+        <v>0.12</v>
+      </c>
+      <c r="G85">
+        <v>15.6</v>
+      </c>
+      <c r="H85">
+        <v>1.87</v>
+      </c>
+      <c r="I85" s="6">
+        <v>44006</v>
+      </c>
+    </row>
+    <row r="86" spans="5:9">
+      <c r="E86" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>11.8</v>
+      </c>
+      <c r="H86">
+        <v>8.9</v>
+      </c>
+      <c r="I86" s="6">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="87" customFormat="1" spans="1:9">
+      <c r="A87" s="1"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>11.8</v>
+      </c>
+      <c r="H87">
+        <v>7.9</v>
+      </c>
+      <c r="I87" s="6">
+        <v>44009</v>
+      </c>
+    </row>
+    <row r="88" customFormat="1" spans="1:9">
+      <c r="A88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F88">
+        <v>0.57</v>
+      </c>
+      <c r="G88">
+        <v>37.8</v>
+      </c>
+      <c r="H88">
+        <v>12.34</v>
+      </c>
+      <c r="I88" s="6">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="89" customFormat="1" spans="1:9">
+      <c r="A89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F89">
+        <v>3</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>3</v>
+      </c>
+      <c r="I89" s="6">
+        <v>44009</v>
+      </c>
+    </row>
+    <row r="90" customFormat="1" spans="1:9">
+      <c r="A90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>5.8</v>
+      </c>
+      <c r="H90">
+        <v>4.8</v>
+      </c>
+      <c r="I90" s="6">
+        <v>44085</v>
+      </c>
+    </row>
+    <row r="91" spans="9:9">
+      <c r="I91" s="6"/>
+    </row>
+    <row r="92" spans="9:9">
+      <c r="I92" s="6"/>
+    </row>
+    <row r="93" customFormat="1" spans="1:10">
+      <c r="A93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>21.9</v>
+      </c>
+      <c r="H93">
+        <v>13.8</v>
+      </c>
+      <c r="I93" s="6">
+        <v>44137</v>
+      </c>
+      <c r="J93" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="94" spans="5:10">
+      <c r="E94" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>21.9</v>
+      </c>
+      <c r="H94">
+        <v>15.8</v>
+      </c>
+      <c r="I94" s="6">
+        <v>44173</v>
+      </c>
+      <c r="J94" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="95" customFormat="1" spans="1:10">
+      <c r="A95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>21.9</v>
+      </c>
+      <c r="H95">
+        <v>15.8</v>
+      </c>
+      <c r="I95" s="6">
+        <v>44037</v>
+      </c>
+      <c r="J95" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="96" customFormat="1" spans="1:10">
+      <c r="A96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>21.9</v>
+      </c>
+      <c r="H96">
+        <v>14.8</v>
+      </c>
+      <c r="I96" s="6">
+        <v>44103</v>
+      </c>
+      <c r="J96" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="97" customFormat="1" spans="1:10">
+      <c r="A97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>21.9</v>
+      </c>
+      <c r="H97">
+        <v>14.8</v>
+      </c>
+      <c r="I97" s="6">
+        <v>44122</v>
+      </c>
+      <c r="J97" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="98" customFormat="1" spans="1:10">
+      <c r="A98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>9.9</v>
+      </c>
+      <c r="H98">
+        <v>7.8</v>
+      </c>
+      <c r="I98" s="6">
+        <v>44033</v>
+      </c>
+      <c r="J98" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="99" spans="5:10">
+      <c r="E99" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>15.66</v>
+      </c>
+      <c r="H99">
+        <v>15.66</v>
+      </c>
+      <c r="I99" s="6">
+        <v>44186</v>
+      </c>
+      <c r="J99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" customFormat="1" spans="1:10">
+      <c r="A100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>16.17</v>
+      </c>
+      <c r="H100">
+        <v>16.17</v>
+      </c>
+      <c r="I100" s="6">
+        <v>44045</v>
+      </c>
+      <c r="J100" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="5:10">
+      <c r="E101" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F101">
+        <v>0.31</v>
+      </c>
+      <c r="G101">
+        <v>31.8</v>
+      </c>
+      <c r="H101">
+        <v>9.79</v>
+      </c>
+      <c r="I101" s="6">
+        <v>44186</v>
+      </c>
+      <c r="J101" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="102" spans="5:10">
+      <c r="E102" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>12.9</v>
+      </c>
+      <c r="H102">
+        <v>9.5</v>
+      </c>
+      <c r="I102" s="6">
+        <v>44186</v>
+      </c>
+      <c r="J102" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="103" spans="9:9">
+      <c r="I103" s="6"/>
+    </row>
+    <row r="104" customFormat="1" spans="1:9">
+      <c r="A104" s="1"/>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>2.5</v>
+      </c>
+      <c r="H104">
+        <v>2.5</v>
+      </c>
+      <c r="I104" s="6">
+        <v>44085</v>
+      </c>
+    </row>
+    <row r="105" spans="5:9">
+      <c r="E105" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <v>2.51</v>
+      </c>
+      <c r="H105">
+        <v>2.51</v>
+      </c>
+      <c r="I105" s="6">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="106" spans="5:9">
+      <c r="E106" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F106">
+        <v>0.28</v>
+      </c>
+      <c r="G106">
+        <v>13.96</v>
+      </c>
+      <c r="H106">
+        <v>3.96</v>
+      </c>
+      <c r="I106" s="6">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="107" spans="5:9">
+      <c r="E107" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>11.71</v>
+      </c>
+      <c r="H107">
+        <v>11.71</v>
+      </c>
+      <c r="I107" s="6">
+        <v>44042</v>
+      </c>
+    </row>
+    <row r="108" spans="5:10">
+      <c r="E108" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F108">
+        <v>0.22</v>
+      </c>
+      <c r="G108">
+        <v>19.6</v>
+      </c>
+      <c r="H108">
+        <v>4.22</v>
+      </c>
+      <c r="I108" s="6">
+        <v>44172</v>
+      </c>
+      <c r="J108" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="109" spans="5:10">
+      <c r="E109" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F109">
+        <v>0.26</v>
+      </c>
+      <c r="G109">
+        <v>11.96</v>
+      </c>
+      <c r="H109">
+        <v>3.05</v>
+      </c>
+      <c r="I109" s="6">
+        <v>44172</v>
+      </c>
+      <c r="J109" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="110" spans="5:10">
+      <c r="E110" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F110">
+        <v>0.17</v>
+      </c>
+      <c r="G110">
+        <v>9.96</v>
+      </c>
+      <c r="H110">
+        <v>1.67</v>
+      </c>
+      <c r="I110" s="6">
+        <v>44014</v>
+      </c>
+      <c r="J110" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="111" spans="5:10">
+      <c r="E111" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>6.9</v>
+      </c>
+      <c r="H111">
+        <v>6.9</v>
+      </c>
+      <c r="I111" s="6">
+        <v>43982</v>
+      </c>
+      <c r="J111" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="112" spans="5:10">
+      <c r="E112" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F112">
+        <v>0.29</v>
+      </c>
+      <c r="G112">
+        <v>19.8</v>
+      </c>
+      <c r="H112">
+        <v>5.78</v>
+      </c>
+      <c r="I112" s="6">
+        <v>44006</v>
+      </c>
+      <c r="J112" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="113" spans="5:10">
+      <c r="E113" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F113">
+        <v>0.33</v>
+      </c>
+      <c r="G113">
+        <v>9.96</v>
+      </c>
+      <c r="H113">
+        <v>3.29</v>
+      </c>
+      <c r="I113" s="6">
+        <v>44007</v>
+      </c>
+      <c r="J113" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="114" spans="5:10">
+      <c r="E114" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F114">
+        <v>0.2</v>
+      </c>
+      <c r="G114">
+        <v>11.96</v>
+      </c>
+      <c r="H114">
+        <v>2.39</v>
+      </c>
+      <c r="I114" s="6">
+        <v>44008</v>
+      </c>
+      <c r="J114" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="115" spans="5:10">
+      <c r="E115" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F115">
+        <v>0.32</v>
+      </c>
+      <c r="G115">
+        <v>13.6</v>
+      </c>
+      <c r="H115">
+        <v>4.38</v>
+      </c>
+      <c r="I115" s="6">
+        <v>43998</v>
+      </c>
+      <c r="J115" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="116" spans="5:10">
+      <c r="E116" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F116">
+        <v>0.16</v>
+      </c>
+      <c r="G116">
+        <v>13.6</v>
+      </c>
+      <c r="H116">
+        <v>2.2</v>
+      </c>
+      <c r="I116" s="6">
+        <v>43972</v>
+      </c>
+      <c r="J116" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="117" customFormat="1" spans="1:10">
+      <c r="A117" s="1"/>
+      <c r="B117"/>
+      <c r="C117"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F117">
+        <v>0.31</v>
+      </c>
+      <c r="G117">
+        <v>13.6</v>
+      </c>
+      <c r="H117">
+        <v>4.28</v>
+      </c>
+      <c r="I117" s="6">
+        <v>43992</v>
+      </c>
+      <c r="J117" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="118" customFormat="1" spans="1:10">
+      <c r="A118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F118">
+        <v>0.23</v>
+      </c>
+      <c r="G118">
+        <v>13.6</v>
+      </c>
+      <c r="H118">
+        <v>3.14</v>
+      </c>
+      <c r="I118" s="6">
+        <v>44024</v>
+      </c>
+      <c r="J118" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="119" spans="5:9">
+      <c r="E119" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F119">
+        <v>5</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>5</v>
+      </c>
+      <c r="I119" s="6">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="120" customFormat="1" spans="1:9">
+      <c r="A120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F120">
+        <v>1.5</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>1.5</v>
+      </c>
+      <c r="I120" s="6">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="121" customFormat="1" spans="1:9">
+      <c r="A121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F121">
+        <v>2</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>2</v>
+      </c>
+      <c r="I121" s="6">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="122" customFormat="1" spans="1:9">
+      <c r="A122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F122">
+        <v>2</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>2</v>
+      </c>
+      <c r="I122" s="6">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="123" customFormat="1" spans="1:9">
+      <c r="A123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F123">
+        <v>3</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>3</v>
+      </c>
+      <c r="I123" s="6">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="124" customFormat="1" spans="1:9">
+      <c r="A124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F124">
+        <v>2.5</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>2.5</v>
+      </c>
+      <c r="I124" s="6">
+        <v>43991</v>
+      </c>
+    </row>
+    <row r="125" customFormat="1" spans="1:9">
+      <c r="A125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F125">
+        <v>2</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>2</v>
+      </c>
+      <c r="I125" s="6">
+        <v>43991</v>
+      </c>
+    </row>
+    <row r="126" customFormat="1" spans="1:9">
+      <c r="A126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F126">
+        <v>2</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>2</v>
+      </c>
+      <c r="I126" s="6">
+        <v>43993</v>
+      </c>
+    </row>
+    <row r="127" customFormat="1" spans="1:9">
+      <c r="A127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F127">
+        <v>2</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>2</v>
+      </c>
+      <c r="I127" s="6">
+        <v>43993</v>
+      </c>
+    </row>
+    <row r="128" customFormat="1" spans="1:9">
+      <c r="A128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F128">
+        <v>2</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="I128" s="6">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="129" customFormat="1" spans="1:9">
+      <c r="A129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F129">
+        <v>2</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129" s="6">
+        <v>44006</v>
+      </c>
+    </row>
+    <row r="130" customFormat="1" spans="1:9">
+      <c r="A130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F130">
+        <v>2</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>2</v>
+      </c>
+      <c r="I130" s="6">
+        <v>43994</v>
+      </c>
+    </row>
+    <row r="131" customFormat="1" spans="1:9">
+      <c r="A131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F131">
+        <v>2.5</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>2.5</v>
+      </c>
+      <c r="I131" s="6">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="132" customFormat="1" spans="1:9">
+      <c r="A132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F132">
+        <v>3.5</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>3.5</v>
+      </c>
+      <c r="I132" s="6">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="133" customFormat="1" spans="1:9">
+      <c r="A133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <v>2</v>
+      </c>
+      <c r="H133">
+        <v>2</v>
+      </c>
+      <c r="I133" s="6">
+        <v>43993</v>
+      </c>
+    </row>
+    <row r="134" spans="5:9">
+      <c r="E134" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>10.5</v>
+      </c>
+      <c r="H134">
+        <v>10.5</v>
+      </c>
+      <c r="I134" s="6">
+        <v>44037</v>
+      </c>
+    </row>
+    <row r="135" spans="5:9">
+      <c r="E135" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F135">
+        <v>0.08</v>
+      </c>
+      <c r="G135">
+        <v>53.6</v>
+      </c>
+      <c r="H135">
+        <v>4.29</v>
+      </c>
+      <c r="I135" s="6">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="137" spans="9:9">
+      <c r="I137" s="6"/>
+    </row>
+    <row r="138" spans="9:9">
+      <c r="I138" s="6"/>
+    </row>
+    <row r="139" spans="9:9">
+      <c r="I139" s="6"/>
+    </row>
+    <row r="140" spans="9:9">
+      <c r="I140" s="6"/>
+    </row>
+    <row r="141" spans="9:9">
+      <c r="I141" s="6"/>
+    </row>
+    <row r="142" spans="9:9">
+      <c r="I142" s="6"/>
+    </row>
+    <row r="143" spans="9:9">
+      <c r="I143" s="6"/>
+    </row>
+    <row r="144" spans="5:10">
+      <c r="E144" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F144">
+        <v>0.28</v>
+      </c>
+      <c r="G144">
+        <v>33.6</v>
+      </c>
+      <c r="H144">
+        <v>7.61</v>
+      </c>
+      <c r="I144" s="6">
+        <v>44139</v>
+      </c>
+      <c r="J144" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="145" spans="5:9">
+      <c r="E145" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F145">
+        <v>0.18</v>
+      </c>
+      <c r="G145">
+        <v>19.8</v>
+      </c>
+      <c r="H145">
+        <v>3.48</v>
+      </c>
+      <c r="I145" s="6">
+        <v>44172</v>
+      </c>
+    </row>
+    <row r="146" spans="5:9">
+      <c r="E146" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F146">
+        <v>0.17</v>
+      </c>
+      <c r="G146">
+        <v>25.2</v>
+      </c>
+      <c r="H146">
+        <v>3.4</v>
+      </c>
+      <c r="I146" s="6">
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="147" spans="5:9">
+      <c r="E147" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <v>3</v>
+      </c>
+      <c r="H147">
+        <v>3</v>
+      </c>
+      <c r="I147" s="6">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="148" customFormat="1" spans="1:10">
+      <c r="A148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148">
+        <v>3</v>
+      </c>
+      <c r="H148">
+        <v>3</v>
+      </c>
+      <c r="I148" s="6">
+        <v>44075</v>
+      </c>
+      <c r="J148" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="149" customFormat="1" spans="1:10">
+      <c r="A149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <v>3</v>
+      </c>
+      <c r="H149">
+        <v>3</v>
+      </c>
+      <c r="I149" s="6">
+        <v>44075</v>
+      </c>
+      <c r="J149" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="150" customFormat="1" spans="1:10">
+      <c r="A150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>3</v>
+      </c>
+      <c r="H150">
+        <v>3</v>
+      </c>
+      <c r="I150" s="6">
+        <v>44024</v>
+      </c>
+      <c r="J150" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="151" spans="5:9">
+      <c r="E151" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F151">
+        <v>0.29</v>
+      </c>
+      <c r="G151">
+        <v>43.6</v>
+      </c>
+      <c r="H151">
+        <v>5.82</v>
+      </c>
+      <c r="I151" s="6">
+        <v>44042</v>
+      </c>
+    </row>
+    <row r="152" customFormat="1" spans="1:9">
+      <c r="A152" s="1"/>
+      <c r="B152"/>
+      <c r="C152"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F152">
+        <v>0.21</v>
+      </c>
+      <c r="G152">
+        <v>48.6</v>
+      </c>
+      <c r="H152">
+        <v>4.58</v>
+      </c>
+      <c r="I152" s="6">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="153" spans="5:9">
+      <c r="E153" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F153">
+        <v>0.24</v>
+      </c>
+      <c r="G153">
+        <v>47.6</v>
+      </c>
+      <c r="H153">
+        <v>9.47</v>
+      </c>
+      <c r="I153" s="6">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="154" spans="5:9">
+      <c r="E154" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154">
+        <v>3</v>
+      </c>
+      <c r="H154">
+        <v>3</v>
+      </c>
+      <c r="I154" s="6">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="155" spans="5:9">
+      <c r="E155" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F155">
+        <v>0.6</v>
+      </c>
+      <c r="G155">
+        <v>5.96</v>
+      </c>
+      <c r="H155">
+        <v>3.6</v>
+      </c>
+      <c r="I155" s="6">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="156" spans="5:9">
+      <c r="E156" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F156">
+        <v>0.49</v>
+      </c>
+      <c r="G156">
+        <v>25.6</v>
+      </c>
+      <c r="H156">
+        <v>4.92</v>
+      </c>
+      <c r="I156" s="6">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="157" spans="5:9">
+      <c r="E157" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F157">
+        <v>0.24</v>
+      </c>
+      <c r="G157">
+        <v>99.6</v>
+      </c>
+      <c r="H157">
+        <v>41.43</v>
+      </c>
+      <c r="I157" s="6">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="158" spans="5:9">
+      <c r="E158" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158">
+        <v>2.06</v>
+      </c>
+      <c r="H158">
+        <v>2.06</v>
+      </c>
+      <c r="I158" s="6">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="159" spans="5:9">
+      <c r="E159" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="G159">
+        <v>14.5</v>
+      </c>
+      <c r="H159">
+        <v>12.8</v>
+      </c>
+      <c r="I159" s="6">
+        <v>44096</v>
+      </c>
+    </row>
+    <row r="160" spans="5:9">
+      <c r="E160" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="G160">
+        <v>10.5</v>
+      </c>
+      <c r="H160">
+        <v>10.5</v>
+      </c>
+      <c r="I160" s="6">
+        <v>44115</v>
+      </c>
+    </row>
+    <row r="161" spans="9:9">
+      <c r="I161" s="6"/>
+    </row>
+    <row r="162" spans="9:9">
+      <c r="I162" s="6"/>
+    </row>
+    <row r="163" spans="9:9">
+      <c r="I163" s="6"/>
+    </row>
+    <row r="164" spans="9:9">
+      <c r="I164" s="6"/>
+    </row>
+    <row r="165" spans="9:9">
+      <c r="I165" s="6"/>
+    </row>
+    <row r="166" spans="5:10">
+      <c r="E166" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F166">
+        <v>0.1</v>
+      </c>
+      <c r="G166">
+        <v>107.6</v>
+      </c>
+      <c r="H166">
+        <v>10.98</v>
+      </c>
+      <c r="I166" s="6">
+        <v>43972</v>
+      </c>
+      <c r="J166" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="167" spans="5:10">
+      <c r="E167" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F167">
+        <v>0.31</v>
+      </c>
+      <c r="G167">
+        <v>15.96</v>
+      </c>
+      <c r="H167">
+        <v>4.95</v>
+      </c>
+      <c r="I167" s="6">
+        <v>43972</v>
+      </c>
+      <c r="J167" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="168" customFormat="1" spans="1:10">
+      <c r="A168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F168">
+        <v>0.06</v>
+      </c>
+      <c r="G168">
+        <v>119.6</v>
+      </c>
+      <c r="H168">
+        <v>7.12</v>
+      </c>
+      <c r="I168" s="6">
+        <v>44041</v>
+      </c>
+      <c r="J168" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="169" customFormat="1" spans="1:10">
+      <c r="A169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F169">
+        <v>0.28</v>
+      </c>
+      <c r="G169">
+        <v>17.6</v>
+      </c>
+      <c r="H169">
+        <v>4.89</v>
+      </c>
+      <c r="I169" s="6">
+        <v>44041</v>
+      </c>
+      <c r="J169" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="170" customFormat="1" spans="1:10">
+      <c r="A170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F170">
+        <v>0.3</v>
+      </c>
+      <c r="G170">
+        <v>17.6</v>
+      </c>
+      <c r="H170">
+        <v>5.24</v>
+      </c>
+      <c r="I170" s="6">
+        <v>43991</v>
+      </c>
+      <c r="J170" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="171" customFormat="1" spans="1:10">
+      <c r="A171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F171">
+        <v>0.29</v>
+      </c>
+      <c r="G171">
+        <v>17.6</v>
+      </c>
+      <c r="H171">
+        <v>5.03</v>
+      </c>
+      <c r="I171" s="6">
+        <v>43990</v>
+      </c>
+      <c r="J171" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="172" customFormat="1" spans="1:10">
+      <c r="A172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F172">
+        <v>0.49</v>
+      </c>
+      <c r="G172">
+        <v>17.6</v>
+      </c>
+      <c r="H172">
+        <v>8.55</v>
+      </c>
+      <c r="I172" s="6">
+        <v>43988</v>
+      </c>
+      <c r="J172" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="173" customFormat="1" spans="1:10">
+      <c r="A173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F173">
+        <v>0.26</v>
+      </c>
+      <c r="G173">
+        <v>17.6</v>
+      </c>
+      <c r="H173">
+        <v>4.58</v>
+      </c>
+      <c r="I173" s="6">
+        <v>44008</v>
+      </c>
+      <c r="J173" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="174" customFormat="1" spans="1:10">
+      <c r="A174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F174">
+        <v>0.29</v>
+      </c>
+      <c r="G174">
+        <v>19.6</v>
+      </c>
+      <c r="H174">
+        <v>5.63</v>
+      </c>
+      <c r="I174" s="6">
+        <v>44009</v>
+      </c>
+      <c r="J174" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="175" customFormat="1" spans="1:10">
+      <c r="A175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+      <c r="G175">
+        <v>18.8</v>
+      </c>
+      <c r="H175">
+        <v>18.8</v>
+      </c>
+      <c r="I175" s="6">
+        <v>44149</v>
+      </c>
+      <c r="J175" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="176" spans="5:10">
+      <c r="E176" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="G176">
+        <v>18.8</v>
+      </c>
+      <c r="H176">
+        <v>18.8</v>
+      </c>
+      <c r="I176" s="6">
+        <v>44205</v>
+      </c>
+      <c r="J176" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="177" customFormat="1" spans="1:10">
+      <c r="A177" s="1"/>
+      <c r="B177"/>
+      <c r="C177"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F177">
+        <v>0.65</v>
+      </c>
+      <c r="G177">
+        <v>27.6</v>
+      </c>
+      <c r="H177">
+        <v>17.88</v>
+      </c>
+      <c r="I177" s="6">
+        <v>44111</v>
+      </c>
+      <c r="J177" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="178" spans="5:10">
+      <c r="E178" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F178">
+        <v>0.24</v>
+      </c>
+      <c r="G178">
+        <v>37.6</v>
+      </c>
+      <c r="H178">
+        <v>9.17</v>
+      </c>
+      <c r="I178" s="6">
+        <v>44139</v>
+      </c>
+      <c r="J178" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="179" customFormat="1" spans="1:10">
+      <c r="A179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F179">
+        <v>0.23</v>
+      </c>
+      <c r="G179">
+        <v>37.6</v>
+      </c>
+      <c r="H179">
+        <v>8.72</v>
+      </c>
+      <c r="I179" s="6">
+        <v>44130</v>
+      </c>
+      <c r="J179" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="180" customFormat="1" spans="1:9">
+      <c r="A180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+      <c r="G180">
+        <v>12</v>
+      </c>
+      <c r="H180">
+        <v>12</v>
+      </c>
+      <c r="I180" s="6">
+        <v>44137</v>
+      </c>
+    </row>
+    <row r="181" spans="5:9">
+      <c r="E181" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+      <c r="G181">
+        <v>12</v>
+      </c>
+      <c r="H181">
+        <v>12</v>
+      </c>
+      <c r="I181" s="6">
+        <v>44142</v>
+      </c>
+    </row>
+    <row r="182" customFormat="1" spans="1:9">
+      <c r="A182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F182">
+        <v>0.75</v>
+      </c>
+      <c r="G182">
+        <v>12</v>
+      </c>
+      <c r="H182">
+        <v>9</v>
+      </c>
+      <c r="I182" s="6">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="183" customFormat="1" spans="1:9">
+      <c r="A183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+      <c r="G183">
+        <v>10.8</v>
+      </c>
+      <c r="H183">
+        <v>10.8</v>
+      </c>
+      <c r="I183" s="6">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="184" customFormat="1" spans="1:9">
+      <c r="A184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+      <c r="G184">
+        <v>12</v>
+      </c>
+      <c r="H184">
+        <v>12</v>
+      </c>
+      <c r="I184" s="6">
+        <v>44024</v>
+      </c>
+    </row>
+    <row r="185" customFormat="1" spans="1:9">
+      <c r="A185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="I185" s="6"/>
+    </row>
+    <row r="186" customFormat="1" spans="1:10">
+      <c r="A186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F186">
+        <v>0.15</v>
+      </c>
+      <c r="G186">
+        <v>79.6</v>
+      </c>
+      <c r="H186">
+        <v>12.1</v>
+      </c>
+      <c r="I186" s="6">
+        <v>44021</v>
+      </c>
+      <c r="J186" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="187" spans="5:9">
+      <c r="E187" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F187">
+        <v>0.2</v>
+      </c>
+      <c r="G187">
+        <v>55.6</v>
+      </c>
+      <c r="H187">
+        <v>11.12</v>
+      </c>
+      <c r="I187" s="6">
+        <v>44010</v>
+      </c>
+    </row>
+    <row r="188" spans="5:9">
+      <c r="E188" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F188">
+        <v>0.25</v>
+      </c>
+      <c r="G188">
+        <v>19.96</v>
+      </c>
+      <c r="H188">
+        <v>4.91</v>
+      </c>
+      <c r="I188" s="6">
+        <v>44023</v>
+      </c>
+    </row>
+    <row r="189" customFormat="1" spans="1:9">
+      <c r="A189" s="1"/>
+      <c r="B189"/>
+      <c r="C189"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F189">
+        <v>0.22</v>
+      </c>
+      <c r="G189">
+        <v>19.96</v>
+      </c>
+      <c r="H189">
+        <v>4.43</v>
+      </c>
+      <c r="I189" s="6">
+        <v>44022</v>
+      </c>
+    </row>
+    <row r="191" spans="9:9">
+      <c r="I191" s="6"/>
+    </row>
+    <row r="192" spans="9:9">
+      <c r="I192" s="6"/>
+    </row>
+    <row r="193" spans="5:10">
+      <c r="E193" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+      <c r="G193">
+        <v>3.5</v>
+      </c>
+      <c r="H193">
+        <v>3.5</v>
+      </c>
+      <c r="I193" s="6">
+        <v>44197</v>
+      </c>
+      <c r="J193" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="194" spans="5:9">
+      <c r="E194" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+      <c r="G194">
+        <v>8.9</v>
+      </c>
+      <c r="H194">
+        <v>6.9</v>
+      </c>
+      <c r="I194" s="6">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="195" spans="9:9">
+      <c r="I195" s="6"/>
+    </row>
+    <row r="196" spans="9:9">
+      <c r="I196" s="6"/>
+    </row>
+    <row r="197" spans="5:10">
+      <c r="E197" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F197">
+        <v>1</v>
+      </c>
+      <c r="G197">
+        <v>9.9</v>
+      </c>
+      <c r="H197">
+        <v>9.9</v>
+      </c>
+      <c r="I197" s="6">
+        <v>44206</v>
+      </c>
+      <c r="J197" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="198" spans="9:9">
+      <c r="I198" s="6"/>
+    </row>
+    <row r="199" spans="5:10">
+      <c r="E199" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F199">
+        <v>1</v>
+      </c>
+      <c r="G199">
+        <v>9.9</v>
+      </c>
+      <c r="H199">
+        <v>9.9</v>
+      </c>
+      <c r="I199" s="6">
+        <v>44000</v>
+      </c>
+      <c r="J199" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="200" spans="5:10">
+      <c r="E200" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+      <c r="G200">
+        <v>6.9</v>
+      </c>
+      <c r="H200">
+        <v>6.9</v>
+      </c>
+      <c r="I200" s="6">
+        <v>44000</v>
+      </c>
+      <c r="J200" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="202" spans="5:10">
+      <c r="E202" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="G202">
+        <v>0.2</v>
+      </c>
+      <c r="H202">
+        <v>0.2</v>
+      </c>
+      <c r="J202" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="203" spans="5:8">
+      <c r="E203" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+      <c r="G203">
+        <v>17.8</v>
+      </c>
+      <c r="H203">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="204" spans="5:9">
+      <c r="E204" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+      <c r="G204">
+        <v>6.9</v>
+      </c>
+      <c r="H204">
+        <v>6.9</v>
+      </c>
+      <c r="I204" s="6">
+        <v>44039</v>
+      </c>
+    </row>
+    <row r="205" spans="5:9">
+      <c r="E205" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+      <c r="G205">
+        <v>16.9</v>
+      </c>
+      <c r="H205">
+        <v>9.9</v>
+      </c>
+      <c r="I205" s="6">
+        <v>44039</v>
+      </c>
+    </row>
+    <row r="206" spans="5:9">
+      <c r="E206" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+      <c r="G206">
+        <v>3.5</v>
+      </c>
+      <c r="H206">
+        <v>3.5</v>
+      </c>
+      <c r="I206" s="6">
+        <v>44023</v>
+      </c>
+    </row>
+    <row r="209" ht="27.6" spans="1:6">
+      <c r="A209" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F209">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="210" ht="27.6" spans="5:6">
+      <c r="E210" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F210">
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="215" ht="27.6" spans="1:8">
+      <c r="A215" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B215" t="s">
+        <v>231</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F215">
+        <v>1</v>
+      </c>
+      <c r="H215">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="5:8">
+      <c r="E216" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F216">
+        <v>1</v>
+      </c>
+      <c r="H216">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" ht="27.6" spans="4:10">
+      <c r="D219" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F219">
+        <v>1</v>
+      </c>
+      <c r="G219">
+        <v>5.1</v>
+      </c>
+      <c r="H219">
+        <v>5.1</v>
+      </c>
+      <c r="I219" s="6">
+        <v>44199</v>
+      </c>
+      <c r="J219" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="221" ht="27.6" spans="1:11">
+      <c r="A221" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B221" t="s">
+        <v>238</v>
+      </c>
+      <c r="C221" t="s">
+        <v>239</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F221">
+        <v>2</v>
+      </c>
+      <c r="G221">
+        <v>5.9</v>
+      </c>
+      <c r="H221">
+        <v>11.8</v>
+      </c>
+      <c r="J221" t="s">
+        <v>242</v>
+      </c>
+      <c r="K221">
+        <v>8.8</v>
+      </c>
+    </row>
+    <row r="222" spans="5:11">
+      <c r="E222" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F222">
+        <v>1.83</v>
+      </c>
+      <c r="G222">
+        <v>10.36</v>
+      </c>
+      <c r="H222">
+        <v>19</v>
+      </c>
+      <c r="J222" t="s">
+        <v>244</v>
+      </c>
+      <c r="K222">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="223" spans="5:10">
+      <c r="E223" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F223">
+        <v>1.63</v>
+      </c>
+      <c r="G223">
+        <v>4.96</v>
+      </c>
+      <c r="H223">
+        <v>8.1</v>
+      </c>
+      <c r="J223" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/自己的财务计划.xlsx
+++ b/自己的财务计划.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="285">
   <si>
     <t>时间</t>
   </si>
@@ -523,6 +523,9 @@
     <t>红嘎啦</t>
   </si>
   <si>
+    <t>优质磷虾(ZY)</t>
+  </si>
+  <si>
     <t>广式散香肠</t>
   </si>
   <si>
@@ -577,6 +580,9 @@
     <t>啤酒</t>
   </si>
   <si>
+    <t>500g爱福德什锦菜</t>
+  </si>
+  <si>
     <t>御香君酱菜</t>
   </si>
   <si>
@@ -763,7 +769,7 @@
     <t>鸡大胸</t>
   </si>
   <si>
-    <t>160g小肥羊火锅底料</t>
+    <t>[C]160g小肥羊火锅底料</t>
   </si>
   <si>
     <t>26g*10枚贤哥无壳五香</t>
@@ -815,6 +821,9 @@
   </si>
   <si>
     <t>洛阳龙门-&gt;郑州东，G3154，二等座</t>
+  </si>
+  <si>
+    <t>哈尔滨-&gt;牡丹江，D8521，二等座</t>
   </si>
   <si>
     <t>黑龙江省</t>
@@ -871,10 +880,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -893,46 +902,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -947,7 +932,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -955,6 +940,91 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -970,68 +1040,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1046,7 +1055,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,13 +1133,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,19 +1217,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1100,133 +1229,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1237,6 +1246,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1251,15 +1284,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1279,17 +1303,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1309,7 +1327,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1328,25 +1346,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1355,133 +1364,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3369,14 +3378,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI275"/>
+  <dimension ref="A1:AI278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F261" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F65" sqref="F65"/>
+      <selection pane="bottomRight" activeCell="E267" sqref="E267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
@@ -3416,11 +3425,11 @@
         <v>2.33</v>
       </c>
       <c r="Q1">
-        <f>H35+H79</f>
+        <f>H36+H80</f>
         <v>5</v>
       </c>
       <c r="R1">
-        <f>H175</f>
+        <f>H178</f>
         <v>4.29</v>
       </c>
       <c r="T1">
@@ -3570,8 +3579,6 @@
     </row>
     <row r="8" customFormat="1" spans="1:9">
       <c r="A8" s="2"/>
-      <c r="B8"/>
-      <c r="C8"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
         <v>118</v>
@@ -4079,72 +4086,75 @@
       <c r="A33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F33">
-        <v>2.78</v>
+        <v>0.76</v>
       </c>
       <c r="G33">
-        <v>1.8</v>
+        <v>4.76</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="I33" s="6">
-        <v>44024</v>
+        <v>44183</v>
       </c>
       <c r="J33" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="5:9">
+    <row r="34" customFormat="1" spans="1:10">
+      <c r="A34" s="2"/>
+      <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F34">
-        <v>0.43</v>
+        <v>2.78</v>
       </c>
       <c r="G34">
-        <v>5.96</v>
+        <v>1.8</v>
       </c>
       <c r="H34">
-        <v>2.54</v>
+        <v>5</v>
       </c>
       <c r="I34" s="6">
-        <v>44197</v>
+        <v>44024</v>
+      </c>
+      <c r="J34" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F35">
-        <v>0.29</v>
+        <v>0.43</v>
       </c>
       <c r="G35">
-        <v>3.96</v>
+        <v>5.96</v>
       </c>
       <c r="H35">
-        <v>1.13</v>
+        <v>2.54</v>
       </c>
       <c r="I35" s="6">
-        <v>44012</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="1:9">
-      <c r="A36" s="2"/>
-      <c r="D36" s="2"/>
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="36" spans="5:9">
       <c r="E36" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F36">
-        <v>0.63</v>
+        <v>0.29</v>
       </c>
       <c r="G36">
         <v>3.96</v>
       </c>
       <c r="H36">
-        <v>2.48</v>
+        <v>1.13</v>
       </c>
       <c r="I36" s="6">
         <v>44012</v>
@@ -4157,16 +4167,16 @@
         <v>138</v>
       </c>
       <c r="F37">
-        <v>0.31</v>
+        <v>0.63</v>
       </c>
       <c r="G37">
-        <v>5.16</v>
+        <v>3.96</v>
       </c>
       <c r="H37">
-        <v>1.59</v>
+        <v>2.48</v>
       </c>
       <c r="I37" s="6">
-        <v>44003</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:9">
@@ -4176,16 +4186,16 @@
         <v>138</v>
       </c>
       <c r="F38">
-        <v>0.58</v>
+        <v>0.31</v>
       </c>
       <c r="G38">
-        <v>3.16</v>
+        <v>5.16</v>
       </c>
       <c r="H38">
-        <v>1.84</v>
+        <v>1.59</v>
       </c>
       <c r="I38" s="6">
-        <v>43997</v>
+        <v>44003</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:9">
@@ -4195,112 +4205,109 @@
         <v>138</v>
       </c>
       <c r="F39">
-        <v>0.18</v>
+        <v>0.58</v>
       </c>
       <c r="G39">
-        <v>5.76</v>
+        <v>3.16</v>
       </c>
       <c r="H39">
-        <v>1.06</v>
+        <v>1.84</v>
       </c>
       <c r="I39" s="6">
-        <v>44004</v>
+        <v>43997</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:9">
       <c r="A40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F40">
-        <v>0.54</v>
+        <v>0.18</v>
       </c>
       <c r="G40">
-        <v>5.96</v>
+        <v>5.76</v>
       </c>
       <c r="H40">
-        <v>3.22</v>
+        <v>1.06</v>
       </c>
       <c r="I40" s="6">
-        <v>44104</v>
+        <v>44004</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:9">
       <c r="A41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F41">
-        <v>0.35</v>
+        <v>0.54</v>
       </c>
       <c r="G41">
-        <v>3.96</v>
+        <v>5.96</v>
       </c>
       <c r="H41">
-        <v>1.39</v>
+        <v>3.22</v>
       </c>
       <c r="I41" s="6">
-        <v>43992</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:9">
       <c r="A42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F42">
+        <v>0.35</v>
+      </c>
+      <c r="G42">
+        <v>3.96</v>
+      </c>
+      <c r="H42">
+        <v>1.39</v>
+      </c>
+      <c r="I42" s="6">
+        <v>43992</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:9">
+      <c r="A43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F42">
+      <c r="F43">
         <v>0.21</v>
       </c>
-      <c r="G42">
+      <c r="G43">
         <v>4.72</v>
       </c>
-      <c r="H42">
+      <c r="H43">
         <v>0.99</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I43" s="6">
         <v>44010</v>
       </c>
     </row>
-    <row r="43" spans="5:10">
-      <c r="E43" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F43">
-        <v>0.62</v>
-      </c>
-      <c r="G43">
-        <v>7.36</v>
-      </c>
-      <c r="H43">
-        <v>4.53</v>
-      </c>
-      <c r="I43" s="6">
-        <v>44122</v>
-      </c>
-      <c r="J43" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:10">
-      <c r="A44" s="2"/>
-      <c r="D44" s="2"/>
+    <row r="44" spans="5:10">
       <c r="E44" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F44">
-        <v>0.75</v>
+        <v>0.62</v>
       </c>
       <c r="G44">
-        <v>7.96</v>
+        <v>7.36</v>
       </c>
       <c r="H44">
-        <v>5.97</v>
+        <v>4.53</v>
       </c>
       <c r="I44" s="6">
-        <v>44126</v>
+        <v>44122</v>
       </c>
       <c r="J44" t="s">
         <v>132</v>
@@ -4313,16 +4320,16 @@
         <v>142</v>
       </c>
       <c r="F45">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G45">
         <v>7.96</v>
       </c>
       <c r="H45">
-        <v>3.98</v>
+        <v>5.97</v>
       </c>
       <c r="I45" s="6">
-        <v>44102</v>
+        <v>44126</v>
       </c>
       <c r="J45" t="s">
         <v>132</v>
@@ -4335,16 +4342,16 @@
         <v>142</v>
       </c>
       <c r="F46">
-        <v>0.61</v>
+        <v>0.5</v>
       </c>
       <c r="G46">
-        <v>7.56</v>
+        <v>7.96</v>
       </c>
       <c r="H46">
-        <v>4.63</v>
+        <v>3.98</v>
       </c>
       <c r="I46" s="6">
-        <v>44095</v>
+        <v>44102</v>
       </c>
       <c r="J46" t="s">
         <v>132</v>
@@ -4357,16 +4364,16 @@
         <v>142</v>
       </c>
       <c r="F47">
-        <v>0.34</v>
+        <v>0.61</v>
       </c>
       <c r="G47">
-        <v>5.76</v>
+        <v>7.56</v>
       </c>
       <c r="H47">
-        <v>1.97</v>
+        <v>4.63</v>
       </c>
       <c r="I47" s="6">
-        <v>44010</v>
+        <v>44095</v>
       </c>
       <c r="J47" t="s">
         <v>132</v>
@@ -4379,16 +4386,16 @@
         <v>142</v>
       </c>
       <c r="F48">
-        <v>1.32</v>
+        <v>0.34</v>
       </c>
       <c r="G48">
-        <v>5.56</v>
+        <v>5.76</v>
       </c>
       <c r="H48">
-        <v>7.34</v>
+        <v>1.97</v>
       </c>
       <c r="I48" s="6">
-        <v>44022</v>
+        <v>44010</v>
       </c>
       <c r="J48" t="s">
         <v>132</v>
@@ -4401,16 +4408,16 @@
         <v>142</v>
       </c>
       <c r="F49">
-        <v>0.45</v>
+        <v>1.32</v>
       </c>
       <c r="G49">
-        <v>7.36</v>
+        <v>5.56</v>
       </c>
       <c r="H49">
-        <v>3.28</v>
+        <v>7.34</v>
       </c>
       <c r="I49" s="6">
-        <v>44165</v>
+        <v>44022</v>
       </c>
       <c r="J49" t="s">
         <v>132</v>
@@ -4423,16 +4430,16 @@
         <v>142</v>
       </c>
       <c r="F50">
-        <v>0.57</v>
+        <v>0.45</v>
       </c>
       <c r="G50">
-        <v>5.96</v>
+        <v>7.36</v>
       </c>
       <c r="H50">
-        <v>3.37</v>
+        <v>3.28</v>
       </c>
       <c r="I50" s="6">
-        <v>44019</v>
+        <v>44165</v>
       </c>
       <c r="J50" t="s">
         <v>132</v>
@@ -4442,19 +4449,19 @@
       <c r="A51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F51">
-        <v>1.42</v>
+        <v>0.57</v>
       </c>
       <c r="G51">
-        <v>7.16</v>
+        <v>5.96</v>
       </c>
       <c r="H51">
-        <v>10.14</v>
+        <v>3.37</v>
       </c>
       <c r="I51" s="6">
-        <v>44132</v>
+        <v>44019</v>
       </c>
       <c r="J51" t="s">
         <v>132</v>
@@ -4464,46 +4471,62 @@
       <c r="A52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F52">
-        <v>0.42</v>
+        <v>1.42</v>
       </c>
       <c r="G52">
-        <v>5.2</v>
+        <v>7.16</v>
       </c>
       <c r="H52">
-        <v>2.19</v>
+        <v>10.14</v>
       </c>
       <c r="I52" s="6">
-        <v>44021</v>
+        <v>44132</v>
       </c>
       <c r="J52" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="5:9">
+    <row r="53" customFormat="1" spans="1:10">
+      <c r="A53" s="2"/>
+      <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F53">
+        <v>0.42</v>
+      </c>
+      <c r="G53">
+        <v>5.2</v>
+      </c>
+      <c r="H53">
+        <v>2.19</v>
+      </c>
+      <c r="I53" s="6">
+        <v>44021</v>
+      </c>
+      <c r="J53" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="5:9">
+      <c r="E54" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F53">
+      <c r="F54">
         <v>0.31</v>
       </c>
-      <c r="G53">
+      <c r="G54">
         <v>5.16</v>
       </c>
-      <c r="H53">
+      <c r="H54">
         <v>1.59</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I54" s="6">
         <v>44003</v>
       </c>
-    </row>
-    <row r="54" customFormat="1" spans="1:9">
-      <c r="A54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="I54" s="6"/>
     </row>
     <row r="55" customFormat="1" spans="1:9">
       <c r="A55" s="2"/>
@@ -4517,116 +4540,99 @@
       <c r="E56" s="2"/>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="5:9">
-      <c r="E57" s="2" t="s">
+    <row r="57" customFormat="1" spans="1:9">
+      <c r="A57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="5:9">
+      <c r="E58" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F57">
+      <c r="F58">
         <v>0.47</v>
       </c>
-      <c r="G57">
+      <c r="G58">
         <v>3.56</v>
       </c>
-      <c r="H57">
+      <c r="H58">
         <v>1.68</v>
       </c>
-      <c r="I57" s="6">
+      <c r="I58" s="6">
         <v>44043</v>
       </c>
     </row>
-    <row r="58" customFormat="1" spans="1:9">
-      <c r="A58" s="2"/>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2" t="s">
+    <row r="59" customFormat="1" spans="1:9">
+      <c r="A59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F58">
+      <c r="F59">
         <v>0.41</v>
       </c>
-      <c r="G58">
+      <c r="G59">
         <v>5.16</v>
       </c>
-      <c r="H58">
+      <c r="H59">
         <v>2.12</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I59" s="6">
         <v>44046</v>
       </c>
     </row>
-    <row r="59" spans="5:9">
-      <c r="E59" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F59">
-        <v>0.14</v>
-      </c>
-      <c r="G59">
-        <v>5.78</v>
-      </c>
-      <c r="H59">
-        <v>0.78</v>
-      </c>
-      <c r="I59" s="6">
-        <v>44021</v>
-      </c>
-    </row>
-    <row r="60" customFormat="1" spans="1:9">
-      <c r="A60" s="2"/>
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60" s="2"/>
+    <row r="60" spans="5:9">
       <c r="E60" s="2" t="s">
         <v>148</v>
       </c>
       <c r="F60">
+        <v>0.14</v>
+      </c>
+      <c r="G60">
+        <v>5.78</v>
+      </c>
+      <c r="H60">
+        <v>0.78</v>
+      </c>
+      <c r="I60" s="6">
+        <v>44021</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="1:9">
+      <c r="A61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F61">
         <v>0.21</v>
       </c>
-      <c r="G60">
+      <c r="G61">
         <v>5.76</v>
       </c>
-      <c r="H60">
+      <c r="H61">
         <v>1.23</v>
       </c>
-      <c r="I60" s="6">
+      <c r="I61" s="6">
         <v>44020</v>
       </c>
     </row>
-    <row r="61" spans="5:9">
-      <c r="E61" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F61">
-        <v>0.13</v>
-      </c>
-      <c r="G61">
-        <v>13.96</v>
-      </c>
-      <c r="H61">
-        <v>2.46</v>
-      </c>
-      <c r="I61" s="6">
-        <v>44043</v>
-      </c>
-    </row>
-    <row r="62" customFormat="1" spans="1:9">
-      <c r="A62" s="2"/>
-      <c r="D62" s="2"/>
+    <row r="62" spans="5:9">
       <c r="E62" s="2" t="s">
         <v>149</v>
       </c>
       <c r="F62">
-        <v>0.24</v>
+        <v>0.13</v>
       </c>
       <c r="G62">
-        <v>5.96</v>
+        <v>13.96</v>
       </c>
       <c r="H62">
-        <v>1.44</v>
+        <v>2.46</v>
       </c>
       <c r="I62" s="6">
-        <v>44006</v>
+        <v>44043</v>
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:9">
@@ -4636,16 +4642,16 @@
         <v>149</v>
       </c>
       <c r="F63">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="G63">
-        <v>11.96</v>
+        <v>5.96</v>
       </c>
       <c r="H63">
-        <v>2.32</v>
+        <v>1.44</v>
       </c>
       <c r="I63" s="6">
-        <v>44030</v>
+        <v>44006</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:9">
@@ -4655,105 +4661,105 @@
         <v>149</v>
       </c>
       <c r="F64">
+        <v>0.19</v>
+      </c>
+      <c r="G64">
+        <v>11.96</v>
+      </c>
+      <c r="H64">
+        <v>2.32</v>
+      </c>
+      <c r="I64" s="6">
+        <v>44030</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" spans="1:9">
+      <c r="A65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F65">
         <v>0.26</v>
       </c>
-      <c r="G64">
+      <c r="G65">
         <v>9.96</v>
       </c>
-      <c r="H64">
+      <c r="H65">
         <v>2.59</v>
       </c>
-      <c r="I64" s="6">
+      <c r="I65" s="6">
         <v>44020</v>
-      </c>
-    </row>
-    <row r="65" spans="5:9">
-      <c r="E65" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F65">
-        <v>0.3</v>
-      </c>
-      <c r="G65">
-        <v>19.6</v>
-      </c>
-      <c r="H65">
-        <v>5.88</v>
-      </c>
-      <c r="I65" s="6">
-        <v>43992</v>
       </c>
     </row>
     <row r="66" spans="5:9">
       <c r="E66" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F66">
-        <v>0.19</v>
+        <v>0.3</v>
       </c>
       <c r="G66">
-        <v>13.96</v>
+        <v>19.6</v>
       </c>
       <c r="H66">
-        <v>2.6</v>
+        <v>5.88</v>
       </c>
       <c r="I66" s="6">
-        <v>44050</v>
-      </c>
-    </row>
-    <row r="67" customFormat="1" spans="1:9">
-      <c r="A67" s="2"/>
-      <c r="D67" s="2"/>
+        <v>43992</v>
+      </c>
+    </row>
+    <row r="67" spans="5:9">
       <c r="E67" s="2" t="s">
         <v>151</v>
       </c>
       <c r="F67">
+        <v>0.19</v>
+      </c>
+      <c r="G67">
+        <v>13.96</v>
+      </c>
+      <c r="H67">
+        <v>2.6</v>
+      </c>
+      <c r="I67" s="6">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" spans="1:9">
+      <c r="A68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F68">
         <v>0.27</v>
       </c>
-      <c r="G67">
+      <c r="G68">
         <v>19.8</v>
       </c>
-      <c r="H67">
+      <c r="H68">
         <v>5.35</v>
       </c>
-      <c r="I67" s="6">
+      <c r="I68" s="6">
         <v>44075</v>
       </c>
     </row>
-    <row r="68" spans="5:9">
-      <c r="E68" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F68">
-        <v>0.77</v>
-      </c>
-      <c r="G68">
-        <v>4.76</v>
-      </c>
-      <c r="H68">
-        <v>3.65</v>
-      </c>
-      <c r="I68" s="6">
-        <v>44050</v>
-      </c>
-    </row>
-    <row r="69" customFormat="1" spans="1:9">
-      <c r="A69" s="2"/>
-      <c r="D69" s="2"/>
+    <row r="69" spans="5:9">
       <c r="E69" s="2" t="s">
         <v>152</v>
       </c>
       <c r="F69">
-        <v>0.37</v>
+        <v>0.77</v>
       </c>
       <c r="G69">
         <v>4.76</v>
       </c>
       <c r="H69">
-        <v>1.77</v>
+        <v>3.65</v>
       </c>
       <c r="I69" s="6">
-        <v>44008</v>
+        <v>44050</v>
       </c>
     </row>
     <row r="70" customFormat="1" spans="1:9">
@@ -4763,16 +4769,16 @@
         <v>152</v>
       </c>
       <c r="F70">
-        <v>1.3</v>
+        <v>0.37</v>
       </c>
       <c r="G70">
-        <v>3.96</v>
+        <v>4.76</v>
       </c>
       <c r="H70">
-        <v>5.14</v>
+        <v>1.77</v>
       </c>
       <c r="I70" s="6">
-        <v>43988</v>
+        <v>44008</v>
       </c>
     </row>
     <row r="71" customFormat="1" spans="1:9">
@@ -4782,35 +4788,35 @@
         <v>152</v>
       </c>
       <c r="F71">
-        <v>0.87</v>
+        <v>1.3</v>
       </c>
       <c r="G71">
         <v>3.96</v>
       </c>
       <c r="H71">
-        <v>3.46</v>
+        <v>5.14</v>
       </c>
       <c r="I71" s="6">
-        <v>44014</v>
+        <v>43988</v>
       </c>
     </row>
     <row r="72" customFormat="1" spans="1:9">
       <c r="A72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="G72">
-        <v>2.47</v>
+        <v>3.96</v>
       </c>
       <c r="H72">
-        <v>2.47</v>
+        <v>3.46</v>
       </c>
       <c r="I72" s="6">
-        <v>44072</v>
+        <v>44014</v>
       </c>
     </row>
     <row r="73" customFormat="1" spans="1:9">
@@ -4823,13 +4829,13 @@
         <v>1</v>
       </c>
       <c r="G73">
-        <v>2.48</v>
+        <v>2.47</v>
       </c>
       <c r="H73">
-        <v>2.48</v>
+        <v>2.47</v>
       </c>
       <c r="I73" s="6">
-        <v>44090</v>
+        <v>44072</v>
       </c>
     </row>
     <row r="74" customFormat="1" spans="1:9">
@@ -4842,49 +4848,49 @@
         <v>1</v>
       </c>
       <c r="G74">
+        <v>2.48</v>
+      </c>
+      <c r="H74">
+        <v>2.48</v>
+      </c>
+      <c r="I74" s="6">
+        <v>44090</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" spans="1:9">
+      <c r="A75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
         <v>3.24</v>
       </c>
-      <c r="H74">
+      <c r="H75">
         <v>3.24</v>
       </c>
-      <c r="I74" s="6">
+      <c r="I75" s="6">
         <v>43997</v>
       </c>
     </row>
-    <row r="75" spans="5:9">
-      <c r="E75" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75">
-        <v>10.8</v>
-      </c>
-      <c r="H75">
-        <v>10.8</v>
-      </c>
-      <c r="I75" s="6">
-        <v>44070</v>
-      </c>
-    </row>
-    <row r="76" customFormat="1" spans="1:9">
-      <c r="A76" s="2"/>
-      <c r="D76" s="2"/>
+    <row r="76" spans="5:9">
       <c r="E76" s="2" t="s">
         <v>154</v>
       </c>
       <c r="F76">
-        <v>0.56</v>
+        <v>1</v>
       </c>
       <c r="G76">
         <v>10.8</v>
       </c>
       <c r="H76">
-        <v>6</v>
+        <v>10.8</v>
       </c>
       <c r="I76" s="6">
-        <v>44073</v>
+        <v>44070</v>
       </c>
     </row>
     <row r="77" customFormat="1" spans="1:9">
@@ -4894,245 +4900,243 @@
         <v>154</v>
       </c>
       <c r="F77">
-        <v>0.38</v>
+        <v>0.56</v>
       </c>
       <c r="G77">
-        <v>13</v>
+        <v>10.8</v>
       </c>
       <c r="H77">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I77" s="6">
-        <v>43982</v>
+        <v>44073</v>
       </c>
     </row>
     <row r="78" customFormat="1" spans="1:9">
       <c r="A78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78">
+        <v>0.38</v>
+      </c>
+      <c r="G78">
+        <v>13</v>
+      </c>
+      <c r="H78">
+        <v>5</v>
+      </c>
+      <c r="I78" s="6">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" spans="1:9">
+      <c r="A79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F78">
+      <c r="F79">
         <v>0.27</v>
       </c>
-      <c r="G78">
+      <c r="G79">
         <v>5.56</v>
       </c>
-      <c r="H78">
+      <c r="H79">
         <v>1.52</v>
       </c>
-      <c r="I78" s="6">
+      <c r="I79" s="6">
         <v>44021</v>
-      </c>
-    </row>
-    <row r="79" spans="5:9">
-      <c r="E79" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F79">
-        <v>0.53</v>
-      </c>
-      <c r="G79">
-        <v>7.36</v>
-      </c>
-      <c r="H79">
-        <v>3.87</v>
-      </c>
-      <c r="I79" s="6">
-        <v>44012</v>
       </c>
     </row>
     <row r="80" spans="5:9">
       <c r="E80" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F80">
-        <v>0.58</v>
+        <v>0.53</v>
       </c>
       <c r="G80">
-        <v>5.96</v>
+        <v>7.36</v>
       </c>
       <c r="H80">
-        <v>3.43</v>
+        <v>3.87</v>
       </c>
       <c r="I80" s="6">
-        <v>44063</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="81" spans="5:9">
       <c r="E81" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F81">
-        <v>0.51</v>
+        <v>0.58</v>
       </c>
       <c r="G81">
-        <v>9.96</v>
+        <v>5.96</v>
       </c>
       <c r="H81">
-        <v>5.04</v>
+        <v>3.43</v>
       </c>
       <c r="I81" s="6">
-        <v>44033</v>
+        <v>44063</v>
       </c>
     </row>
     <row r="82" spans="5:9">
       <c r="E82" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F82">
-        <v>0.79</v>
+        <v>0.51</v>
       </c>
       <c r="G82">
-        <v>7.96</v>
+        <v>9.96</v>
       </c>
       <c r="H82">
-        <v>6.27</v>
+        <v>5.04</v>
       </c>
       <c r="I82" s="6">
-        <v>44126</v>
+        <v>44033</v>
       </c>
     </row>
     <row r="83" spans="5:9">
       <c r="E83" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F83">
+        <v>0.79</v>
+      </c>
+      <c r="G83">
+        <v>7.96</v>
+      </c>
+      <c r="H83">
+        <v>6.27</v>
+      </c>
+      <c r="I83" s="6">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="84" spans="5:9">
+      <c r="E84" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F83">
+      <c r="F84">
         <v>0.3</v>
       </c>
-      <c r="G83">
+      <c r="G84">
         <v>10</v>
       </c>
-      <c r="H83">
+      <c r="H84">
         <v>3</v>
       </c>
-      <c r="I83" s="6">
+      <c r="I84" s="6">
         <v>44073</v>
       </c>
     </row>
-    <row r="84" customFormat="1" spans="1:9">
-      <c r="A84" s="2"/>
-      <c r="B84"/>
-      <c r="C84"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2" t="s">
+    <row r="85" customFormat="1" spans="1:9">
+      <c r="A85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84">
-        <v>9.96</v>
-      </c>
-      <c r="H84">
-        <v>10</v>
-      </c>
-      <c r="I84" s="6">
-        <v>44063</v>
-      </c>
-    </row>
-    <row r="85" spans="5:9">
-      <c r="E85" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="F85">
-        <v>0.44</v>
+        <v>1</v>
       </c>
       <c r="G85">
         <v>9.96</v>
       </c>
       <c r="H85">
-        <v>4.4</v>
+        <v>10</v>
       </c>
       <c r="I85" s="6">
-        <v>44085</v>
+        <v>44063</v>
       </c>
     </row>
     <row r="86" spans="5:9">
       <c r="E86" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F86">
-        <v>0.25</v>
+        <v>0.44</v>
       </c>
       <c r="G86">
-        <v>19.6</v>
+        <v>9.96</v>
       </c>
       <c r="H86">
-        <v>4.98</v>
+        <v>4.4</v>
       </c>
       <c r="I86" s="6">
-        <v>44076</v>
+        <v>44085</v>
       </c>
     </row>
     <row r="87" spans="5:9">
       <c r="E87" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F87">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="G87">
-        <v>9.96</v>
+        <v>19.6</v>
       </c>
       <c r="H87">
-        <v>3.47</v>
+        <v>4.98</v>
       </c>
       <c r="I87" s="6">
-        <v>44075</v>
+        <v>44076</v>
       </c>
     </row>
     <row r="88" spans="5:9">
       <c r="E88" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F88">
-        <v>1.46</v>
+        <v>0.35</v>
       </c>
       <c r="G88">
-        <v>5.96</v>
+        <v>9.96</v>
       </c>
       <c r="H88">
-        <v>8.71</v>
+        <v>3.47</v>
       </c>
       <c r="I88" s="6">
-        <v>44115</v>
+        <v>44075</v>
       </c>
     </row>
     <row r="89" spans="5:9">
       <c r="E89" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F89">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="G89">
-        <v>7.96</v>
+        <v>5.96</v>
       </c>
       <c r="H89">
-        <v>8.04</v>
+        <v>8.71</v>
       </c>
       <c r="I89" s="6">
-        <v>43982</v>
-      </c>
-    </row>
-    <row r="90" customFormat="1" spans="1:9">
-      <c r="A90" s="2"/>
-      <c r="D90" s="2"/>
+        <v>44115</v>
+      </c>
+    </row>
+    <row r="90" spans="5:9">
       <c r="E90" s="2" t="s">
         <v>166</v>
       </c>
       <c r="F90">
-        <v>0.24</v>
+        <v>1.01</v>
       </c>
       <c r="G90">
-        <v>4.76</v>
+        <v>7.96</v>
       </c>
       <c r="H90">
-        <v>1.15</v>
+        <v>8.04</v>
       </c>
       <c r="I90" s="6">
-        <v>44004</v>
+        <v>43982</v>
       </c>
     </row>
     <row r="91" customFormat="1" spans="1:9">
@@ -5142,134 +5146,134 @@
         <v>166</v>
       </c>
       <c r="F91">
-        <v>0.49</v>
+        <v>0.24</v>
       </c>
       <c r="G91">
-        <v>5.16</v>
+        <v>4.76</v>
       </c>
       <c r="H91">
-        <v>2.52</v>
+        <v>1.15</v>
       </c>
       <c r="I91" s="6">
-        <v>43994</v>
+        <v>44004</v>
       </c>
     </row>
     <row r="92" customFormat="1" spans="1:9">
       <c r="A92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F92">
+        <v>0.49</v>
+      </c>
+      <c r="G92">
+        <v>5.16</v>
+      </c>
+      <c r="H92">
+        <v>2.52</v>
+      </c>
+      <c r="I92" s="6">
+        <v>43994</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" spans="1:9">
+      <c r="A93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F92">
+      <c r="F93">
         <v>0.7</v>
       </c>
-      <c r="G92">
+      <c r="G93">
         <v>5.96</v>
       </c>
-      <c r="H92">
+      <c r="H93">
         <v>4.15</v>
       </c>
-      <c r="I92" s="6">
+      <c r="I93" s="6">
         <v>44047</v>
       </c>
-    </row>
-    <row r="93" spans="9:9">
-      <c r="I93" s="6"/>
     </row>
     <row r="94" spans="9:9">
       <c r="I94" s="6"/>
     </row>
-    <row r="95" customFormat="1" spans="1:9">
-      <c r="A95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F95" s="7">
-        <v>0.13</v>
-      </c>
-      <c r="G95">
-        <v>19.96</v>
-      </c>
-      <c r="H95">
-        <v>2.59</v>
-      </c>
-      <c r="I95" s="6">
-        <v>44169</v>
-      </c>
+    <row r="95" spans="9:9">
+      <c r="I95" s="6"/>
     </row>
     <row r="96" customFormat="1" spans="1:9">
       <c r="A96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F96">
+        <v>0.04</v>
+      </c>
+      <c r="G96">
+        <v>47.6</v>
+      </c>
+      <c r="H96">
+        <v>2</v>
+      </c>
+      <c r="I96" s="6">
+        <v>44183</v>
+      </c>
+    </row>
+    <row r="97" customFormat="1" spans="1:9">
+      <c r="A97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F96" s="7">
-        <v>1</v>
-      </c>
-      <c r="G96">
-        <v>1.32</v>
-      </c>
-      <c r="H96">
-        <v>1.32</v>
-      </c>
-      <c r="I96" s="6">
-        <v>44021</v>
-      </c>
-    </row>
-    <row r="97" spans="5:9">
-      <c r="E97" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F97">
-        <v>0.14</v>
+      <c r="F97" s="7">
+        <v>0.13</v>
       </c>
       <c r="G97">
-        <v>9.96</v>
+        <v>19.96</v>
       </c>
       <c r="H97">
-        <v>1.41</v>
+        <v>2.59</v>
       </c>
       <c r="I97" s="6">
-        <v>44022</v>
+        <v>44169</v>
       </c>
     </row>
     <row r="98" customFormat="1" spans="1:9">
       <c r="A98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F98" s="7">
         <v>1</v>
       </c>
       <c r="G98">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="H98">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="I98" s="6">
-        <v>44095</v>
-      </c>
-    </row>
-    <row r="99" customFormat="1" spans="1:9">
-      <c r="A99" s="2"/>
-      <c r="D99" s="2"/>
+        <v>44021</v>
+      </c>
+    </row>
+    <row r="99" spans="5:9">
       <c r="E99" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F99" s="7">
-        <v>1</v>
+      <c r="F99">
+        <v>0.14</v>
       </c>
       <c r="G99">
-        <v>1.73</v>
+        <v>9.96</v>
       </c>
       <c r="H99">
-        <v>1.73</v>
+        <v>1.41</v>
       </c>
       <c r="I99" s="6">
-        <v>44010</v>
+        <v>44022</v>
       </c>
     </row>
     <row r="100" customFormat="1" spans="1:9">
@@ -5279,370 +5283,372 @@
         <v>172</v>
       </c>
       <c r="F100" s="7">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="G100">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="I100" s="6">
         <v>44095</v>
       </c>
     </row>
-    <row r="101" spans="5:10">
+    <row r="101" customFormat="1" spans="1:9">
+      <c r="A101" s="2"/>
+      <c r="D101" s="2"/>
       <c r="E101" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F101">
+        <v>172</v>
+      </c>
+      <c r="F101" s="7">
         <v>1</v>
       </c>
       <c r="G101">
-        <v>2.7</v>
+        <v>1.73</v>
       </c>
       <c r="H101">
-        <v>2.7</v>
+        <v>1.73</v>
       </c>
       <c r="I101" s="6">
-        <v>44167</v>
-      </c>
-      <c r="J101" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="102" spans="5:10">
+        <v>44010</v>
+      </c>
+    </row>
+    <row r="102" customFormat="1" spans="1:9">
+      <c r="A102" s="2"/>
+      <c r="D102" s="2"/>
       <c r="E102" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F102">
-        <v>1</v>
+      <c r="F102" s="7">
+        <v>0.67</v>
       </c>
       <c r="G102">
+        <v>1.5</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102" s="6">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="103" spans="5:10">
+      <c r="E103" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>2.7</v>
+      </c>
+      <c r="H103">
+        <v>2.7</v>
+      </c>
+      <c r="I103" s="6">
+        <v>44167</v>
+      </c>
+      <c r="J103" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="104" spans="5:10">
+      <c r="E104" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
         <v>3.5</v>
       </c>
-      <c r="H102">
+      <c r="H104">
         <v>3.5</v>
       </c>
-      <c r="I102" s="6">
+      <c r="I104" s="6">
         <v>44197</v>
       </c>
-      <c r="J102" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="103" customFormat="1" spans="1:9">
-      <c r="A103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2" t="s">
+      <c r="J104" t="s">
         <v>175</v>
       </c>
-      <c r="F103">
-        <v>1</v>
-      </c>
-      <c r="G103">
-        <v>6</v>
-      </c>
-      <c r="H103">
-        <v>6</v>
-      </c>
-      <c r="I103" s="6">
-        <v>43994</v>
-      </c>
-    </row>
-    <row r="104" customFormat="1" spans="1:9">
-      <c r="A104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F104" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="G104">
-        <v>1</v>
-      </c>
-      <c r="H104">
-        <v>0.8</v>
-      </c>
-      <c r="I104" s="6">
-        <v>44095</v>
-      </c>
-    </row>
-    <row r="105" customFormat="1" spans="1:10">
+    </row>
+    <row r="105" customFormat="1" spans="1:9">
       <c r="A105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F105" s="7">
+      <c r="F105">
         <v>1</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I105" s="6">
-        <v>44019</v>
-      </c>
-      <c r="J105" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="106" customFormat="1" spans="1:10">
+        <v>43994</v>
+      </c>
+    </row>
+    <row r="106" customFormat="1" spans="1:9">
       <c r="A106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2" t="s">
         <v>177</v>
       </c>
       <c r="F106" s="7">
-        <v>0.21</v>
+        <v>0.8</v>
       </c>
       <c r="G106">
-        <v>5.16</v>
+        <v>1</v>
       </c>
       <c r="H106">
-        <v>1.09</v>
+        <v>0.8</v>
       </c>
       <c r="I106" s="6">
-        <v>44030</v>
-      </c>
-      <c r="J106" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="107" customFormat="1" spans="1:9">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="107" customFormat="1" spans="1:10">
       <c r="A107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F107" s="7">
-        <v>0.37</v>
+        <v>1</v>
       </c>
       <c r="G107">
-        <v>4.36</v>
+        <v>1</v>
       </c>
       <c r="H107">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="I107" s="6">
-        <v>44166</v>
-      </c>
-    </row>
-    <row r="108" customFormat="1" spans="1:9">
+        <v>44019</v>
+      </c>
+      <c r="J107" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" customFormat="1" spans="1:10">
       <c r="A108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F108" s="7">
-        <v>1</v>
+        <v>0.21</v>
       </c>
       <c r="G108">
-        <v>3.5</v>
+        <v>5.16</v>
       </c>
       <c r="H108">
-        <v>3.5</v>
+        <v>1.09</v>
       </c>
       <c r="I108" s="6">
-        <v>44111</v>
+        <v>44030</v>
+      </c>
+      <c r="J108" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="109" customFormat="1" spans="1:9">
       <c r="A109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F109" s="7">
-        <v>0.23</v>
+        <v>0.37</v>
       </c>
       <c r="G109">
-        <v>11</v>
+        <v>4.36</v>
       </c>
       <c r="H109">
-        <v>2.57</v>
+        <v>1.6</v>
       </c>
       <c r="I109" s="6">
-        <v>44167</v>
+        <v>44166</v>
       </c>
     </row>
     <row r="110" customFormat="1" spans="1:9">
       <c r="A110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F110" s="7">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>3.5</v>
+      </c>
+      <c r="H110">
+        <v>3.5</v>
+      </c>
+      <c r="I110" s="6">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="111" customFormat="1" spans="1:9">
+      <c r="A111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F110" s="7">
-        <v>1</v>
-      </c>
-      <c r="G110">
-        <v>0.4</v>
-      </c>
-      <c r="H110">
-        <v>0.4</v>
-      </c>
-      <c r="I110" s="6">
-        <v>44021</v>
-      </c>
-    </row>
-    <row r="111" spans="5:9">
-      <c r="E111" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F111">
-        <v>1</v>
+      <c r="F111" s="7">
+        <v>0.23</v>
       </c>
       <c r="G111">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="H111">
-        <v>12.8</v>
+        <v>2.57</v>
       </c>
       <c r="I111" s="6">
-        <v>44096</v>
-      </c>
-    </row>
-    <row r="112" customFormat="1" ht="27.6" spans="1:9">
+        <v>44167</v>
+      </c>
+    </row>
+    <row r="112" customFormat="1" spans="1:9">
       <c r="A112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F112" s="7">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>0.4</v>
+      </c>
+      <c r="H112">
+        <v>0.4</v>
+      </c>
+      <c r="I112" s="6">
+        <v>44021</v>
+      </c>
+    </row>
+    <row r="113" spans="5:9">
+      <c r="E113" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F112" s="7">
-        <v>1</v>
-      </c>
-      <c r="G112">
-        <v>6.9</v>
-      </c>
-      <c r="H112">
-        <v>6.9</v>
-      </c>
-      <c r="I112" s="6">
-        <v>44166</v>
-      </c>
-    </row>
-    <row r="113" customFormat="1" spans="1:12">
-      <c r="A113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F113" s="7">
+      <c r="F113">
         <v>1</v>
       </c>
       <c r="G113">
-        <v>7.9</v>
+        <v>14.5</v>
       </c>
       <c r="H113">
-        <v>7.9</v>
+        <v>12.8</v>
       </c>
       <c r="I113" s="6">
-        <v>44164</v>
-      </c>
-      <c r="L113" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="114" customFormat="1" spans="1:9">
+        <v>44096</v>
+      </c>
+    </row>
+    <row r="114" customFormat="1" ht="27.6" spans="1:9">
       <c r="A114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F114" s="7">
         <v>1</v>
       </c>
       <c r="G114">
-        <v>3.48</v>
+        <v>6.9</v>
       </c>
       <c r="H114">
-        <v>3.48</v>
+        <v>6.9</v>
       </c>
       <c r="I114" s="6">
-        <v>43849</v>
-      </c>
-    </row>
-    <row r="115" customFormat="1" spans="1:9">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="115" customFormat="1" spans="1:12">
       <c r="A115" s="2"/>
       <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="7"/>
-      <c r="I115" s="6"/>
-    </row>
-    <row r="116" spans="5:9">
+      <c r="E115" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F115" s="7">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>7.9</v>
+      </c>
+      <c r="H115">
+        <v>7.9</v>
+      </c>
+      <c r="I115" s="6">
+        <v>44164</v>
+      </c>
+      <c r="L115" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="116" customFormat="1" spans="1:9">
+      <c r="A116" s="2"/>
+      <c r="D116" s="2"/>
       <c r="E116" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F116">
-        <v>0.63</v>
+      <c r="F116" s="7">
+        <v>1</v>
       </c>
       <c r="G116">
-        <v>15.6</v>
+        <v>7.2</v>
       </c>
       <c r="H116">
-        <v>9.89</v>
+        <v>7.2</v>
       </c>
       <c r="I116" s="6">
-        <v>44007</v>
+        <v>44183</v>
       </c>
     </row>
     <row r="117" customFormat="1" spans="1:9">
       <c r="A117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F117">
-        <v>0.12</v>
+        <v>188</v>
+      </c>
+      <c r="F117" s="7">
+        <v>1</v>
       </c>
       <c r="G117">
+        <v>3.48</v>
+      </c>
+      <c r="H117">
+        <v>3.48</v>
+      </c>
+      <c r="I117" s="6">
+        <v>43849</v>
+      </c>
+    </row>
+    <row r="118" customFormat="1" spans="1:9">
+      <c r="A118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="7"/>
+      <c r="I118" s="6"/>
+    </row>
+    <row r="119" spans="5:9">
+      <c r="E119" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F119">
+        <v>0.63</v>
+      </c>
+      <c r="G119">
         <v>15.6</v>
       </c>
-      <c r="H117">
-        <v>1.87</v>
-      </c>
-      <c r="I117" s="6">
-        <v>44006</v>
-      </c>
-    </row>
-    <row r="118" spans="5:9">
-      <c r="E118" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F118">
-        <v>1</v>
-      </c>
-      <c r="G118">
-        <v>11.8</v>
-      </c>
-      <c r="H118">
-        <v>8.9</v>
-      </c>
-      <c r="I118" s="6">
+      <c r="H119">
+        <v>9.89</v>
+      </c>
+      <c r="I119" s="6">
         <v>44007</v>
-      </c>
-    </row>
-    <row r="119" customFormat="1" spans="1:9">
-      <c r="A119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F119">
-        <v>1</v>
-      </c>
-      <c r="G119">
-        <v>11.8</v>
-      </c>
-      <c r="H119">
-        <v>7.9</v>
-      </c>
-      <c r="I119" s="6">
-        <v>44009</v>
       </c>
     </row>
     <row r="120" customFormat="1" spans="1:9">
@@ -5652,212 +5658,203 @@
         <v>189</v>
       </c>
       <c r="F120">
-        <v>0.57</v>
+        <v>0.12</v>
       </c>
       <c r="G120">
-        <v>37.8</v>
+        <v>15.6</v>
       </c>
       <c r="H120">
-        <v>12.34</v>
+        <v>1.87</v>
       </c>
       <c r="I120" s="6">
-        <v>44008</v>
-      </c>
-    </row>
-    <row r="121" customFormat="1" spans="1:9">
-      <c r="A121" s="2"/>
-      <c r="D121" s="2"/>
+        <v>44006</v>
+      </c>
+    </row>
+    <row r="121" spans="5:9">
       <c r="E121" s="2" t="s">
         <v>190</v>
       </c>
       <c r="F121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>11.8</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>8.9</v>
       </c>
       <c r="I121" s="6">
-        <v>44009</v>
+        <v>44007</v>
       </c>
     </row>
     <row r="122" customFormat="1" spans="1:9">
       <c r="A122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>11.8</v>
+      </c>
+      <c r="H122">
+        <v>7.9</v>
+      </c>
+      <c r="I122" s="6">
+        <v>44009</v>
+      </c>
+    </row>
+    <row r="123" customFormat="1" spans="1:9">
+      <c r="A123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F122">
-        <v>1</v>
-      </c>
-      <c r="G122">
+      <c r="F123">
+        <v>0.57</v>
+      </c>
+      <c r="G123">
+        <v>37.8</v>
+      </c>
+      <c r="H123">
+        <v>12.34</v>
+      </c>
+      <c r="I123" s="6">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="124" customFormat="1" spans="1:9">
+      <c r="A124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F124">
+        <v>3</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>3</v>
+      </c>
+      <c r="I124" s="6">
+        <v>44009</v>
+      </c>
+    </row>
+    <row r="125" customFormat="1" spans="1:9">
+      <c r="A125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125">
         <v>5.8</v>
       </c>
-      <c r="H122">
+      <c r="H125">
         <v>4.8</v>
       </c>
-      <c r="I122" s="6">
+      <c r="I125" s="6">
         <v>44085</v>
       </c>
     </row>
-    <row r="123" spans="9:9">
-      <c r="I123" s="6"/>
-    </row>
-    <row r="124" spans="9:9">
-      <c r="I124" s="6"/>
-    </row>
-    <row r="125" spans="5:12">
-      <c r="E125" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F125">
-        <v>1</v>
-      </c>
-      <c r="G125">
+    <row r="126" spans="9:9">
+      <c r="I126" s="6"/>
+    </row>
+    <row r="127" spans="9:9">
+      <c r="I127" s="6"/>
+    </row>
+    <row r="128" spans="5:12">
+      <c r="E128" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
         <v>10.8</v>
       </c>
-      <c r="H125">
+      <c r="H128">
         <v>10.8</v>
       </c>
-      <c r="I125" s="6">
+      <c r="I128" s="6">
         <v>44166</v>
       </c>
-      <c r="J125" t="s">
-        <v>193</v>
-      </c>
-      <c r="L125" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="126" customFormat="1" spans="1:9">
-      <c r="A126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2" t="s">
+      <c r="J128" t="s">
         <v>195</v>
       </c>
-      <c r="F126">
-        <v>0.31</v>
-      </c>
-      <c r="G126">
-        <v>21.6</v>
-      </c>
-      <c r="H126">
-        <v>6.65</v>
-      </c>
-      <c r="I126" s="6">
-        <v>44166</v>
-      </c>
-    </row>
-    <row r="127" customFormat="1" spans="1:9">
-      <c r="A127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2" t="s">
+      <c r="L128" t="s">
         <v>196</v>
       </c>
-      <c r="F127">
-        <v>0.25</v>
-      </c>
-      <c r="G127">
-        <v>35.6</v>
-      </c>
-      <c r="H127">
-        <v>8.76</v>
-      </c>
-      <c r="I127" s="6">
-        <v>44169</v>
-      </c>
-    </row>
-    <row r="128" spans="5:10">
-      <c r="E128" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F128">
-        <v>0.31</v>
-      </c>
-      <c r="G128">
-        <v>31.8</v>
-      </c>
-      <c r="H128">
-        <v>9.79</v>
-      </c>
-      <c r="I128" s="6">
-        <v>44186</v>
-      </c>
-      <c r="J128" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="129" customFormat="1" spans="1:10">
+    </row>
+    <row r="129" customFormat="1" spans="1:9">
       <c r="A129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>0.31</v>
       </c>
       <c r="G129">
-        <v>21.9</v>
+        <v>21.6</v>
       </c>
       <c r="H129">
-        <v>13.8</v>
+        <v>6.65</v>
       </c>
       <c r="I129" s="6">
-        <v>44137</v>
-      </c>
-      <c r="J129" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="130" spans="5:10">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="130" customFormat="1" spans="1:9">
+      <c r="A130" s="2"/>
+      <c r="D130" s="2"/>
       <c r="E130" s="2" t="s">
         <v>198</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G130">
-        <v>21.9</v>
+        <v>35.6</v>
       </c>
       <c r="H130">
-        <v>15.8</v>
+        <v>8.76</v>
       </c>
       <c r="I130" s="6">
-        <v>44173</v>
-      </c>
-      <c r="J130" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="131" customFormat="1" spans="1:10">
-      <c r="A131" s="2"/>
-      <c r="D131" s="2"/>
+        <v>44169</v>
+      </c>
+    </row>
+    <row r="131" spans="5:10">
       <c r="E131" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>0.31</v>
       </c>
       <c r="G131">
-        <v>21.9</v>
+        <v>31.8</v>
       </c>
       <c r="H131">
-        <v>15.8</v>
+        <v>9.79</v>
       </c>
       <c r="I131" s="6">
-        <v>44037</v>
+        <v>44186</v>
       </c>
       <c r="J131" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="132" customFormat="1" spans="1:10">
       <c r="A132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -5866,20 +5863,18 @@
         <v>21.9</v>
       </c>
       <c r="H132">
-        <v>14.8</v>
+        <v>13.8</v>
       </c>
       <c r="I132" s="6">
-        <v>44103</v>
+        <v>44137</v>
       </c>
       <c r="J132" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="133" customFormat="1" spans="1:10">
-      <c r="A133" s="2"/>
-      <c r="D133" s="2"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="133" spans="5:10">
       <c r="E133" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -5888,20 +5883,20 @@
         <v>21.9</v>
       </c>
       <c r="H133">
-        <v>14.8</v>
+        <v>15.8</v>
       </c>
       <c r="I133" s="6">
-        <v>44122</v>
+        <v>44173</v>
       </c>
       <c r="J133" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="134" customFormat="1" spans="1:10">
       <c r="A134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -5910,13 +5905,13 @@
         <v>21.9</v>
       </c>
       <c r="H134">
-        <v>12.8</v>
+        <v>15.8</v>
       </c>
       <c r="I134" s="6">
-        <v>44164</v>
+        <v>44037</v>
       </c>
       <c r="J134" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="135" customFormat="1" spans="1:10">
@@ -5929,36 +5924,38 @@
         <v>1</v>
       </c>
       <c r="G135">
-        <v>9.9</v>
+        <v>21.9</v>
       </c>
       <c r="H135">
-        <v>7.8</v>
+        <v>14.8</v>
       </c>
       <c r="I135" s="6">
-        <v>44033</v>
+        <v>44103</v>
       </c>
       <c r="J135" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="136" spans="5:10">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="136" customFormat="1" spans="1:10">
+      <c r="A136" s="2"/>
+      <c r="D136" s="2"/>
       <c r="E136" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F136">
         <v>1</v>
       </c>
       <c r="G136">
-        <v>15.66</v>
+        <v>21.9</v>
       </c>
       <c r="H136">
-        <v>15.66</v>
+        <v>14.8</v>
       </c>
       <c r="I136" s="6">
-        <v>44186</v>
+        <v>44122</v>
       </c>
       <c r="J136" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
     </row>
     <row r="137" customFormat="1" spans="1:10">
@@ -5971,16 +5968,16 @@
         <v>1</v>
       </c>
       <c r="G137">
-        <v>16.17</v>
+        <v>21.9</v>
       </c>
       <c r="H137">
-        <v>16.17</v>
+        <v>12.8</v>
       </c>
       <c r="I137" s="6">
-        <v>44045</v>
+        <v>44164</v>
       </c>
       <c r="J137" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
     </row>
     <row r="138" customFormat="1" spans="1:10">
@@ -5990,44 +5987,44 @@
         <v>202</v>
       </c>
       <c r="F138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G138">
-        <v>6.9</v>
+        <v>9.9</v>
       </c>
       <c r="H138">
-        <v>7.93</v>
+        <v>7.8</v>
       </c>
       <c r="I138" s="6">
-        <v>44164</v>
+        <v>44033</v>
       </c>
       <c r="J138" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="139" customFormat="1" spans="1:10">
-      <c r="A139" s="2"/>
-      <c r="D139" s="2"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="139" spans="5:10">
       <c r="E139" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F139">
         <v>1</v>
       </c>
       <c r="G139">
-        <v>6.9</v>
+        <v>15.66</v>
       </c>
       <c r="H139">
-        <v>3.97</v>
+        <v>15.66</v>
       </c>
       <c r="I139" s="6">
-        <v>44164</v>
+        <v>44186</v>
       </c>
       <c r="J139" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="140" spans="5:10">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="140" customFormat="1" spans="1:10">
+      <c r="A140" s="2"/>
+      <c r="D140" s="2"/>
       <c r="E140" s="2" t="s">
         <v>203</v>
       </c>
@@ -6035,22 +6032,41 @@
         <v>1</v>
       </c>
       <c r="G140">
-        <v>12.9</v>
+        <v>16.17</v>
       </c>
       <c r="H140">
-        <v>9.5</v>
+        <v>16.17</v>
       </c>
       <c r="I140" s="6">
-        <v>44186</v>
+        <v>44045</v>
       </c>
       <c r="J140" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="141" spans="9:9">
-      <c r="I141" s="6"/>
-    </row>
-    <row r="142" customFormat="1" spans="1:9">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="141" customFormat="1" spans="1:10">
+      <c r="A141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+      <c r="G141">
+        <v>6.9</v>
+      </c>
+      <c r="H141">
+        <v>7.93</v>
+      </c>
+      <c r="I141" s="6">
+        <v>44164</v>
+      </c>
+      <c r="J141" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="142" customFormat="1" spans="1:10">
       <c r="A142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2" t="s">
@@ -6060,16 +6076,19 @@
         <v>1</v>
       </c>
       <c r="G142">
-        <v>2.5</v>
+        <v>6.9</v>
       </c>
       <c r="H142">
-        <v>2.5</v>
+        <v>3.97</v>
       </c>
       <c r="I142" s="6">
-        <v>44085</v>
-      </c>
-    </row>
-    <row r="143" spans="5:9">
+        <v>44164</v>
+      </c>
+      <c r="J142" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="143" spans="5:10">
       <c r="E143" s="2" t="s">
         <v>205</v>
       </c>
@@ -6077,145 +6096,125 @@
         <v>1</v>
       </c>
       <c r="G143">
-        <v>2.51</v>
+        <v>12.9</v>
       </c>
       <c r="H143">
-        <v>2.51</v>
+        <v>9.5</v>
       </c>
       <c r="I143" s="6">
-        <v>44092</v>
-      </c>
-    </row>
-    <row r="144" customFormat="1" spans="1:9">
-      <c r="A144" s="2"/>
-      <c r="B144"/>
-      <c r="C144"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2" t="s">
+        <v>44186</v>
+      </c>
+      <c r="J143" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="144" spans="9:9">
+      <c r="I144" s="6"/>
+    </row>
+    <row r="145" customFormat="1" spans="1:9">
+      <c r="A145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F144">
-        <v>0.45</v>
-      </c>
-      <c r="G144">
-        <v>7.36</v>
-      </c>
-      <c r="H144">
-        <v>3.28</v>
-      </c>
-      <c r="I144" s="6">
-        <v>44165</v>
-      </c>
-    </row>
-    <row r="145" spans="5:9">
-      <c r="E145" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="F145">
-        <v>0.28</v>
+        <v>1</v>
       </c>
       <c r="G145">
-        <v>13.96</v>
+        <v>2.5</v>
       </c>
       <c r="H145">
-        <v>3.96</v>
+        <v>2.5</v>
       </c>
       <c r="I145" s="6">
-        <v>44095</v>
+        <v>44085</v>
       </c>
     </row>
     <row r="146" spans="5:9">
       <c r="E146" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146">
+        <v>2.51</v>
+      </c>
+      <c r="H146">
+        <v>2.51</v>
+      </c>
+      <c r="I146" s="6">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="147" customFormat="1" spans="1:9">
+      <c r="A147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F146">
-        <v>1</v>
-      </c>
-      <c r="G146">
+      <c r="F147">
+        <v>0.45</v>
+      </c>
+      <c r="G147">
+        <v>7.36</v>
+      </c>
+      <c r="H147">
+        <v>3.28</v>
+      </c>
+      <c r="I147" s="6">
+        <v>44165</v>
+      </c>
+    </row>
+    <row r="148" spans="5:9">
+      <c r="E148" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F148">
+        <v>0.28</v>
+      </c>
+      <c r="G148">
+        <v>13.96</v>
+      </c>
+      <c r="H148">
+        <v>3.96</v>
+      </c>
+      <c r="I148" s="6">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="149" spans="5:9">
+      <c r="E149" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149">
         <v>11.71</v>
       </c>
-      <c r="H146">
+      <c r="H149">
         <v>11.71</v>
       </c>
-      <c r="I146" s="6">
+      <c r="I149" s="6">
         <v>44042</v>
-      </c>
-    </row>
-    <row r="147" spans="5:10">
-      <c r="E147" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F147">
-        <v>0.22</v>
-      </c>
-      <c r="G147">
-        <v>19.6</v>
-      </c>
-      <c r="H147">
-        <v>4.22</v>
-      </c>
-      <c r="I147" s="6">
-        <v>44172</v>
-      </c>
-      <c r="J147" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="148" spans="5:10">
-      <c r="E148" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F148">
-        <v>0.26</v>
-      </c>
-      <c r="G148">
-        <v>11.96</v>
-      </c>
-      <c r="H148">
-        <v>3.05</v>
-      </c>
-      <c r="I148" s="6">
-        <v>44172</v>
-      </c>
-      <c r="J148" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="149" spans="5:10">
-      <c r="E149" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F149">
-        <v>0.17</v>
-      </c>
-      <c r="G149">
-        <v>9.96</v>
-      </c>
-      <c r="H149">
-        <v>1.67</v>
-      </c>
-      <c r="I149" s="6">
-        <v>44014</v>
-      </c>
-      <c r="J149" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="150" spans="5:10">
       <c r="E150" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="G150">
-        <v>6.9</v>
+        <v>19.6</v>
       </c>
       <c r="H150">
-        <v>6.9</v>
+        <v>4.22</v>
       </c>
       <c r="I150" s="6">
-        <v>43982</v>
+        <v>44172</v>
       </c>
       <c r="J150" t="s">
         <v>132</v>
@@ -6223,19 +6222,19 @@
     </row>
     <row r="151" spans="5:10">
       <c r="E151" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F151">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="G151">
-        <v>19.8</v>
+        <v>11.96</v>
       </c>
       <c r="H151">
-        <v>5.78</v>
+        <v>3.05</v>
       </c>
       <c r="I151" s="6">
-        <v>44006</v>
+        <v>44172</v>
       </c>
       <c r="J151" t="s">
         <v>132</v>
@@ -6243,19 +6242,19 @@
     </row>
     <row r="152" spans="5:10">
       <c r="E152" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F152">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G152">
         <v>9.96</v>
       </c>
       <c r="H152">
-        <v>3.29</v>
+        <v>1.67</v>
       </c>
       <c r="I152" s="6">
-        <v>44007</v>
+        <v>44014</v>
       </c>
       <c r="J152" t="s">
         <v>132</v>
@@ -6263,19 +6262,19 @@
     </row>
     <row r="153" spans="5:10">
       <c r="E153" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F153">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G153">
-        <v>11.96</v>
+        <v>6.9</v>
       </c>
       <c r="H153">
-        <v>2.39</v>
+        <v>6.9</v>
       </c>
       <c r="I153" s="6">
-        <v>44008</v>
+        <v>43982</v>
       </c>
       <c r="J153" t="s">
         <v>132</v>
@@ -6283,19 +6282,19 @@
     </row>
     <row r="154" spans="5:10">
       <c r="E154" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F154">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="G154">
-        <v>13.6</v>
+        <v>19.8</v>
       </c>
       <c r="H154">
-        <v>4.38</v>
+        <v>5.78</v>
       </c>
       <c r="I154" s="6">
-        <v>43998</v>
+        <v>44006</v>
       </c>
       <c r="J154" t="s">
         <v>132</v>
@@ -6303,185 +6302,188 @@
     </row>
     <row r="155" spans="5:10">
       <c r="E155" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F155">
-        <v>0.16</v>
+        <v>0.33</v>
       </c>
       <c r="G155">
-        <v>13.6</v>
+        <v>9.96</v>
       </c>
       <c r="H155">
-        <v>2.2</v>
+        <v>3.29</v>
       </c>
       <c r="I155" s="6">
-        <v>43972</v>
+        <v>44007</v>
       </c>
       <c r="J155" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="156" customFormat="1" spans="1:10">
-      <c r="A156" s="2"/>
-      <c r="D156" s="2"/>
+    <row r="156" spans="5:10">
       <c r="E156" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F156">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="G156">
-        <v>13.6</v>
+        <v>11.96</v>
       </c>
       <c r="H156">
-        <v>4.28</v>
+        <v>2.39</v>
       </c>
       <c r="I156" s="6">
-        <v>43992</v>
+        <v>44008</v>
       </c>
       <c r="J156" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="157" customFormat="1" spans="1:10">
-      <c r="A157" s="2"/>
-      <c r="D157" s="2"/>
+    <row r="157" spans="5:10">
       <c r="E157" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F157">
-        <v>0.23</v>
+        <v>0.32</v>
       </c>
       <c r="G157">
         <v>13.6</v>
       </c>
       <c r="H157">
-        <v>3.14</v>
+        <v>4.38</v>
       </c>
       <c r="I157" s="6">
-        <v>44024</v>
+        <v>43998</v>
       </c>
       <c r="J157" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="158" spans="5:9">
+    <row r="158" spans="5:10">
       <c r="E158" s="2" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="F158">
-        <v>5</v>
+        <v>0.16</v>
       </c>
       <c r="G158">
-        <v>1</v>
+        <v>13.6</v>
       </c>
       <c r="H158">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="I158" s="6">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="159" customFormat="1" spans="1:9">
+        <v>43972</v>
+      </c>
+      <c r="J158" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="159" customFormat="1" spans="1:10">
       <c r="A159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="F159">
-        <v>1.5</v>
+        <v>0.31</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>13.6</v>
       </c>
       <c r="H159">
-        <v>1.5</v>
+        <v>4.28</v>
       </c>
       <c r="I159" s="6">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="160" customFormat="1" spans="1:9">
+        <v>43992</v>
+      </c>
+      <c r="J159" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="160" customFormat="1" spans="1:10">
       <c r="A160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="F160">
-        <v>2</v>
+        <v>0.23</v>
       </c>
       <c r="G160">
-        <v>1</v>
+        <v>13.6</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>3.14</v>
       </c>
       <c r="I160" s="6">
+        <v>44024</v>
+      </c>
+      <c r="J160" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="161" spans="5:9">
+      <c r="E161" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F161">
+        <v>5</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>5</v>
+      </c>
+      <c r="I161" s="6">
         <v>44067</v>
-      </c>
-    </row>
-    <row r="161" customFormat="1" spans="1:9">
-      <c r="A161" s="2"/>
-      <c r="D161" s="2"/>
-      <c r="E161" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F161">
-        <v>2</v>
-      </c>
-      <c r="G161">
-        <v>1</v>
-      </c>
-      <c r="H161">
-        <v>2</v>
-      </c>
-      <c r="I161" s="6">
-        <v>44070</v>
       </c>
     </row>
     <row r="162" customFormat="1" spans="1:9">
       <c r="A162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F162">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="G162">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="I162" s="6">
-        <v>44070</v>
+        <v>44067</v>
       </c>
     </row>
     <row r="163" customFormat="1" spans="1:9">
       <c r="A163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F163">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G163">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="I163" s="6">
-        <v>43991</v>
+        <v>44067</v>
       </c>
     </row>
     <row r="164" customFormat="1" spans="1:9">
       <c r="A164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F164">
         <v>2</v>
@@ -6493,52 +6495,52 @@
         <v>2</v>
       </c>
       <c r="I164" s="6">
-        <v>43991</v>
+        <v>44070</v>
       </c>
     </row>
     <row r="165" customFormat="1" spans="1:9">
       <c r="A165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G165">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I165" s="6">
-        <v>43993</v>
+        <v>44070</v>
       </c>
     </row>
     <row r="166" customFormat="1" spans="1:9">
       <c r="A166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F166">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G166">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I166" s="6">
-        <v>43993</v>
+        <v>43991</v>
       </c>
     </row>
     <row r="167" customFormat="1" spans="1:9">
       <c r="A167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F167">
         <v>2</v>
@@ -6550,14 +6552,14 @@
         <v>2</v>
       </c>
       <c r="I167" s="6">
-        <v>43982</v>
+        <v>43991</v>
       </c>
     </row>
     <row r="168" customFormat="1" spans="1:9">
       <c r="A168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F168">
         <v>2</v>
@@ -6569,14 +6571,14 @@
         <v>2</v>
       </c>
       <c r="I168" s="6">
-        <v>44006</v>
+        <v>43993</v>
       </c>
     </row>
     <row r="169" customFormat="1" spans="1:9">
       <c r="A169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F169">
         <v>2</v>
@@ -6588,127 +6590,175 @@
         <v>2</v>
       </c>
       <c r="I169" s="6">
-        <v>43994</v>
+        <v>43993</v>
       </c>
     </row>
     <row r="170" customFormat="1" spans="1:9">
       <c r="A170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F170">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G170">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="I170" s="6">
-        <v>44008</v>
+        <v>43982</v>
       </c>
     </row>
     <row r="171" customFormat="1" spans="1:9">
       <c r="A171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F171">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="G171">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="I171" s="6">
-        <v>44004</v>
+        <v>44006</v>
       </c>
     </row>
     <row r="172" customFormat="1" spans="1:9">
       <c r="A172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F172">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G172">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="I172" s="6">
-        <v>44064</v>
+        <v>43994</v>
       </c>
     </row>
     <row r="173" customFormat="1" spans="1:9">
       <c r="A173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="H173">
+        <v>2.5</v>
+      </c>
+      <c r="I173" s="6">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="174" customFormat="1" spans="1:9">
+      <c r="A174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F174">
+        <v>3.5</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+      <c r="H174">
+        <v>3.5</v>
+      </c>
+      <c r="I174" s="6">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="175" customFormat="1" spans="1:9">
+      <c r="A175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F175">
+        <v>2.5</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>2.5</v>
+      </c>
+      <c r="I175" s="6">
+        <v>44064</v>
+      </c>
+    </row>
+    <row r="176" customFormat="1" spans="1:9">
+      <c r="A176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="G176">
         <v>2</v>
       </c>
-      <c r="H173">
+      <c r="H176">
         <v>2</v>
       </c>
-      <c r="I173" s="6">
+      <c r="I176" s="6">
         <v>43993</v>
       </c>
     </row>
-    <row r="174" spans="5:9">
-      <c r="E174" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F174">
-        <v>1</v>
-      </c>
-      <c r="G174">
+    <row r="177" spans="5:9">
+      <c r="E177" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="G177">
         <v>10.5</v>
       </c>
-      <c r="H174">
+      <c r="H177">
         <v>10.5</v>
       </c>
-      <c r="I174" s="6">
+      <c r="I177" s="6">
         <v>44037</v>
       </c>
     </row>
-    <row r="175" spans="5:9">
-      <c r="E175" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F175">
+    <row r="178" spans="5:9">
+      <c r="E178" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F178">
         <v>0.08</v>
       </c>
-      <c r="G175">
+      <c r="G178">
         <v>53.6</v>
       </c>
-      <c r="H175">
+      <c r="H178">
         <v>4.29</v>
       </c>
-      <c r="I175" s="6">
+      <c r="I178" s="6">
         <v>44012</v>
       </c>
-    </row>
-    <row r="177" spans="9:9">
-      <c r="I177" s="6"/>
-    </row>
-    <row r="178" spans="9:9">
-      <c r="I178" s="6"/>
-    </row>
-    <row r="179" spans="9:9">
-      <c r="I179" s="6"/>
     </row>
     <row r="180" spans="9:9">
       <c r="I180" s="6"/>
@@ -6722,143 +6772,89 @@
     <row r="183" spans="9:9">
       <c r="I183" s="6"/>
     </row>
-    <row r="184" spans="5:10">
-      <c r="E184" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F184">
+    <row r="184" spans="9:9">
+      <c r="I184" s="6"/>
+    </row>
+    <row r="185" spans="9:9">
+      <c r="I185" s="6"/>
+    </row>
+    <row r="186" spans="9:9">
+      <c r="I186" s="6"/>
+    </row>
+    <row r="187" spans="5:10">
+      <c r="E187" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F187">
         <v>0.28</v>
       </c>
-      <c r="G184">
+      <c r="G187">
         <v>33.6</v>
       </c>
-      <c r="H184">
+      <c r="H187">
         <v>7.61</v>
       </c>
-      <c r="I184" s="6">
+      <c r="I187" s="6">
         <v>44139</v>
       </c>
-      <c r="J184" t="s">
+      <c r="J187" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="185" spans="5:9">
-      <c r="E185" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F185">
-        <v>0.18</v>
-      </c>
-      <c r="G185">
-        <v>19.8</v>
-      </c>
-      <c r="H185">
-        <v>3.48</v>
-      </c>
-      <c r="I185" s="6">
-        <v>44172</v>
-      </c>
-    </row>
-    <row r="186" spans="5:9">
-      <c r="E186" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F186">
-        <v>0.16</v>
-      </c>
-      <c r="G186">
-        <v>39.6</v>
-      </c>
-      <c r="H186">
-        <v>6.26</v>
-      </c>
-      <c r="I186" s="6">
-        <v>44082</v>
-      </c>
-    </row>
-    <row r="187" spans="5:9">
-      <c r="E187" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F187">
-        <v>0.17</v>
-      </c>
-      <c r="G187">
-        <v>25.2</v>
-      </c>
-      <c r="H187">
-        <v>3.4</v>
-      </c>
-      <c r="I187" s="6">
-        <v>44091</v>
       </c>
     </row>
     <row r="188" spans="5:9">
       <c r="E188" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>0.18</v>
       </c>
       <c r="G188">
-        <v>3</v>
+        <v>19.8</v>
       </c>
       <c r="H188">
-        <v>3</v>
+        <v>3.48</v>
       </c>
       <c r="I188" s="6">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="189" customFormat="1" spans="1:10">
-      <c r="A189" s="2"/>
-      <c r="D189" s="2"/>
+        <v>44172</v>
+      </c>
+    </row>
+    <row r="189" spans="5:9">
       <c r="E189" s="2" t="s">
         <v>225</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>0.16</v>
       </c>
       <c r="G189">
-        <v>3</v>
+        <v>39.6</v>
       </c>
       <c r="H189">
-        <v>3</v>
+        <v>6.26</v>
       </c>
       <c r="I189" s="6">
-        <v>44075</v>
-      </c>
-      <c r="J189" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="190" customFormat="1" spans="1:10">
-      <c r="A190" s="2"/>
-      <c r="D190" s="2"/>
+        <v>44082</v>
+      </c>
+    </row>
+    <row r="190" spans="5:9">
       <c r="E190" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G190">
-        <v>3</v>
+        <v>25.2</v>
       </c>
       <c r="H190">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I190" s="6">
-        <v>44075</v>
-      </c>
-      <c r="J190" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="191" customFormat="1" spans="1:10">
-      <c r="A191" s="2"/>
-      <c r="D191" s="2"/>
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="191" spans="5:9">
       <c r="E191" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F191">
         <v>1</v>
@@ -6870,63 +6866,73 @@
         <v>3</v>
       </c>
       <c r="I191" s="6">
-        <v>44024</v>
-      </c>
-      <c r="J191" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="192" spans="5:9">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="192" customFormat="1" spans="1:10">
+      <c r="A192" s="2"/>
+      <c r="D192" s="2"/>
       <c r="E192" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F192">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G192">
-        <v>43.6</v>
+        <v>3</v>
       </c>
       <c r="H192">
-        <v>5.82</v>
+        <v>3</v>
       </c>
       <c r="I192" s="6">
-        <v>44042</v>
-      </c>
-    </row>
-    <row r="193" customFormat="1" spans="1:9">
+        <v>44075</v>
+      </c>
+      <c r="J192" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="193" customFormat="1" spans="1:10">
       <c r="A193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F193">
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="G193">
-        <v>48.6</v>
+        <v>3</v>
       </c>
       <c r="H193">
-        <v>4.58</v>
+        <v>3</v>
       </c>
       <c r="I193" s="6">
-        <v>44008</v>
-      </c>
-    </row>
-    <row r="194" spans="5:9">
+        <v>44075</v>
+      </c>
+      <c r="J193" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="194" customFormat="1" spans="1:10">
+      <c r="A194" s="2"/>
+      <c r="D194" s="2"/>
       <c r="E194" s="2" t="s">
         <v>227</v>
       </c>
       <c r="F194">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="G194">
-        <v>47.6</v>
+        <v>3</v>
       </c>
       <c r="H194">
-        <v>9.47</v>
+        <v>3</v>
       </c>
       <c r="I194" s="6">
-        <v>44050</v>
+        <v>44024</v>
+      </c>
+      <c r="J194" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="195" spans="5:9">
@@ -6934,33 +6940,35 @@
         <v>228</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="G195">
-        <v>11.9</v>
+        <v>43.6</v>
       </c>
       <c r="H195">
-        <v>11.9</v>
+        <v>5.82</v>
       </c>
       <c r="I195" s="6">
-        <v>44100</v>
-      </c>
-    </row>
-    <row r="196" spans="5:9">
+        <v>44042</v>
+      </c>
+    </row>
+    <row r="196" customFormat="1" spans="1:9">
+      <c r="A196" s="2"/>
+      <c r="D196" s="2"/>
       <c r="E196" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F196">
-        <v>1</v>
+        <v>0.21</v>
       </c>
       <c r="G196">
-        <v>3</v>
+        <v>48.6</v>
       </c>
       <c r="H196">
-        <v>3</v>
+        <v>4.58</v>
       </c>
       <c r="I196" s="6">
-        <v>44050</v>
+        <v>44008</v>
       </c>
     </row>
     <row r="197" spans="5:9">
@@ -6968,13 +6976,13 @@
         <v>229</v>
       </c>
       <c r="F197">
-        <v>0.6</v>
+        <v>0.24</v>
       </c>
       <c r="G197">
-        <v>5.96</v>
+        <v>47.6</v>
       </c>
       <c r="H197">
-        <v>3.6</v>
+        <v>9.47</v>
       </c>
       <c r="I197" s="6">
         <v>44050</v>
@@ -6985,176 +6993,161 @@
         <v>230</v>
       </c>
       <c r="F198">
-        <v>0.49</v>
+        <v>1</v>
       </c>
       <c r="G198">
-        <v>25.6</v>
+        <v>11.9</v>
       </c>
       <c r="H198">
-        <v>4.92</v>
+        <v>11.9</v>
       </c>
       <c r="I198" s="6">
-        <v>44036</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="199" spans="5:9">
       <c r="E199" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F199">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="G199">
-        <v>99.6</v>
+        <v>3</v>
       </c>
       <c r="H199">
-        <v>41.43</v>
+        <v>3</v>
       </c>
       <c r="I199" s="6">
-        <v>44036</v>
+        <v>44050</v>
       </c>
     </row>
     <row r="200" spans="5:9">
       <c r="E200" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G200">
-        <v>2.06</v>
+        <v>5.96</v>
       </c>
       <c r="H200">
-        <v>2.06</v>
+        <v>3.6</v>
       </c>
       <c r="I200" s="6">
-        <v>44036</v>
+        <v>44050</v>
       </c>
     </row>
     <row r="201" spans="5:9">
       <c r="E201" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>0.49</v>
       </c>
       <c r="G201">
-        <v>10.5</v>
+        <v>25.6</v>
       </c>
       <c r="H201">
-        <v>10.5</v>
+        <v>4.92</v>
       </c>
       <c r="I201" s="6">
-        <v>44115</v>
+        <v>44036</v>
       </c>
     </row>
     <row r="202" spans="5:9">
       <c r="E202" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F202">
+        <v>0.24</v>
+      </c>
+      <c r="G202">
+        <v>99.6</v>
+      </c>
+      <c r="H202">
+        <v>41.43</v>
+      </c>
+      <c r="I202" s="6">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="203" spans="5:9">
+      <c r="E203" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F202">
+      <c r="F203">
+        <v>1</v>
+      </c>
+      <c r="G203">
+        <v>2.06</v>
+      </c>
+      <c r="H203">
+        <v>2.06</v>
+      </c>
+      <c r="I203" s="6">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="204" spans="5:9">
+      <c r="E204" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+      <c r="G204">
+        <v>10.5</v>
+      </c>
+      <c r="H204">
+        <v>10.5</v>
+      </c>
+      <c r="I204" s="6">
+        <v>44115</v>
+      </c>
+    </row>
+    <row r="205" spans="5:9">
+      <c r="E205" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F205">
         <v>0.86</v>
       </c>
-      <c r="G202">
+      <c r="G205">
         <v>6</v>
       </c>
-      <c r="H202">
+      <c r="H205">
         <v>5.15</v>
       </c>
-      <c r="I202" s="6">
+      <c r="I205" s="6">
         <v>44100</v>
       </c>
     </row>
-    <row r="203" spans="9:9">
-      <c r="I203" s="6"/>
-    </row>
-    <row r="204" spans="9:9">
-      <c r="I204" s="6"/>
-    </row>
-    <row r="205" spans="9:9">
-      <c r="I205" s="6"/>
-    </row>
-    <row r="206" spans="5:10">
-      <c r="E206" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F206">
-        <v>0.1</v>
-      </c>
-      <c r="G206">
-        <v>107.6</v>
-      </c>
-      <c r="H206">
-        <v>10.98</v>
-      </c>
-      <c r="I206" s="6">
-        <v>43972</v>
-      </c>
-      <c r="J206" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="207" customFormat="1" spans="1:10">
-      <c r="A207" s="2"/>
-      <c r="B207"/>
-      <c r="C207"/>
-      <c r="D207" s="2"/>
-      <c r="E207" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F207">
-        <v>0.12</v>
-      </c>
-      <c r="G207">
-        <v>119.6</v>
-      </c>
-      <c r="H207">
-        <v>14.04</v>
-      </c>
-      <c r="I207" s="6">
-        <v>44082</v>
-      </c>
-      <c r="J207" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="208" spans="5:10">
-      <c r="E208" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F208">
-        <v>0.31</v>
-      </c>
-      <c r="G208">
-        <v>15.96</v>
-      </c>
-      <c r="H208">
-        <v>4.95</v>
-      </c>
-      <c r="I208" s="6">
-        <v>43972</v>
-      </c>
-      <c r="J208" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="209" customFormat="1" spans="1:10">
-      <c r="A209" s="2"/>
-      <c r="D209" s="2"/>
+    <row r="206" spans="9:9">
+      <c r="I206" s="6"/>
+    </row>
+    <row r="207" spans="9:9">
+      <c r="I207" s="6"/>
+    </row>
+    <row r="208" spans="9:9">
+      <c r="I208" s="6"/>
+    </row>
+    <row r="209" spans="5:10">
       <c r="E209" s="2" t="s">
         <v>237</v>
       </c>
       <c r="F209">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="G209">
-        <v>119.6</v>
+        <v>107.6</v>
       </c>
       <c r="H209">
-        <v>7.12</v>
+        <v>10.98</v>
       </c>
       <c r="I209" s="6">
-        <v>44041</v>
+        <v>43972</v>
       </c>
       <c r="J209" t="s">
         <v>132</v>
@@ -7164,41 +7157,39 @@
       <c r="A210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F210">
-        <v>0.28</v>
+        <v>0.12</v>
       </c>
       <c r="G210">
-        <v>17.6</v>
+        <v>119.6</v>
       </c>
       <c r="H210">
-        <v>4.89</v>
+        <v>14.04</v>
       </c>
       <c r="I210" s="6">
-        <v>44041</v>
+        <v>44082</v>
       </c>
       <c r="J210" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="211" customFormat="1" spans="1:10">
-      <c r="A211" s="2"/>
-      <c r="D211" s="2"/>
+    <row r="211" spans="5:10">
       <c r="E211" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F211">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="G211">
-        <v>17.6</v>
+        <v>15.96</v>
       </c>
       <c r="H211">
-        <v>5.24</v>
+        <v>4.95</v>
       </c>
       <c r="I211" s="6">
-        <v>43991</v>
+        <v>43972</v>
       </c>
       <c r="J211" t="s">
         <v>132</v>
@@ -7208,19 +7199,19 @@
       <c r="A212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F212">
-        <v>0.29</v>
+        <v>0.06</v>
       </c>
       <c r="G212">
-        <v>17.6</v>
+        <v>119.6</v>
       </c>
       <c r="H212">
-        <v>5.03</v>
+        <v>7.12</v>
       </c>
       <c r="I212" s="6">
-        <v>43990</v>
+        <v>44041</v>
       </c>
       <c r="J212" t="s">
         <v>132</v>
@@ -7230,19 +7221,19 @@
       <c r="A213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F213">
-        <v>0.49</v>
+        <v>0.28</v>
       </c>
       <c r="G213">
         <v>17.6</v>
       </c>
       <c r="H213">
-        <v>8.55</v>
+        <v>4.89</v>
       </c>
       <c r="I213" s="6">
-        <v>43988</v>
+        <v>44041</v>
       </c>
       <c r="J213" t="s">
         <v>132</v>
@@ -7255,16 +7246,16 @@
         <v>238</v>
       </c>
       <c r="F214">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="G214">
         <v>17.6</v>
       </c>
       <c r="H214">
-        <v>4.58</v>
+        <v>5.24</v>
       </c>
       <c r="I214" s="6">
-        <v>44008</v>
+        <v>43991</v>
       </c>
       <c r="J214" t="s">
         <v>132</v>
@@ -7274,19 +7265,19 @@
       <c r="A215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F215">
         <v>0.29</v>
       </c>
       <c r="G215">
-        <v>19.6</v>
+        <v>17.6</v>
       </c>
       <c r="H215">
-        <v>5.63</v>
+        <v>5.03</v>
       </c>
       <c r="I215" s="6">
-        <v>44009</v>
+        <v>43990</v>
       </c>
       <c r="J215" t="s">
         <v>132</v>
@@ -7296,39 +7287,41 @@
       <c r="A216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>0.49</v>
       </c>
       <c r="G216">
-        <v>18.8</v>
+        <v>17.6</v>
       </c>
       <c r="H216">
-        <v>18.8</v>
+        <v>8.55</v>
       </c>
       <c r="I216" s="6">
-        <v>44149</v>
+        <v>43988</v>
       </c>
       <c r="J216" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="217" spans="5:10">
+    <row r="217" customFormat="1" spans="1:10">
+      <c r="A217" s="2"/>
+      <c r="D217" s="2"/>
       <c r="E217" s="2" t="s">
         <v>240</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>0.26</v>
       </c>
       <c r="G217">
-        <v>18.8</v>
+        <v>17.6</v>
       </c>
       <c r="H217">
-        <v>18.8</v>
+        <v>4.58</v>
       </c>
       <c r="I217" s="6">
-        <v>44205</v>
+        <v>44008</v>
       </c>
       <c r="J217" t="s">
         <v>132</v>
@@ -7338,145 +7331,152 @@
       <c r="A218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F218">
-        <v>0.65</v>
+        <v>0.29</v>
       </c>
       <c r="G218">
-        <v>27.6</v>
+        <v>19.6</v>
       </c>
       <c r="H218">
-        <v>17.88</v>
+        <v>5.63</v>
       </c>
       <c r="I218" s="6">
-        <v>44111</v>
+        <v>44009</v>
       </c>
       <c r="J218" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="219" spans="5:10">
+    <row r="219" customFormat="1" spans="1:10">
+      <c r="A219" s="2"/>
+      <c r="D219" s="2"/>
       <c r="E219" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F219">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="G219">
-        <v>37.6</v>
+        <v>18.8</v>
       </c>
       <c r="H219">
-        <v>9.17</v>
+        <v>18.8</v>
       </c>
       <c r="I219" s="6">
-        <v>44139</v>
+        <v>44149</v>
       </c>
       <c r="J219" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="220" customFormat="1" spans="1:10">
-      <c r="A220" s="2"/>
-      <c r="D220" s="2"/>
+    <row r="220" spans="5:10">
       <c r="E220" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F220">
-        <v>0.23</v>
+        <v>1</v>
       </c>
       <c r="G220">
-        <v>37.6</v>
+        <v>18.8</v>
       </c>
       <c r="H220">
-        <v>8.72</v>
+        <v>18.8</v>
       </c>
       <c r="I220" s="6">
-        <v>44130</v>
+        <v>44205</v>
       </c>
       <c r="J220" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="221" customFormat="1" spans="1:9">
+    <row r="221" customFormat="1" spans="1:10">
       <c r="A221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2" t="s">
         <v>242</v>
       </c>
       <c r="F221">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="G221">
-        <v>12</v>
+        <v>27.6</v>
       </c>
       <c r="H221">
-        <v>12</v>
+        <v>17.88</v>
       </c>
       <c r="I221" s="6">
-        <v>44137</v>
-      </c>
-    </row>
-    <row r="222" spans="5:9">
+        <v>44111</v>
+      </c>
+      <c r="J221" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="222" spans="5:10">
       <c r="E222" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F222">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="G222">
-        <v>12</v>
+        <v>37.6</v>
       </c>
       <c r="H222">
-        <v>12</v>
+        <v>9.17</v>
       </c>
       <c r="I222" s="6">
-        <v>44142</v>
-      </c>
-    </row>
-    <row r="223" customFormat="1" spans="1:9">
+        <v>44139</v>
+      </c>
+      <c r="J222" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="223" customFormat="1" spans="1:10">
       <c r="A223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F223">
-        <v>0.75</v>
+        <v>0.23</v>
       </c>
       <c r="G223">
-        <v>12</v>
+        <v>37.6</v>
       </c>
       <c r="H223">
-        <v>9</v>
+        <v>8.72</v>
       </c>
       <c r="I223" s="6">
-        <v>44044</v>
+        <v>44130</v>
+      </c>
+      <c r="J223" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="224" customFormat="1" spans="1:9">
       <c r="A224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F224">
         <v>1</v>
       </c>
       <c r="G224">
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="H224">
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="I224" s="6">
-        <v>44072</v>
-      </c>
-    </row>
-    <row r="225" customFormat="1" spans="1:9">
-      <c r="A225" s="2"/>
-      <c r="D225" s="2"/>
+        <v>44137</v>
+      </c>
+    </row>
+    <row r="225" spans="5:9">
       <c r="E225" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F225">
         <v>1</v>
@@ -7488,33 +7488,33 @@
         <v>12</v>
       </c>
       <c r="I225" s="6">
-        <v>44024</v>
+        <v>44142</v>
       </c>
     </row>
     <row r="226" customFormat="1" spans="1:9">
       <c r="A226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F226">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G226">
-        <v>9.9</v>
+        <v>12</v>
       </c>
       <c r="H226">
-        <v>9.9</v>
+        <v>9</v>
       </c>
       <c r="I226" s="6">
-        <v>44168</v>
+        <v>44044</v>
       </c>
     </row>
     <row r="227" customFormat="1" spans="1:9">
       <c r="A227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F227">
         <v>1</v>
@@ -7526,209 +7526,243 @@
         <v>10.8</v>
       </c>
       <c r="I227" s="6">
-        <v>44064</v>
+        <v>44072</v>
       </c>
     </row>
     <row r="228" customFormat="1" spans="1:9">
       <c r="A228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F228">
         <v>1</v>
       </c>
       <c r="G228">
-        <v>9.9</v>
+        <v>12</v>
       </c>
       <c r="H228">
-        <v>9.9</v>
+        <v>12</v>
       </c>
       <c r="I228" s="6">
-        <v>44030</v>
+        <v>44024</v>
       </c>
     </row>
     <row r="229" customFormat="1" spans="1:9">
       <c r="A229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F229">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="G229">
-        <v>59.6</v>
+        <v>9.9</v>
       </c>
       <c r="H229">
-        <v>9.8</v>
+        <v>9.9</v>
       </c>
       <c r="I229" s="6">
-        <v>44159</v>
+        <v>44168</v>
       </c>
     </row>
     <row r="230" customFormat="1" spans="1:9">
       <c r="A230" s="2"/>
       <c r="D230" s="2"/>
-      <c r="E230" s="2"/>
-      <c r="I230" s="6"/>
-    </row>
-    <row r="231" customFormat="1" spans="1:10">
+      <c r="E230" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>10.8</v>
+      </c>
+      <c r="H230">
+        <v>10.8</v>
+      </c>
+      <c r="I230" s="6">
+        <v>44064</v>
+      </c>
+    </row>
+    <row r="231" customFormat="1" spans="1:9">
       <c r="A231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2" t="s">
         <v>244</v>
       </c>
       <c r="F231">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G231">
-        <v>79.6</v>
+        <v>9.9</v>
       </c>
       <c r="H231">
-        <v>12.1</v>
+        <v>9.9</v>
       </c>
       <c r="I231" s="6">
-        <v>44021</v>
-      </c>
-      <c r="J231" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="232" customFormat="1" spans="1:10">
+        <v>44030</v>
+      </c>
+    </row>
+    <row r="232" customFormat="1" spans="1:9">
       <c r="A232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F232">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="G232">
-        <v>79.6</v>
+        <v>59.6</v>
       </c>
       <c r="H232">
-        <v>7.48</v>
+        <v>9.8</v>
       </c>
       <c r="I232" s="6">
-        <v>44020</v>
-      </c>
-      <c r="J232" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="233" spans="5:9">
-      <c r="E233" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F233">
-        <v>0.2</v>
-      </c>
-      <c r="G233">
-        <v>55.6</v>
-      </c>
-      <c r="H233">
-        <v>11.12</v>
-      </c>
-      <c r="I233" s="6">
-        <v>44010</v>
-      </c>
-    </row>
-    <row r="234" spans="5:9">
+        <v>44159</v>
+      </c>
+    </row>
+    <row r="233" customFormat="1" spans="1:9">
+      <c r="A233" s="2"/>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
+      <c r="I233" s="6"/>
+    </row>
+    <row r="234" customFormat="1" spans="1:10">
+      <c r="A234" s="2"/>
+      <c r="D234" s="2"/>
       <c r="E234" s="2" t="s">
         <v>246</v>
       </c>
       <c r="F234">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="G234">
-        <v>19.96</v>
+        <v>79.6</v>
       </c>
       <c r="H234">
-        <v>4.91</v>
+        <v>12.1</v>
       </c>
       <c r="I234" s="6">
-        <v>44023</v>
-      </c>
-    </row>
-    <row r="235" customFormat="1" spans="1:9">
+        <v>44021</v>
+      </c>
+      <c r="J234" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="235" customFormat="1" spans="1:10">
       <c r="A235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2" t="s">
         <v>246</v>
       </c>
       <c r="F235">
+        <v>0.09</v>
+      </c>
+      <c r="G235">
+        <v>79.6</v>
+      </c>
+      <c r="H235">
+        <v>7.48</v>
+      </c>
+      <c r="I235" s="6">
+        <v>44020</v>
+      </c>
+      <c r="J235" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="236" spans="5:9">
+      <c r="E236" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F236">
+        <v>0.2</v>
+      </c>
+      <c r="G236">
+        <v>55.6</v>
+      </c>
+      <c r="H236">
+        <v>11.12</v>
+      </c>
+      <c r="I236" s="6">
+        <v>44010</v>
+      </c>
+    </row>
+    <row r="237" spans="5:9">
+      <c r="E237" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F237">
+        <v>0.25</v>
+      </c>
+      <c r="G237">
+        <v>19.96</v>
+      </c>
+      <c r="H237">
+        <v>4.91</v>
+      </c>
+      <c r="I237" s="6">
+        <v>44023</v>
+      </c>
+    </row>
+    <row r="238" customFormat="1" spans="1:9">
+      <c r="A238" s="2"/>
+      <c r="D238" s="2"/>
+      <c r="E238" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F238">
         <v>0.22</v>
       </c>
-      <c r="G235">
+      <c r="G238">
         <v>19.96</v>
       </c>
-      <c r="H235">
+      <c r="H238">
         <v>4.43</v>
       </c>
-      <c r="I235" s="6">
+      <c r="I238" s="6">
         <v>44022</v>
       </c>
     </row>
-    <row r="236" customFormat="1" spans="1:9">
-      <c r="A236" s="2"/>
-      <c r="D236" s="2"/>
-      <c r="E236" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F236">
+    <row r="239" customFormat="1" spans="1:9">
+      <c r="A239" s="2"/>
+      <c r="D239" s="2"/>
+      <c r="E239" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F239">
         <v>0.47</v>
       </c>
-      <c r="G236">
+      <c r="G239">
         <v>17.96</v>
       </c>
-      <c r="H236">
+      <c r="H239">
         <v>8.44</v>
       </c>
-      <c r="I236" s="6">
+      <c r="I239" s="6">
         <v>44104</v>
       </c>
     </row>
-    <row r="237" customFormat="1" spans="1:9">
-      <c r="A237" s="2"/>
-      <c r="D237" s="2"/>
-      <c r="E237" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F237">
+    <row r="240" customFormat="1" spans="1:9">
+      <c r="A240" s="2"/>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F240">
         <v>0.46</v>
       </c>
-      <c r="G237">
+      <c r="G240">
         <v>17.96</v>
       </c>
-      <c r="H237">
+      <c r="H240">
         <v>8.3</v>
       </c>
-      <c r="I237" s="6">
+      <c r="I240" s="6">
         <v>44065</v>
-      </c>
-    </row>
-    <row r="239" spans="9:9">
-      <c r="I239" s="6"/>
-    </row>
-    <row r="240" spans="9:9">
-      <c r="I240" s="6"/>
-    </row>
-    <row r="241" spans="5:9">
-      <c r="E241" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F241">
-        <v>1</v>
-      </c>
-      <c r="G241">
-        <v>8.9</v>
-      </c>
-      <c r="H241">
-        <v>6.9</v>
-      </c>
-      <c r="I241" s="6">
-        <v>44197</v>
       </c>
     </row>
     <row r="242" spans="9:9">
@@ -7737,339 +7771,373 @@
     <row r="243" spans="9:9">
       <c r="I243" s="6"/>
     </row>
-    <row r="244" spans="5:10">
+    <row r="244" spans="5:9">
       <c r="E244" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F244">
         <v>1</v>
       </c>
       <c r="G244">
-        <v>9.9</v>
+        <v>8.9</v>
       </c>
       <c r="H244">
-        <v>9.9</v>
+        <v>6.9</v>
       </c>
       <c r="I244" s="6">
-        <v>44206</v>
-      </c>
-      <c r="J244" t="s">
-        <v>174</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="245" spans="9:9">
       <c r="I245" s="6"/>
     </row>
-    <row r="246" spans="5:10">
-      <c r="E246" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F246">
-        <v>1</v>
-      </c>
-      <c r="G246">
+    <row r="246" spans="9:9">
+      <c r="I246" s="6"/>
+    </row>
+    <row r="247" spans="5:10">
+      <c r="E247" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+      <c r="G247">
+        <v>9.9</v>
+      </c>
+      <c r="H247">
+        <v>9.9</v>
+      </c>
+      <c r="I247" s="6">
+        <v>44206</v>
+      </c>
+      <c r="J247" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="248" spans="9:9">
+      <c r="I248" s="6"/>
+    </row>
+    <row r="249" spans="5:10">
+      <c r="E249" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="G249">
         <v>0.2</v>
       </c>
-      <c r="H246">
+      <c r="H249">
         <v>0.2</v>
       </c>
-      <c r="J246" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="247" spans="5:8">
-      <c r="E247" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F247">
-        <v>1</v>
-      </c>
-      <c r="G247">
+      <c r="J249" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="250" spans="5:8">
+      <c r="E250" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="G250">
         <v>17.8</v>
       </c>
-      <c r="H247">
+      <c r="H250">
         <v>16.8</v>
       </c>
     </row>
-    <row r="248" spans="5:9">
-      <c r="E248" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F248">
-        <v>1</v>
-      </c>
-      <c r="G248">
+    <row r="251" spans="5:9">
+      <c r="E251" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
+      <c r="G251">
         <v>6.9</v>
       </c>
-      <c r="H248">
+      <c r="H251">
         <v>6.9</v>
       </c>
-      <c r="I248" s="6">
+      <c r="I251" s="6">
         <v>44039</v>
       </c>
     </row>
-    <row r="249" spans="5:9">
-      <c r="E249" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F249">
-        <v>1</v>
-      </c>
-      <c r="G249">
+    <row r="252" spans="5:9">
+      <c r="E252" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="G252">
         <v>16.9</v>
       </c>
-      <c r="H249">
+      <c r="H252">
         <v>9.9</v>
       </c>
-      <c r="I249" s="6">
+      <c r="I252" s="6">
         <v>44039</v>
       </c>
     </row>
-    <row r="250" spans="5:9">
-      <c r="E250" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F250">
-        <v>1</v>
-      </c>
-      <c r="G250">
+    <row r="253" spans="5:9">
+      <c r="E253" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F253">
+        <v>1</v>
+      </c>
+      <c r="G253">
         <v>3.5</v>
       </c>
-      <c r="H250">
+      <c r="H253">
         <v>3.5</v>
       </c>
-      <c r="I250" s="6">
+      <c r="I253" s="6">
         <v>44023</v>
       </c>
     </row>
-    <row r="251" spans="5:12">
-      <c r="E251" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F251">
-        <v>1</v>
-      </c>
-      <c r="G251">
+    <row r="254" spans="5:12">
+      <c r="E254" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="G254">
         <v>10.9</v>
       </c>
-      <c r="H251">
+      <c r="H254">
         <v>10.9</v>
       </c>
-      <c r="I251" s="6">
+      <c r="I254" s="6">
         <v>44164</v>
       </c>
-      <c r="L251" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="252" spans="5:12">
-      <c r="E252" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F252">
-        <v>1</v>
-      </c>
-      <c r="G252">
+      <c r="L254" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="255" spans="5:12">
+      <c r="E255" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
         <v>2.9</v>
       </c>
-      <c r="H252">
+      <c r="H255">
         <v>2.9</v>
       </c>
-      <c r="I252" s="6">
+      <c r="I255" s="6">
         <v>44164</v>
       </c>
-      <c r="L252" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="253" spans="9:9">
-      <c r="I253" s="6"/>
-    </row>
-    <row r="254" spans="9:9">
-      <c r="I254" s="6"/>
-    </row>
-    <row r="255" spans="9:9">
-      <c r="I255" s="6"/>
-    </row>
-    <row r="257" spans="5:10">
-      <c r="E257" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F257">
-        <v>1</v>
-      </c>
-      <c r="G257">
+      <c r="L255" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="256" spans="9:9">
+      <c r="I256" s="6"/>
+    </row>
+    <row r="257" spans="9:9">
+      <c r="I257" s="6"/>
+    </row>
+    <row r="258" spans="9:9">
+      <c r="I258" s="6"/>
+    </row>
+    <row r="260" spans="5:10">
+      <c r="E260" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F260">
+        <v>1</v>
+      </c>
+      <c r="G260">
         <v>9.9</v>
       </c>
-      <c r="H257">
+      <c r="H260">
         <v>9.9</v>
       </c>
-      <c r="I257" s="6">
+      <c r="I260" s="6">
         <v>44000</v>
       </c>
-      <c r="J257" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="258" spans="5:10">
-      <c r="E258" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F258">
-        <v>1</v>
-      </c>
-      <c r="G258">
-        <v>6.9</v>
-      </c>
-      <c r="H258">
-        <v>6.9</v>
-      </c>
-      <c r="I258" s="6">
-        <v>44000</v>
-      </c>
-      <c r="J258" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="261" ht="27.6" spans="1:6">
-      <c r="A261" s="2" t="s">
+      <c r="J260" t="s">
         <v>263</v>
       </c>
+    </row>
+    <row r="261" spans="5:10">
       <c r="E261" s="2" t="s">
         <v>264</v>
       </c>
       <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>6.9</v>
+      </c>
+      <c r="H261">
+        <v>6.9</v>
+      </c>
+      <c r="I261" s="6">
+        <v>44000</v>
+      </c>
+      <c r="J261" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="264" ht="27.6" spans="1:6">
+      <c r="A264" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F264">
         <v>52</v>
       </c>
     </row>
-    <row r="262" ht="27.6" spans="5:6">
-      <c r="E262" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="F262">
+    <row r="265" ht="27.6" spans="5:6">
+      <c r="E265" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F265">
         <v>65.5</v>
       </c>
     </row>
-    <row r="267" ht="27.6" spans="1:8">
-      <c r="A267" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B267" t="s">
-        <v>267</v>
-      </c>
-      <c r="D267" s="2" t="s">
+    <row r="266" ht="27.6" spans="5:9">
+      <c r="E266" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E267" s="2" t="s">
+      <c r="F266">
+        <v>111</v>
+      </c>
+      <c r="I266" s="6">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="270" ht="27.6" spans="1:8">
+      <c r="A270" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F267">
-        <v>1</v>
-      </c>
-      <c r="H267">
+      <c r="B270" t="s">
+        <v>270</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F270">
+        <v>1</v>
+      </c>
+      <c r="H270">
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="5:8">
-      <c r="E268" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F268">
-        <v>1</v>
-      </c>
-      <c r="H268">
+    <row r="271" spans="5:8">
+      <c r="E271" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F271">
+        <v>1</v>
+      </c>
+      <c r="H271">
         <v>6</v>
       </c>
     </row>
-    <row r="271" ht="27.6" spans="4:10">
-      <c r="D271" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F271">
-        <v>1</v>
-      </c>
-      <c r="G271">
+    <row r="274" ht="27.6" spans="4:10">
+      <c r="D274" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F274">
+        <v>1</v>
+      </c>
+      <c r="G274">
         <v>5.1</v>
       </c>
-      <c r="H271">
+      <c r="H274">
         <v>5.1</v>
       </c>
-      <c r="I271" s="6">
+      <c r="I274" s="6">
         <v>44199</v>
       </c>
-      <c r="J271" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="273" ht="27.6" spans="1:11">
-      <c r="A273" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B273" t="s">
-        <v>274</v>
-      </c>
-      <c r="C273" t="s">
-        <v>275</v>
-      </c>
-      <c r="D273" s="2" t="s">
+      <c r="J274" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="276" ht="27.6" spans="1:11">
+      <c r="A276" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E273" s="2" t="s">
+      <c r="B276" t="s">
         <v>277</v>
       </c>
-      <c r="F273">
+      <c r="C276" t="s">
+        <v>278</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F276">
         <v>2</v>
       </c>
-      <c r="G273">
+      <c r="G276">
         <v>5.9</v>
       </c>
-      <c r="H273">
+      <c r="H276">
         <v>11.8</v>
       </c>
-      <c r="J273" t="s">
-        <v>278</v>
-      </c>
-      <c r="K273">
+      <c r="J276" t="s">
+        <v>281</v>
+      </c>
+      <c r="K276">
         <v>8.8</v>
       </c>
     </row>
-    <row r="274" spans="5:11">
-      <c r="E274" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F274">
+    <row r="277" spans="5:11">
+      <c r="E277" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F277">
         <v>1.83</v>
       </c>
-      <c r="G274">
+      <c r="G277">
         <v>10.36</v>
       </c>
-      <c r="H274">
+      <c r="H277">
         <v>19</v>
       </c>
-      <c r="J274" t="s">
-        <v>280</v>
-      </c>
-      <c r="K274">
+      <c r="J277" t="s">
+        <v>283</v>
+      </c>
+      <c r="K277">
         <v>4.76</v>
       </c>
     </row>
-    <row r="275" spans="5:10">
-      <c r="E275" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F275">
+    <row r="278" spans="5:10">
+      <c r="E278" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F278">
         <v>1.63</v>
       </c>
-      <c r="G275">
+      <c r="G278">
         <v>4.96</v>
       </c>
-      <c r="H275">
+      <c r="H278">
         <v>8.1</v>
       </c>
-      <c r="J275" t="s">
+      <c r="J278" t="s">
         <v>132</v>
       </c>
     </row>

--- a/自己的财务计划.xlsx
+++ b/自己的财务计划.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="292">
   <si>
     <t>时间</t>
   </si>
@@ -409,6 +409,9 @@
     <t>550ml和其正凉茶</t>
   </si>
   <si>
+    <t>500ml康师傅冰糖雪梨</t>
+  </si>
+  <si>
     <t>生菜</t>
   </si>
   <si>
@@ -803,6 +806,24 @@
   </si>
   <si>
     <t>他人买，筷子</t>
+  </si>
+  <si>
+    <t>写着：慈溪市..环西路(奥马亿)</t>
+  </si>
+  <si>
+    <t>男士休闲保暖内衣</t>
+  </si>
+  <si>
+    <t>北极绒，慈溪市百世荣服装有限公司</t>
+  </si>
+  <si>
+    <t>[C]舒感A5725男暖肤绒</t>
+  </si>
+  <si>
+    <t>裤子</t>
+  </si>
+  <si>
+    <t>大张超市旁边</t>
   </si>
   <si>
     <t>尼登香抗菌运动鞋垫</t>
@@ -880,10 +901,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -902,8 +923,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -916,14 +985,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -932,7 +993,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -947,29 +1008,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -984,19 +1030,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1015,32 +1053,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1055,7 +1076,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,55 +1130,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,13 +1160,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,61 +1178,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1223,19 +1202,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1251,9 +1272,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1273,17 +1335,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1311,51 +1367,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1364,133 +1385,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3378,14 +3399,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI278"/>
+  <dimension ref="A1:AI280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F261" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E267" sqref="E267"/>
+      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
@@ -3425,11 +3446,11 @@
         <v>2.33</v>
       </c>
       <c r="Q1">
-        <f>H36+H80</f>
+        <f>H37+H81</f>
         <v>5</v>
       </c>
       <c r="R1">
-        <f>H178</f>
+        <f>H179</f>
         <v>4.29</v>
       </c>
       <c r="T1">
@@ -3816,77 +3837,80 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="5:9">
+    <row r="20" spans="5:10">
       <c r="E20" s="2" t="s">
         <v>130</v>
       </c>
       <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.5</v>
+      </c>
+      <c r="H20">
+        <v>2.5</v>
+      </c>
+      <c r="I20" s="6">
+        <v>43849</v>
+      </c>
+      <c r="J20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9">
+      <c r="E21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21">
         <v>0.39</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>9.16</v>
       </c>
-      <c r="H20">
+      <c r="H21">
         <v>3.54</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I21" s="6">
         <v>44205</v>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="1:9">
-      <c r="A21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21">
-        <v>0.42</v>
-      </c>
-      <c r="G21">
-        <v>5.16</v>
-      </c>
-      <c r="H21">
-        <v>2.16</v>
-      </c>
-      <c r="I21" s="6">
-        <v>44167</v>
-      </c>
-    </row>
-    <row r="22" spans="5:10">
+    <row r="22" customFormat="1" spans="1:9">
+      <c r="A22" s="2"/>
+      <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
         <v>131</v>
       </c>
       <c r="F22">
+        <v>0.42</v>
+      </c>
+      <c r="G22">
+        <v>5.16</v>
+      </c>
+      <c r="H22">
+        <v>2.16</v>
+      </c>
+      <c r="I22" s="6">
+        <v>44167</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10">
+      <c r="E23" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23">
         <v>0.29</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>5.96</v>
       </c>
-      <c r="H22">
+      <c r="H23">
         <v>1.74</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I23" s="6">
         <v>44197</v>
       </c>
-      <c r="J22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="5:9">
-      <c r="E23" s="2" t="s">
+      <c r="J23" t="s">
         <v>133</v>
-      </c>
-      <c r="F23">
-        <v>1.86</v>
-      </c>
-      <c r="G23">
-        <v>2.56</v>
-      </c>
-      <c r="H23">
-        <v>4.77</v>
-      </c>
-      <c r="I23" s="6">
-        <v>44100</v>
       </c>
     </row>
     <row r="24" spans="5:9">
@@ -3894,170 +3918,165 @@
         <v>134</v>
       </c>
       <c r="F24">
+        <v>1.86</v>
+      </c>
+      <c r="G24">
+        <v>2.56</v>
+      </c>
+      <c r="H24">
+        <v>4.77</v>
+      </c>
+      <c r="I24" s="6">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9">
+      <c r="E25" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25">
         <v>0.48</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <v>5.16</v>
       </c>
-      <c r="H24">
+      <c r="H25">
         <v>2.46</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I25" s="6">
         <v>44036</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:10">
-      <c r="A25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F25">
-        <v>0.43</v>
-      </c>
-      <c r="G25">
-        <v>6.56</v>
-      </c>
-      <c r="H25">
-        <v>2.85</v>
-      </c>
-      <c r="I25" s="6">
-        <v>44111</v>
-      </c>
-      <c r="J25" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:10">
       <c r="A26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F26">
         <v>0.43</v>
       </c>
       <c r="G26">
-        <v>6.96</v>
+        <v>6.56</v>
       </c>
       <c r="H26">
-        <v>3.4</v>
+        <v>2.85</v>
       </c>
       <c r="I26" s="6">
-        <v>44021</v>
+        <v>44111</v>
       </c>
       <c r="J26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:10">
       <c r="A27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F27">
-        <v>0.56</v>
+        <v>0.43</v>
       </c>
       <c r="G27">
-        <v>5.96</v>
+        <v>6.96</v>
       </c>
       <c r="H27">
-        <v>3.34</v>
+        <v>3.4</v>
       </c>
       <c r="I27" s="6">
-        <v>44023</v>
+        <v>44021</v>
       </c>
       <c r="J27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:10">
       <c r="A28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F28">
-        <v>0.43</v>
+        <v>0.56</v>
       </c>
       <c r="G28">
         <v>5.96</v>
       </c>
       <c r="H28">
-        <v>2.56</v>
+        <v>3.34</v>
       </c>
       <c r="I28" s="6">
-        <v>44024</v>
+        <v>44023</v>
       </c>
       <c r="J28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:10">
       <c r="A29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F29">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="G29">
-        <v>5.16</v>
+        <v>5.96</v>
       </c>
       <c r="H29">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="I29" s="6">
-        <v>44029</v>
+        <v>44024</v>
       </c>
       <c r="J29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:10">
       <c r="A30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F30">
         <v>0.47</v>
       </c>
       <c r="G30">
-        <v>9.96</v>
+        <v>5.16</v>
       </c>
       <c r="H30">
-        <v>4.64</v>
+        <v>2.4</v>
       </c>
       <c r="I30" s="6">
-        <v>44065</v>
+        <v>44029</v>
       </c>
       <c r="J30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:10">
       <c r="A31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F31">
-        <v>0.53</v>
+        <v>0.47</v>
       </c>
       <c r="G31">
-        <v>6.96</v>
+        <v>9.96</v>
       </c>
       <c r="H31">
-        <v>3.66</v>
+        <v>4.64</v>
       </c>
       <c r="I31" s="6">
-        <v>44020</v>
+        <v>44065</v>
       </c>
       <c r="J31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:10">
@@ -4067,41 +4086,41 @@
         <v>135</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.53</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>6.96</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>3.66</v>
       </c>
       <c r="I32" s="6">
-        <v>44166</v>
+        <v>44020</v>
       </c>
       <c r="J32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:10">
       <c r="A33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F33">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>4.76</v>
+        <v>3</v>
       </c>
       <c r="H33">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="I33" s="6">
-        <v>44183</v>
+        <v>44166</v>
       </c>
       <c r="J33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:10">
@@ -4111,36 +4130,41 @@
         <v>136</v>
       </c>
       <c r="F34">
-        <v>2.78</v>
+        <v>0.76</v>
       </c>
       <c r="G34">
-        <v>1.8</v>
+        <v>4.76</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="I34" s="6">
-        <v>44024</v>
+        <v>44183</v>
       </c>
       <c r="J34" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="5:9">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:10">
+      <c r="A35" s="2"/>
+      <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
         <v>137</v>
       </c>
       <c r="F35">
-        <v>0.43</v>
+        <v>2.78</v>
       </c>
       <c r="G35">
-        <v>5.96</v>
+        <v>1.8</v>
       </c>
       <c r="H35">
-        <v>2.54</v>
+        <v>5</v>
       </c>
       <c r="I35" s="6">
-        <v>44197</v>
+        <v>44024</v>
+      </c>
+      <c r="J35" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="5:9">
@@ -4148,32 +4172,30 @@
         <v>138</v>
       </c>
       <c r="F36">
+        <v>0.43</v>
+      </c>
+      <c r="G36">
+        <v>5.96</v>
+      </c>
+      <c r="H36">
+        <v>2.54</v>
+      </c>
+      <c r="I36" s="6">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9">
+      <c r="E37" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F37">
         <v>0.29</v>
-      </c>
-      <c r="G36">
-        <v>3.96</v>
-      </c>
-      <c r="H36">
-        <v>1.13</v>
-      </c>
-      <c r="I36" s="6">
-        <v>44012</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" spans="1:9">
-      <c r="A37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F37">
-        <v>0.63</v>
       </c>
       <c r="G37">
         <v>3.96</v>
       </c>
       <c r="H37">
-        <v>2.48</v>
+        <v>1.13</v>
       </c>
       <c r="I37" s="6">
         <v>44012</v>
@@ -4183,57 +4205,57 @@
       <c r="A38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F38">
-        <v>0.31</v>
+        <v>0.63</v>
       </c>
       <c r="G38">
-        <v>5.16</v>
+        <v>3.96</v>
       </c>
       <c r="H38">
-        <v>1.59</v>
+        <v>2.48</v>
       </c>
       <c r="I38" s="6">
-        <v>44003</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:9">
       <c r="A39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F39">
-        <v>0.58</v>
+        <v>0.31</v>
       </c>
       <c r="G39">
-        <v>3.16</v>
+        <v>5.16</v>
       </c>
       <c r="H39">
-        <v>1.84</v>
+        <v>1.59</v>
       </c>
       <c r="I39" s="6">
-        <v>43997</v>
+        <v>44003</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:9">
       <c r="A40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F40">
-        <v>0.18</v>
+        <v>0.58</v>
       </c>
       <c r="G40">
-        <v>5.76</v>
+        <v>3.16</v>
       </c>
       <c r="H40">
-        <v>1.06</v>
+        <v>1.84</v>
       </c>
       <c r="I40" s="6">
-        <v>44004</v>
+        <v>43997</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:9">
@@ -4243,16 +4265,16 @@
         <v>139</v>
       </c>
       <c r="F41">
-        <v>0.54</v>
+        <v>0.18</v>
       </c>
       <c r="G41">
-        <v>5.96</v>
+        <v>5.76</v>
       </c>
       <c r="H41">
-        <v>3.22</v>
+        <v>1.06</v>
       </c>
       <c r="I41" s="6">
-        <v>44104</v>
+        <v>44004</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:9">
@@ -4262,16 +4284,16 @@
         <v>140</v>
       </c>
       <c r="F42">
-        <v>0.35</v>
+        <v>0.54</v>
       </c>
       <c r="G42">
-        <v>3.96</v>
+        <v>5.96</v>
       </c>
       <c r="H42">
-        <v>1.39</v>
+        <v>3.22</v>
       </c>
       <c r="I42" s="6">
-        <v>43992</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:9">
@@ -4281,190 +4303,187 @@
         <v>141</v>
       </c>
       <c r="F43">
-        <v>0.21</v>
+        <v>0.35</v>
       </c>
       <c r="G43">
-        <v>4.72</v>
+        <v>3.96</v>
       </c>
       <c r="H43">
-        <v>0.99</v>
+        <v>1.39</v>
       </c>
       <c r="I43" s="6">
-        <v>44010</v>
-      </c>
-    </row>
-    <row r="44" spans="5:10">
+        <v>43992</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:9">
+      <c r="A44" s="2"/>
+      <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F44">
+        <v>0.21</v>
+      </c>
+      <c r="G44">
+        <v>4.72</v>
+      </c>
+      <c r="H44">
+        <v>0.99</v>
+      </c>
+      <c r="I44" s="6">
+        <v>44010</v>
+      </c>
+    </row>
+    <row r="45" spans="5:10">
+      <c r="E45" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45">
         <v>0.62</v>
       </c>
-      <c r="G44">
+      <c r="G45">
         <v>7.36</v>
       </c>
-      <c r="H44">
+      <c r="H45">
         <v>4.53</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I45" s="6">
         <v>44122</v>
       </c>
-      <c r="J44" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="1:10">
-      <c r="A45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F45">
-        <v>0.75</v>
-      </c>
-      <c r="G45">
-        <v>7.96</v>
-      </c>
-      <c r="H45">
-        <v>5.97</v>
-      </c>
-      <c r="I45" s="6">
-        <v>44126</v>
-      </c>
       <c r="J45" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="1:10">
       <c r="A46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F46">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G46">
         <v>7.96</v>
       </c>
       <c r="H46">
-        <v>3.98</v>
+        <v>5.97</v>
       </c>
       <c r="I46" s="6">
-        <v>44102</v>
+        <v>44126</v>
       </c>
       <c r="J46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" customFormat="1" spans="1:10">
       <c r="A47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F47">
-        <v>0.61</v>
+        <v>0.5</v>
       </c>
       <c r="G47">
-        <v>7.56</v>
+        <v>7.96</v>
       </c>
       <c r="H47">
-        <v>4.63</v>
+        <v>3.98</v>
       </c>
       <c r="I47" s="6">
-        <v>44095</v>
+        <v>44102</v>
       </c>
       <c r="J47" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:10">
       <c r="A48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F48">
-        <v>0.34</v>
+        <v>0.61</v>
       </c>
       <c r="G48">
-        <v>5.76</v>
+        <v>7.56</v>
       </c>
       <c r="H48">
-        <v>1.97</v>
+        <v>4.63</v>
       </c>
       <c r="I48" s="6">
-        <v>44010</v>
+        <v>44095</v>
       </c>
       <c r="J48" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:10">
       <c r="A49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F49">
-        <v>1.32</v>
+        <v>0.34</v>
       </c>
       <c r="G49">
-        <v>5.56</v>
+        <v>5.76</v>
       </c>
       <c r="H49">
-        <v>7.34</v>
+        <v>1.97</v>
       </c>
       <c r="I49" s="6">
-        <v>44022</v>
+        <v>44010</v>
       </c>
       <c r="J49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:10">
       <c r="A50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F50">
-        <v>0.45</v>
+        <v>1.32</v>
       </c>
       <c r="G50">
-        <v>7.36</v>
+        <v>5.56</v>
       </c>
       <c r="H50">
-        <v>3.28</v>
+        <v>7.34</v>
       </c>
       <c r="I50" s="6">
-        <v>44165</v>
+        <v>44022</v>
       </c>
       <c r="J50" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" customFormat="1" spans="1:10">
       <c r="A51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F51">
-        <v>0.57</v>
+        <v>0.45</v>
       </c>
       <c r="G51">
-        <v>5.96</v>
+        <v>7.36</v>
       </c>
       <c r="H51">
-        <v>3.37</v>
+        <v>3.28</v>
       </c>
       <c r="I51" s="6">
-        <v>44019</v>
+        <v>44165</v>
       </c>
       <c r="J51" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="1:10">
@@ -4474,19 +4493,19 @@
         <v>143</v>
       </c>
       <c r="F52">
-        <v>1.42</v>
+        <v>0.57</v>
       </c>
       <c r="G52">
-        <v>7.16</v>
+        <v>5.96</v>
       </c>
       <c r="H52">
-        <v>10.14</v>
+        <v>3.37</v>
       </c>
       <c r="I52" s="6">
-        <v>44132</v>
+        <v>44019</v>
       </c>
       <c r="J52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" customFormat="1" spans="1:10">
@@ -4496,43 +4515,59 @@
         <v>144</v>
       </c>
       <c r="F53">
-        <v>0.42</v>
+        <v>1.42</v>
       </c>
       <c r="G53">
-        <v>5.2</v>
+        <v>7.16</v>
       </c>
       <c r="H53">
-        <v>2.19</v>
+        <v>10.14</v>
       </c>
       <c r="I53" s="6">
-        <v>44021</v>
+        <v>44132</v>
       </c>
       <c r="J53" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="54" spans="5:9">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:10">
+      <c r="A54" s="2"/>
+      <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
         <v>145</v>
       </c>
       <c r="F54">
+        <v>0.42</v>
+      </c>
+      <c r="G54">
+        <v>5.2</v>
+      </c>
+      <c r="H54">
+        <v>2.19</v>
+      </c>
+      <c r="I54" s="6">
+        <v>44021</v>
+      </c>
+      <c r="J54" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="5:9">
+      <c r="E55" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F55">
         <v>0.31</v>
       </c>
-      <c r="G54">
+      <c r="G55">
         <v>5.16</v>
       </c>
-      <c r="H54">
+      <c r="H55">
         <v>1.59</v>
       </c>
-      <c r="I54" s="6">
+      <c r="I55" s="6">
         <v>44003</v>
       </c>
-    </row>
-    <row r="55" customFormat="1" spans="1:9">
-      <c r="A55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="I55" s="6"/>
     </row>
     <row r="56" customFormat="1" spans="1:9">
       <c r="A56" s="2"/>
@@ -4546,167 +4581,156 @@
       <c r="E57" s="2"/>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="5:9">
-      <c r="E58" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F58">
-        <v>0.47</v>
-      </c>
-      <c r="G58">
-        <v>3.56</v>
-      </c>
-      <c r="H58">
-        <v>1.68</v>
-      </c>
-      <c r="I58" s="6">
-        <v>44043</v>
-      </c>
-    </row>
-    <row r="59" customFormat="1" spans="1:9">
-      <c r="A59" s="2"/>
-      <c r="D59" s="2"/>
+    <row r="58" customFormat="1" spans="1:9">
+      <c r="A58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="5:9">
       <c r="E59" s="2" t="s">
         <v>147</v>
       </c>
       <c r="F59">
-        <v>0.41</v>
+        <v>0.47</v>
       </c>
       <c r="G59">
-        <v>5.16</v>
+        <v>3.56</v>
       </c>
       <c r="H59">
-        <v>2.12</v>
+        <v>1.68</v>
       </c>
       <c r="I59" s="6">
-        <v>44046</v>
-      </c>
-    </row>
-    <row r="60" spans="5:9">
+        <v>44043</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" spans="1:9">
+      <c r="A60" s="2"/>
+      <c r="D60" s="2"/>
       <c r="E60" s="2" t="s">
         <v>148</v>
       </c>
       <c r="F60">
+        <v>0.41</v>
+      </c>
+      <c r="G60">
+        <v>5.16</v>
+      </c>
+      <c r="H60">
+        <v>2.12</v>
+      </c>
+      <c r="I60" s="6">
+        <v>44046</v>
+      </c>
+    </row>
+    <row r="61" spans="5:9">
+      <c r="E61" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F61">
         <v>0.14</v>
       </c>
-      <c r="G60">
+      <c r="G61">
         <v>5.78</v>
       </c>
-      <c r="H60">
+      <c r="H61">
         <v>0.78</v>
       </c>
-      <c r="I60" s="6">
+      <c r="I61" s="6">
         <v>44021</v>
       </c>
     </row>
-    <row r="61" customFormat="1" spans="1:9">
-      <c r="A61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F61">
-        <v>0.21</v>
-      </c>
-      <c r="G61">
-        <v>5.76</v>
-      </c>
-      <c r="H61">
-        <v>1.23</v>
-      </c>
-      <c r="I61" s="6">
-        <v>44020</v>
-      </c>
-    </row>
-    <row r="62" spans="5:9">
+    <row r="62" customFormat="1" spans="1:9">
+      <c r="A62" s="2"/>
+      <c r="D62" s="2"/>
       <c r="E62" s="2" t="s">
         <v>149</v>
       </c>
       <c r="F62">
+        <v>0.21</v>
+      </c>
+      <c r="G62">
+        <v>5.76</v>
+      </c>
+      <c r="H62">
+        <v>1.23</v>
+      </c>
+      <c r="I62" s="6">
+        <v>44020</v>
+      </c>
+    </row>
+    <row r="63" spans="5:9">
+      <c r="E63" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F63">
         <v>0.13</v>
       </c>
-      <c r="G62">
+      <c r="G63">
         <v>13.96</v>
       </c>
-      <c r="H62">
+      <c r="H63">
         <v>2.46</v>
       </c>
-      <c r="I62" s="6">
+      <c r="I63" s="6">
         <v>44043</v>
-      </c>
-    </row>
-    <row r="63" customFormat="1" spans="1:9">
-      <c r="A63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F63">
-        <v>0.24</v>
-      </c>
-      <c r="G63">
-        <v>5.96</v>
-      </c>
-      <c r="H63">
-        <v>1.44</v>
-      </c>
-      <c r="I63" s="6">
-        <v>44006</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:9">
       <c r="A64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F64">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="G64">
-        <v>11.96</v>
+        <v>5.96</v>
       </c>
       <c r="H64">
-        <v>2.32</v>
+        <v>1.44</v>
       </c>
       <c r="I64" s="6">
-        <v>44030</v>
+        <v>44006</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:9">
       <c r="A65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F65">
-        <v>0.26</v>
+        <v>0.19</v>
       </c>
       <c r="G65">
-        <v>9.96</v>
+        <v>11.96</v>
       </c>
       <c r="H65">
-        <v>2.59</v>
+        <v>2.32</v>
       </c>
       <c r="I65" s="6">
-        <v>44020</v>
-      </c>
-    </row>
-    <row r="66" spans="5:9">
+        <v>44030</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" spans="1:9">
+      <c r="A66" s="2"/>
+      <c r="D66" s="2"/>
       <c r="E66" s="2" t="s">
         <v>150</v>
       </c>
       <c r="F66">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="G66">
-        <v>19.6</v>
+        <v>9.96</v>
       </c>
       <c r="H66">
-        <v>5.88</v>
+        <v>2.59</v>
       </c>
       <c r="I66" s="6">
-        <v>43992</v>
+        <v>44020</v>
       </c>
     </row>
     <row r="67" spans="5:9">
@@ -4714,109 +4738,107 @@
         <v>151</v>
       </c>
       <c r="F67">
+        <v>0.3</v>
+      </c>
+      <c r="G67">
+        <v>19.6</v>
+      </c>
+      <c r="H67">
+        <v>5.88</v>
+      </c>
+      <c r="I67" s="6">
+        <v>43992</v>
+      </c>
+    </row>
+    <row r="68" spans="5:9">
+      <c r="E68" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F68">
         <v>0.19</v>
       </c>
-      <c r="G67">
+      <c r="G68">
         <v>13.96</v>
       </c>
-      <c r="H67">
+      <c r="H68">
         <v>2.6</v>
       </c>
-      <c r="I67" s="6">
+      <c r="I68" s="6">
         <v>44050</v>
       </c>
     </row>
-    <row r="68" customFormat="1" spans="1:9">
-      <c r="A68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F68">
-        <v>0.27</v>
-      </c>
-      <c r="G68">
-        <v>19.8</v>
-      </c>
-      <c r="H68">
-        <v>5.35</v>
-      </c>
-      <c r="I68" s="6">
-        <v>44075</v>
-      </c>
-    </row>
-    <row r="69" spans="5:9">
+    <row r="69" customFormat="1" spans="1:9">
+      <c r="A69" s="2"/>
+      <c r="D69" s="2"/>
       <c r="E69" s="2" t="s">
         <v>152</v>
       </c>
       <c r="F69">
+        <v>0.27</v>
+      </c>
+      <c r="G69">
+        <v>19.8</v>
+      </c>
+      <c r="H69">
+        <v>5.35</v>
+      </c>
+      <c r="I69" s="6">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="70" spans="5:9">
+      <c r="E70" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F70">
         <v>0.77</v>
-      </c>
-      <c r="G69">
-        <v>4.76</v>
-      </c>
-      <c r="H69">
-        <v>3.65</v>
-      </c>
-      <c r="I69" s="6">
-        <v>44050</v>
-      </c>
-    </row>
-    <row r="70" customFormat="1" spans="1:9">
-      <c r="A70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F70">
-        <v>0.37</v>
       </c>
       <c r="G70">
         <v>4.76</v>
       </c>
       <c r="H70">
-        <v>1.77</v>
+        <v>3.65</v>
       </c>
       <c r="I70" s="6">
-        <v>44008</v>
+        <v>44050</v>
       </c>
     </row>
     <row r="71" customFormat="1" spans="1:9">
       <c r="A71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F71">
-        <v>1.3</v>
+        <v>0.37</v>
       </c>
       <c r="G71">
-        <v>3.96</v>
+        <v>4.76</v>
       </c>
       <c r="H71">
-        <v>5.14</v>
+        <v>1.77</v>
       </c>
       <c r="I71" s="6">
-        <v>43988</v>
+        <v>44008</v>
       </c>
     </row>
     <row r="72" customFormat="1" spans="1:9">
       <c r="A72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F72">
-        <v>0.87</v>
+        <v>1.3</v>
       </c>
       <c r="G72">
         <v>3.96</v>
       </c>
       <c r="H72">
-        <v>3.46</v>
+        <v>5.14</v>
       </c>
       <c r="I72" s="6">
-        <v>44014</v>
+        <v>43988</v>
       </c>
     </row>
     <row r="73" customFormat="1" spans="1:9">
@@ -4826,57 +4848,59 @@
         <v>153</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="G73">
-        <v>2.47</v>
+        <v>3.96</v>
       </c>
       <c r="H73">
-        <v>2.47</v>
+        <v>3.46</v>
       </c>
       <c r="I73" s="6">
-        <v>44072</v>
+        <v>44014</v>
       </c>
     </row>
     <row r="74" customFormat="1" spans="1:9">
       <c r="A74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F74">
         <v>1</v>
       </c>
       <c r="G74">
-        <v>2.48</v>
+        <v>2.47</v>
       </c>
       <c r="H74">
-        <v>2.48</v>
+        <v>2.47</v>
       </c>
       <c r="I74" s="6">
-        <v>44090</v>
+        <v>44072</v>
       </c>
     </row>
     <row r="75" customFormat="1" spans="1:9">
       <c r="A75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F75">
         <v>1</v>
       </c>
       <c r="G75">
-        <v>3.24</v>
+        <v>2.48</v>
       </c>
       <c r="H75">
-        <v>3.24</v>
+        <v>2.48</v>
       </c>
       <c r="I75" s="6">
-        <v>43997</v>
-      </c>
-    </row>
-    <row r="76" spans="5:9">
+        <v>44090</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="1:9">
+      <c r="A76" s="2"/>
+      <c r="D76" s="2"/>
       <c r="E76" s="2" t="s">
         <v>154</v>
       </c>
@@ -4884,51 +4908,49 @@
         <v>1</v>
       </c>
       <c r="G76">
-        <v>10.8</v>
+        <v>3.24</v>
       </c>
       <c r="H76">
-        <v>10.8</v>
+        <v>3.24</v>
       </c>
       <c r="I76" s="6">
-        <v>44070</v>
-      </c>
-    </row>
-    <row r="77" customFormat="1" spans="1:9">
-      <c r="A77" s="2"/>
-      <c r="D77" s="2"/>
+        <v>43997</v>
+      </c>
+    </row>
+    <row r="77" spans="5:9">
       <c r="E77" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F77">
-        <v>0.56</v>
+        <v>1</v>
       </c>
       <c r="G77">
         <v>10.8</v>
       </c>
       <c r="H77">
-        <v>6</v>
+        <v>10.8</v>
       </c>
       <c r="I77" s="6">
-        <v>44073</v>
+        <v>44070</v>
       </c>
     </row>
     <row r="78" customFormat="1" spans="1:9">
       <c r="A78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F78">
-        <v>0.38</v>
+        <v>0.56</v>
       </c>
       <c r="G78">
-        <v>13</v>
+        <v>10.8</v>
       </c>
       <c r="H78">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I78" s="6">
-        <v>43982</v>
+        <v>44073</v>
       </c>
     </row>
     <row r="79" customFormat="1" spans="1:9">
@@ -4938,33 +4960,35 @@
         <v>155</v>
       </c>
       <c r="F79">
-        <v>0.27</v>
+        <v>0.38</v>
       </c>
       <c r="G79">
-        <v>5.56</v>
+        <v>13</v>
       </c>
       <c r="H79">
-        <v>1.52</v>
+        <v>5</v>
       </c>
       <c r="I79" s="6">
-        <v>44021</v>
-      </c>
-    </row>
-    <row r="80" spans="5:9">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" spans="1:9">
+      <c r="A80" s="2"/>
+      <c r="D80" s="2"/>
       <c r="E80" s="2" t="s">
         <v>156</v>
       </c>
       <c r="F80">
-        <v>0.53</v>
+        <v>0.27</v>
       </c>
       <c r="G80">
-        <v>7.36</v>
+        <v>5.56</v>
       </c>
       <c r="H80">
-        <v>3.87</v>
+        <v>1.52</v>
       </c>
       <c r="I80" s="6">
-        <v>44012</v>
+        <v>44021</v>
       </c>
     </row>
     <row r="81" spans="5:9">
@@ -4972,16 +4996,16 @@
         <v>157</v>
       </c>
       <c r="F81">
-        <v>0.58</v>
+        <v>0.53</v>
       </c>
       <c r="G81">
-        <v>5.96</v>
+        <v>7.36</v>
       </c>
       <c r="H81">
-        <v>3.43</v>
+        <v>3.87</v>
       </c>
       <c r="I81" s="6">
-        <v>44063</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="82" spans="5:9">
@@ -4989,16 +5013,16 @@
         <v>158</v>
       </c>
       <c r="F82">
-        <v>0.51</v>
+        <v>0.58</v>
       </c>
       <c r="G82">
-        <v>9.96</v>
+        <v>5.96</v>
       </c>
       <c r="H82">
-        <v>5.04</v>
+        <v>3.43</v>
       </c>
       <c r="I82" s="6">
-        <v>44033</v>
+        <v>44063</v>
       </c>
     </row>
     <row r="83" spans="5:9">
@@ -5006,16 +5030,16 @@
         <v>159</v>
       </c>
       <c r="F83">
-        <v>0.79</v>
+        <v>0.51</v>
       </c>
       <c r="G83">
-        <v>7.96</v>
+        <v>9.96</v>
       </c>
       <c r="H83">
-        <v>6.27</v>
+        <v>5.04</v>
       </c>
       <c r="I83" s="6">
-        <v>44126</v>
+        <v>44033</v>
       </c>
     </row>
     <row r="84" spans="5:9">
@@ -5023,52 +5047,52 @@
         <v>160</v>
       </c>
       <c r="F84">
-        <v>0.3</v>
+        <v>0.79</v>
       </c>
       <c r="G84">
-        <v>10</v>
+        <v>7.96</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>6.27</v>
       </c>
       <c r="I84" s="6">
-        <v>44073</v>
-      </c>
-    </row>
-    <row r="85" customFormat="1" spans="1:9">
-      <c r="A85" s="2"/>
-      <c r="D85" s="2"/>
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="85" spans="5:9">
       <c r="E85" s="2" t="s">
         <v>161</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="G85">
-        <v>9.96</v>
+        <v>10</v>
       </c>
       <c r="H85">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I85" s="6">
-        <v>44063</v>
-      </c>
-    </row>
-    <row r="86" spans="5:9">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="86" customFormat="1" spans="1:9">
+      <c r="A86" s="2"/>
+      <c r="D86" s="2"/>
       <c r="E86" s="2" t="s">
         <v>162</v>
       </c>
       <c r="F86">
-        <v>0.44</v>
+        <v>1</v>
       </c>
       <c r="G86">
         <v>9.96</v>
       </c>
       <c r="H86">
-        <v>4.4</v>
+        <v>10</v>
       </c>
       <c r="I86" s="6">
-        <v>44085</v>
+        <v>44063</v>
       </c>
     </row>
     <row r="87" spans="5:9">
@@ -5076,16 +5100,16 @@
         <v>163</v>
       </c>
       <c r="F87">
-        <v>0.25</v>
+        <v>0.44</v>
       </c>
       <c r="G87">
-        <v>19.6</v>
+        <v>9.96</v>
       </c>
       <c r="H87">
-        <v>4.98</v>
+        <v>4.4</v>
       </c>
       <c r="I87" s="6">
-        <v>44076</v>
+        <v>44085</v>
       </c>
     </row>
     <row r="88" spans="5:9">
@@ -5093,16 +5117,16 @@
         <v>164</v>
       </c>
       <c r="F88">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="G88">
-        <v>9.96</v>
+        <v>19.6</v>
       </c>
       <c r="H88">
-        <v>3.47</v>
+        <v>4.98</v>
       </c>
       <c r="I88" s="6">
-        <v>44075</v>
+        <v>44076</v>
       </c>
     </row>
     <row r="89" spans="5:9">
@@ -5110,16 +5134,16 @@
         <v>165</v>
       </c>
       <c r="F89">
-        <v>1.46</v>
+        <v>0.35</v>
       </c>
       <c r="G89">
-        <v>5.96</v>
+        <v>9.96</v>
       </c>
       <c r="H89">
-        <v>8.71</v>
+        <v>3.47</v>
       </c>
       <c r="I89" s="6">
-        <v>44115</v>
+        <v>44075</v>
       </c>
     </row>
     <row r="90" spans="5:9">
@@ -5127,54 +5151,52 @@
         <v>166</v>
       </c>
       <c r="F90">
+        <v>1.46</v>
+      </c>
+      <c r="G90">
+        <v>5.96</v>
+      </c>
+      <c r="H90">
+        <v>8.71</v>
+      </c>
+      <c r="I90" s="6">
+        <v>44115</v>
+      </c>
+    </row>
+    <row r="91" spans="5:9">
+      <c r="E91" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F91">
         <v>1.01</v>
       </c>
-      <c r="G90">
+      <c r="G91">
         <v>7.96</v>
       </c>
-      <c r="H90">
+      <c r="H91">
         <v>8.04</v>
       </c>
-      <c r="I90" s="6">
+      <c r="I91" s="6">
         <v>43982</v>
-      </c>
-    </row>
-    <row r="91" customFormat="1" spans="1:9">
-      <c r="A91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F91">
-        <v>0.24</v>
-      </c>
-      <c r="G91">
-        <v>4.76</v>
-      </c>
-      <c r="H91">
-        <v>1.15</v>
-      </c>
-      <c r="I91" s="6">
-        <v>44004</v>
       </c>
     </row>
     <row r="92" customFormat="1" spans="1:9">
       <c r="A92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F92">
-        <v>0.49</v>
+        <v>0.24</v>
       </c>
       <c r="G92">
-        <v>5.16</v>
+        <v>4.76</v>
       </c>
       <c r="H92">
-        <v>2.52</v>
+        <v>1.15</v>
       </c>
       <c r="I92" s="6">
-        <v>43994</v>
+        <v>44004</v>
       </c>
     </row>
     <row r="93" customFormat="1" spans="1:9">
@@ -5184,42 +5206,42 @@
         <v>167</v>
       </c>
       <c r="F93">
+        <v>0.49</v>
+      </c>
+      <c r="G93">
+        <v>5.16</v>
+      </c>
+      <c r="H93">
+        <v>2.52</v>
+      </c>
+      <c r="I93" s="6">
+        <v>43994</v>
+      </c>
+    </row>
+    <row r="94" customFormat="1" spans="1:9">
+      <c r="A94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F94">
         <v>0.7</v>
       </c>
-      <c r="G93">
+      <c r="G94">
         <v>5.96</v>
       </c>
-      <c r="H93">
+      <c r="H94">
         <v>4.15</v>
       </c>
-      <c r="I93" s="6">
+      <c r="I94" s="6">
         <v>44047</v>
       </c>
-    </row>
-    <row r="94" spans="9:9">
-      <c r="I94" s="6"/>
     </row>
     <row r="95" spans="9:9">
       <c r="I95" s="6"/>
     </row>
-    <row r="96" customFormat="1" spans="1:9">
-      <c r="A96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F96">
-        <v>0.04</v>
-      </c>
-      <c r="G96">
-        <v>47.6</v>
-      </c>
-      <c r="H96">
-        <v>2</v>
-      </c>
-      <c r="I96" s="6">
-        <v>44183</v>
-      </c>
+    <row r="96" spans="9:9">
+      <c r="I96" s="6"/>
     </row>
     <row r="97" customFormat="1" spans="1:9">
       <c r="A97" s="2"/>
@@ -5227,17 +5249,17 @@
       <c r="E97" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F97" s="7">
-        <v>0.13</v>
+      <c r="F97">
+        <v>0.04</v>
       </c>
       <c r="G97">
-        <v>19.96</v>
+        <v>47.6</v>
       </c>
       <c r="H97">
-        <v>2.59</v>
+        <v>2</v>
       </c>
       <c r="I97" s="6">
-        <v>44169</v>
+        <v>44183</v>
       </c>
     </row>
     <row r="98" customFormat="1" spans="1:9">
@@ -5247,71 +5269,71 @@
         <v>170</v>
       </c>
       <c r="F98" s="7">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="G98">
-        <v>1.32</v>
+        <v>19.96</v>
       </c>
       <c r="H98">
-        <v>1.32</v>
+        <v>2.59</v>
       </c>
       <c r="I98" s="6">
-        <v>44021</v>
-      </c>
-    </row>
-    <row r="99" spans="5:9">
+        <v>44169</v>
+      </c>
+    </row>
+    <row r="99" customFormat="1" spans="1:9">
+      <c r="A99" s="2"/>
+      <c r="D99" s="2"/>
       <c r="E99" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F99">
-        <v>0.14</v>
+      <c r="F99" s="7">
+        <v>1</v>
       </c>
       <c r="G99">
-        <v>9.96</v>
+        <v>1.32</v>
       </c>
       <c r="H99">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="I99" s="6">
-        <v>44022</v>
-      </c>
-    </row>
-    <row r="100" customFormat="1" spans="1:9">
-      <c r="A100" s="2"/>
-      <c r="D100" s="2"/>
+        <v>44021</v>
+      </c>
+    </row>
+    <row r="100" spans="5:9">
       <c r="E100" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F100" s="7">
-        <v>1</v>
+      <c r="F100">
+        <v>0.14</v>
       </c>
       <c r="G100">
-        <v>1.27</v>
+        <v>9.96</v>
       </c>
       <c r="H100">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="I100" s="6">
-        <v>44095</v>
+        <v>44022</v>
       </c>
     </row>
     <row r="101" customFormat="1" spans="1:9">
       <c r="A101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F101" s="7">
         <v>1</v>
       </c>
       <c r="G101">
-        <v>1.73</v>
+        <v>1.27</v>
       </c>
       <c r="H101">
-        <v>1.73</v>
+        <v>1.27</v>
       </c>
       <c r="I101" s="6">
-        <v>44010</v>
+        <v>44095</v>
       </c>
     </row>
     <row r="102" customFormat="1" spans="1:9">
@@ -5321,75 +5343,75 @@
         <v>173</v>
       </c>
       <c r="F102" s="7">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="G102">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>1.73</v>
       </c>
       <c r="I102" s="6">
-        <v>44095</v>
-      </c>
-    </row>
-    <row r="103" spans="5:10">
+        <v>44010</v>
+      </c>
+    </row>
+    <row r="103" customFormat="1" spans="1:9">
+      <c r="A103" s="2"/>
+      <c r="D103" s="2"/>
       <c r="E103" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F103">
-        <v>1</v>
+      <c r="F103" s="7">
+        <v>0.67</v>
       </c>
       <c r="G103">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H103">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="I103" s="6">
-        <v>44167</v>
-      </c>
-      <c r="J103" t="s">
-        <v>175</v>
+        <v>44095</v>
       </c>
     </row>
     <row r="104" spans="5:10">
       <c r="E104" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F104">
         <v>1</v>
       </c>
       <c r="G104">
+        <v>2.7</v>
+      </c>
+      <c r="H104">
+        <v>2.7</v>
+      </c>
+      <c r="I104" s="6">
+        <v>44167</v>
+      </c>
+      <c r="J104" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="105" spans="5:10">
+      <c r="E105" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105">
         <v>3.5</v>
       </c>
-      <c r="H104">
+      <c r="H105">
         <v>3.5</v>
       </c>
-      <c r="I104" s="6">
+      <c r="I105" s="6">
         <v>44197</v>
       </c>
-      <c r="J104" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="105" customFormat="1" spans="1:9">
-      <c r="A105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2" t="s">
+      <c r="J105" t="s">
         <v>176</v>
-      </c>
-      <c r="F105">
-        <v>1</v>
-      </c>
-      <c r="G105">
-        <v>6</v>
-      </c>
-      <c r="H105">
-        <v>6</v>
-      </c>
-      <c r="I105" s="6">
-        <v>43994</v>
       </c>
     </row>
     <row r="106" customFormat="1" spans="1:9">
@@ -5398,39 +5420,36 @@
       <c r="E106" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F106" s="7">
-        <v>0.8</v>
+      <c r="F106">
+        <v>1</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H106">
-        <v>0.8</v>
+        <v>6</v>
       </c>
       <c r="I106" s="6">
-        <v>44095</v>
-      </c>
-    </row>
-    <row r="107" customFormat="1" spans="1:10">
+        <v>43994</v>
+      </c>
+    </row>
+    <row r="107" customFormat="1" spans="1:9">
       <c r="A107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F107" s="7">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G107">
         <v>1</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I107" s="6">
-        <v>44019</v>
-      </c>
-      <c r="J107" t="s">
-        <v>132</v>
+        <v>44095</v>
       </c>
     </row>
     <row r="108" customFormat="1" spans="1:10">
@@ -5440,38 +5459,41 @@
         <v>178</v>
       </c>
       <c r="F108" s="7">
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="G108">
-        <v>5.16</v>
+        <v>1</v>
       </c>
       <c r="H108">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="I108" s="6">
-        <v>44030</v>
+        <v>44019</v>
       </c>
       <c r="J108" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="109" customFormat="1" spans="1:9">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" customFormat="1" spans="1:10">
       <c r="A109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2" t="s">
         <v>179</v>
       </c>
       <c r="F109" s="7">
-        <v>0.37</v>
+        <v>0.21</v>
       </c>
       <c r="G109">
-        <v>4.36</v>
+        <v>5.16</v>
       </c>
       <c r="H109">
-        <v>1.6</v>
+        <v>1.09</v>
       </c>
       <c r="I109" s="6">
-        <v>44166</v>
+        <v>44030</v>
+      </c>
+      <c r="J109" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="110" customFormat="1" spans="1:9">
@@ -5481,16 +5503,16 @@
         <v>180</v>
       </c>
       <c r="F110" s="7">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="G110">
-        <v>3.5</v>
+        <v>4.36</v>
       </c>
       <c r="H110">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="I110" s="6">
-        <v>44111</v>
+        <v>44166</v>
       </c>
     </row>
     <row r="111" customFormat="1" spans="1:9">
@@ -5500,16 +5522,16 @@
         <v>181</v>
       </c>
       <c r="F111" s="7">
-        <v>0.23</v>
+        <v>1</v>
       </c>
       <c r="G111">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="H111">
-        <v>2.57</v>
+        <v>3.5</v>
       </c>
       <c r="I111" s="6">
-        <v>44167</v>
+        <v>44111</v>
       </c>
     </row>
     <row r="112" customFormat="1" spans="1:9">
@@ -5519,55 +5541,55 @@
         <v>182</v>
       </c>
       <c r="F112" s="7">
-        <v>1</v>
+        <v>0.23</v>
       </c>
       <c r="G112">
-        <v>0.4</v>
+        <v>11</v>
       </c>
       <c r="H112">
-        <v>0.4</v>
+        <v>2.57</v>
       </c>
       <c r="I112" s="6">
-        <v>44021</v>
-      </c>
-    </row>
-    <row r="113" spans="5:9">
+        <v>44167</v>
+      </c>
+    </row>
+    <row r="113" customFormat="1" spans="1:9">
+      <c r="A113" s="2"/>
+      <c r="D113" s="2"/>
       <c r="E113" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="7">
         <v>1</v>
       </c>
       <c r="G113">
-        <v>14.5</v>
+        <v>0.4</v>
       </c>
       <c r="H113">
-        <v>12.8</v>
+        <v>0.4</v>
       </c>
       <c r="I113" s="6">
-        <v>44096</v>
-      </c>
-    </row>
-    <row r="114" customFormat="1" ht="27.6" spans="1:9">
-      <c r="A114" s="2"/>
-      <c r="D114" s="2"/>
+        <v>44021</v>
+      </c>
+    </row>
+    <row r="114" spans="5:9">
       <c r="E114" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="F114" s="7">
+      <c r="F114">
         <v>1</v>
       </c>
       <c r="G114">
-        <v>6.9</v>
+        <v>14.5</v>
       </c>
       <c r="H114">
-        <v>6.9</v>
+        <v>12.8</v>
       </c>
       <c r="I114" s="6">
-        <v>44166</v>
-      </c>
-    </row>
-    <row r="115" customFormat="1" spans="1:12">
+        <v>44096</v>
+      </c>
+    </row>
+    <row r="115" customFormat="1" ht="27.6" spans="1:9">
       <c r="A115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2" t="s">
@@ -5577,35 +5599,35 @@
         <v>1</v>
       </c>
       <c r="G115">
-        <v>7.9</v>
+        <v>6.9</v>
       </c>
       <c r="H115">
-        <v>7.9</v>
+        <v>6.9</v>
       </c>
       <c r="I115" s="6">
-        <v>44164</v>
-      </c>
-      <c r="L115" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="116" customFormat="1" spans="1:9">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="116" customFormat="1" spans="1:12">
       <c r="A116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F116" s="7">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>7.9</v>
+      </c>
+      <c r="H116">
+        <v>7.9</v>
+      </c>
+      <c r="I116" s="6">
+        <v>44164</v>
+      </c>
+      <c r="L116" t="s">
         <v>187</v>
-      </c>
-      <c r="F116" s="7">
-        <v>1</v>
-      </c>
-      <c r="G116">
-        <v>7.2</v>
-      </c>
-      <c r="H116">
-        <v>7.2</v>
-      </c>
-      <c r="I116" s="6">
-        <v>44183</v>
       </c>
     </row>
     <row r="117" customFormat="1" spans="1:9">
@@ -5618,80 +5640,80 @@
         <v>1</v>
       </c>
       <c r="G117">
-        <v>3.48</v>
+        <v>7.2</v>
       </c>
       <c r="H117">
-        <v>3.48</v>
+        <v>7.2</v>
       </c>
       <c r="I117" s="6">
-        <v>43849</v>
+        <v>44183</v>
       </c>
     </row>
     <row r="118" customFormat="1" spans="1:9">
       <c r="A118" s="2"/>
       <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="7"/>
-      <c r="I118" s="6"/>
-    </row>
-    <row r="119" spans="5:9">
-      <c r="E119" s="2" t="s">
+      <c r="E118" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F119">
+      <c r="F118" s="7">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>3.48</v>
+      </c>
+      <c r="H118">
+        <v>3.48</v>
+      </c>
+      <c r="I118" s="6">
+        <v>43849</v>
+      </c>
+    </row>
+    <row r="119" customFormat="1" spans="1:9">
+      <c r="A119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="7"/>
+      <c r="I119" s="6"/>
+    </row>
+    <row r="120" spans="5:9">
+      <c r="E120" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F120">
         <v>0.63</v>
-      </c>
-      <c r="G119">
-        <v>15.6</v>
-      </c>
-      <c r="H119">
-        <v>9.89</v>
-      </c>
-      <c r="I119" s="6">
-        <v>44007</v>
-      </c>
-    </row>
-    <row r="120" customFormat="1" spans="1:9">
-      <c r="A120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F120">
-        <v>0.12</v>
       </c>
       <c r="G120">
         <v>15.6</v>
       </c>
       <c r="H120">
-        <v>1.87</v>
+        <v>9.89</v>
       </c>
       <c r="I120" s="6">
-        <v>44006</v>
-      </c>
-    </row>
-    <row r="121" spans="5:9">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="121" customFormat="1" spans="1:9">
+      <c r="A121" s="2"/>
+      <c r="D121" s="2"/>
       <c r="E121" s="2" t="s">
         <v>190</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G121">
-        <v>11.8</v>
+        <v>15.6</v>
       </c>
       <c r="H121">
-        <v>8.9</v>
+        <v>1.87</v>
       </c>
       <c r="I121" s="6">
-        <v>44007</v>
-      </c>
-    </row>
-    <row r="122" customFormat="1" spans="1:9">
-      <c r="A122" s="2"/>
-      <c r="D122" s="2"/>
+        <v>44006</v>
+      </c>
+    </row>
+    <row r="122" spans="5:9">
       <c r="E122" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -5700,10 +5722,10 @@
         <v>11.8</v>
       </c>
       <c r="H122">
-        <v>7.9</v>
+        <v>8.9</v>
       </c>
       <c r="I122" s="6">
-        <v>44009</v>
+        <v>44007</v>
       </c>
     </row>
     <row r="123" customFormat="1" spans="1:9">
@@ -5713,16 +5735,16 @@
         <v>191</v>
       </c>
       <c r="F123">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="G123">
-        <v>37.8</v>
+        <v>11.8</v>
       </c>
       <c r="H123">
-        <v>12.34</v>
+        <v>7.9</v>
       </c>
       <c r="I123" s="6">
-        <v>44008</v>
+        <v>44009</v>
       </c>
     </row>
     <row r="124" customFormat="1" spans="1:9">
@@ -5732,16 +5754,16 @@
         <v>192</v>
       </c>
       <c r="F124">
-        <v>3</v>
+        <v>0.57</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>37.8</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>12.34</v>
       </c>
       <c r="I124" s="6">
-        <v>44009</v>
+        <v>44008</v>
       </c>
     </row>
     <row r="125" customFormat="1" spans="1:9">
@@ -5751,64 +5773,64 @@
         <v>193</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>3</v>
+      </c>
+      <c r="I125" s="6">
+        <v>44009</v>
+      </c>
+    </row>
+    <row r="126" customFormat="1" spans="1:9">
+      <c r="A126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
         <v>5.8</v>
       </c>
-      <c r="H125">
+      <c r="H126">
         <v>4.8</v>
       </c>
-      <c r="I125" s="6">
+      <c r="I126" s="6">
         <v>44085</v>
       </c>
-    </row>
-    <row r="126" spans="9:9">
-      <c r="I126" s="6"/>
     </row>
     <row r="127" spans="9:9">
       <c r="I127" s="6"/>
     </row>
-    <row r="128" spans="5:12">
-      <c r="E128" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F128">
-        <v>1</v>
-      </c>
-      <c r="G128">
+    <row r="128" spans="9:9">
+      <c r="I128" s="6"/>
+    </row>
+    <row r="129" spans="5:12">
+      <c r="E129" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
         <v>10.8</v>
       </c>
-      <c r="H128">
+      <c r="H129">
         <v>10.8</v>
-      </c>
-      <c r="I128" s="6">
-        <v>44166</v>
-      </c>
-      <c r="J128" t="s">
-        <v>195</v>
-      </c>
-      <c r="L128" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="129" customFormat="1" spans="1:9">
-      <c r="A129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F129">
-        <v>0.31</v>
-      </c>
-      <c r="G129">
-        <v>21.6</v>
-      </c>
-      <c r="H129">
-        <v>6.65</v>
       </c>
       <c r="I129" s="6">
         <v>44166</v>
+      </c>
+      <c r="J129" t="s">
+        <v>196</v>
+      </c>
+      <c r="L129" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="130" customFormat="1" spans="1:9">
@@ -5818,63 +5840,62 @@
         <v>198</v>
       </c>
       <c r="F130">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="G130">
-        <v>35.6</v>
+        <v>21.6</v>
       </c>
       <c r="H130">
-        <v>8.76</v>
+        <v>6.65</v>
       </c>
       <c r="I130" s="6">
-        <v>44169</v>
-      </c>
-    </row>
-    <row r="131" spans="5:10">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="131" customFormat="1" spans="1:9">
+      <c r="A131" s="2"/>
+      <c r="D131" s="2"/>
       <c r="E131" s="2" t="s">
         <v>199</v>
       </c>
       <c r="F131">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="G131">
-        <v>31.8</v>
+        <v>35.6</v>
       </c>
       <c r="H131">
-        <v>9.79</v>
+        <v>8.76</v>
       </c>
       <c r="I131" s="6">
-        <v>44186</v>
-      </c>
-      <c r="J131" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="132" customFormat="1" spans="1:10">
-      <c r="A132" s="2"/>
-      <c r="D132" s="2"/>
+        <v>44169</v>
+      </c>
+    </row>
+    <row r="132" spans="5:10">
       <c r="E132" s="2" t="s">
         <v>200</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>0.31</v>
       </c>
       <c r="G132">
-        <v>21.9</v>
+        <v>31.8</v>
       </c>
       <c r="H132">
-        <v>13.8</v>
+        <v>9.79</v>
       </c>
       <c r="I132" s="6">
-        <v>44137</v>
+        <v>44186</v>
       </c>
       <c r="J132" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="133" spans="5:10">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="133" customFormat="1" spans="1:10">
+      <c r="A133" s="2"/>
+      <c r="D133" s="2"/>
       <c r="E133" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -5883,20 +5904,18 @@
         <v>21.9</v>
       </c>
       <c r="H133">
-        <v>15.8</v>
+        <v>13.8</v>
       </c>
       <c r="I133" s="6">
-        <v>44173</v>
+        <v>44137</v>
       </c>
       <c r="J133" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="134" customFormat="1" spans="1:10">
-      <c r="A134" s="2"/>
-      <c r="D134" s="2"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="134" spans="5:10">
       <c r="E134" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -5908,17 +5927,17 @@
         <v>15.8</v>
       </c>
       <c r="I134" s="6">
-        <v>44037</v>
+        <v>44173</v>
       </c>
       <c r="J134" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="135" customFormat="1" spans="1:10">
       <c r="A135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F135">
         <v>1</v>
@@ -5927,20 +5946,20 @@
         <v>21.9</v>
       </c>
       <c r="H135">
-        <v>14.8</v>
+        <v>15.8</v>
       </c>
       <c r="I135" s="6">
-        <v>44103</v>
+        <v>44037</v>
       </c>
       <c r="J135" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="136" customFormat="1" spans="1:10">
       <c r="A136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -5952,10 +5971,10 @@
         <v>14.8</v>
       </c>
       <c r="I136" s="6">
-        <v>44122</v>
+        <v>44103</v>
       </c>
       <c r="J136" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="137" customFormat="1" spans="1:10">
@@ -5971,13 +5990,13 @@
         <v>21.9</v>
       </c>
       <c r="H137">
-        <v>12.8</v>
+        <v>14.8</v>
       </c>
       <c r="I137" s="6">
-        <v>44164</v>
+        <v>44122</v>
       </c>
       <c r="J137" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="138" customFormat="1" spans="1:10">
@@ -5990,19 +6009,21 @@
         <v>1</v>
       </c>
       <c r="G138">
-        <v>9.9</v>
+        <v>21.9</v>
       </c>
       <c r="H138">
-        <v>7.8</v>
+        <v>12.8</v>
       </c>
       <c r="I138" s="6">
-        <v>44033</v>
+        <v>44164</v>
       </c>
       <c r="J138" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="139" spans="5:10">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="139" customFormat="1" spans="1:10">
+      <c r="A139" s="2"/>
+      <c r="D139" s="2"/>
       <c r="E139" s="2" t="s">
         <v>203</v>
       </c>
@@ -6010,38 +6031,36 @@
         <v>1</v>
       </c>
       <c r="G139">
+        <v>9.9</v>
+      </c>
+      <c r="H139">
+        <v>7.8</v>
+      </c>
+      <c r="I139" s="6">
+        <v>44033</v>
+      </c>
+      <c r="J139" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="140" spans="5:10">
+      <c r="E140" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140">
         <v>15.66</v>
       </c>
-      <c r="H139">
+      <c r="H140">
         <v>15.66</v>
       </c>
-      <c r="I139" s="6">
+      <c r="I140" s="6">
         <v>44186</v>
       </c>
-      <c r="J139" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="140" customFormat="1" spans="1:10">
-      <c r="A140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F140">
-        <v>1</v>
-      </c>
-      <c r="G140">
-        <v>16.17</v>
-      </c>
-      <c r="H140">
-        <v>16.17</v>
-      </c>
-      <c r="I140" s="6">
-        <v>44045</v>
-      </c>
       <c r="J140" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="141" customFormat="1" spans="1:10">
@@ -6051,44 +6070,46 @@
         <v>204</v>
       </c>
       <c r="F141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G141">
-        <v>6.9</v>
+        <v>16.17</v>
       </c>
       <c r="H141">
-        <v>7.93</v>
+        <v>16.17</v>
       </c>
       <c r="I141" s="6">
-        <v>44164</v>
+        <v>44045</v>
       </c>
       <c r="J141" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="142" customFormat="1" spans="1:10">
       <c r="A142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G142">
         <v>6.9</v>
       </c>
       <c r="H142">
-        <v>3.97</v>
+        <v>7.93</v>
       </c>
       <c r="I142" s="6">
         <v>44164</v>
       </c>
       <c r="J142" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="143" spans="5:10">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="143" customFormat="1" spans="1:10">
+      <c r="A143" s="2"/>
+      <c r="D143" s="2"/>
       <c r="E143" s="2" t="s">
         <v>205</v>
       </c>
@@ -6096,41 +6117,44 @@
         <v>1</v>
       </c>
       <c r="G143">
+        <v>6.9</v>
+      </c>
+      <c r="H143">
+        <v>3.97</v>
+      </c>
+      <c r="I143" s="6">
+        <v>44164</v>
+      </c>
+      <c r="J143" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="144" spans="5:10">
+      <c r="E144" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
         <v>12.9</v>
       </c>
-      <c r="H143">
+      <c r="H144">
         <v>9.5</v>
       </c>
-      <c r="I143" s="6">
+      <c r="I144" s="6">
         <v>44186</v>
       </c>
-      <c r="J143" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="144" spans="9:9">
-      <c r="I144" s="6"/>
-    </row>
-    <row r="145" customFormat="1" spans="1:9">
-      <c r="A145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F145">
-        <v>1</v>
-      </c>
-      <c r="G145">
-        <v>2.5</v>
-      </c>
-      <c r="H145">
-        <v>2.5</v>
-      </c>
-      <c r="I145" s="6">
-        <v>44085</v>
-      </c>
-    </row>
-    <row r="146" spans="5:9">
+      <c r="J144" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="145" spans="9:9">
+      <c r="I145" s="6"/>
+    </row>
+    <row r="146" customFormat="1" spans="1:9">
+      <c r="A146" s="2"/>
+      <c r="D146" s="2"/>
       <c r="E146" s="2" t="s">
         <v>207</v>
       </c>
@@ -6138,49 +6162,49 @@
         <v>1</v>
       </c>
       <c r="G146">
-        <v>2.51</v>
+        <v>2.5</v>
       </c>
       <c r="H146">
-        <v>2.51</v>
+        <v>2.5</v>
       </c>
       <c r="I146" s="6">
-        <v>44092</v>
-      </c>
-    </row>
-    <row r="147" customFormat="1" spans="1:9">
-      <c r="A147" s="2"/>
-      <c r="D147" s="2"/>
+        <v>44085</v>
+      </c>
+    </row>
+    <row r="147" spans="5:9">
       <c r="E147" s="2" t="s">
         <v>208</v>
       </c>
       <c r="F147">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="G147">
-        <v>7.36</v>
+        <v>2.51</v>
       </c>
       <c r="H147">
-        <v>3.28</v>
+        <v>2.51</v>
       </c>
       <c r="I147" s="6">
-        <v>44165</v>
-      </c>
-    </row>
-    <row r="148" spans="5:9">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="148" customFormat="1" spans="1:9">
+      <c r="A148" s="2"/>
+      <c r="D148" s="2"/>
       <c r="E148" s="2" t="s">
         <v>209</v>
       </c>
       <c r="F148">
-        <v>0.28</v>
+        <v>0.45</v>
       </c>
       <c r="G148">
-        <v>13.96</v>
+        <v>7.36</v>
       </c>
       <c r="H148">
-        <v>3.96</v>
+        <v>3.28</v>
       </c>
       <c r="I148" s="6">
-        <v>44095</v>
+        <v>44165</v>
       </c>
     </row>
     <row r="149" spans="5:9">
@@ -6188,36 +6212,33 @@
         <v>210</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0.28</v>
       </c>
       <c r="G149">
-        <v>11.71</v>
+        <v>13.96</v>
       </c>
       <c r="H149">
-        <v>11.71</v>
+        <v>3.96</v>
       </c>
       <c r="I149" s="6">
-        <v>44042</v>
-      </c>
-    </row>
-    <row r="150" spans="5:10">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="150" spans="5:9">
       <c r="E150" s="2" t="s">
         <v>211</v>
       </c>
       <c r="F150">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="G150">
-        <v>19.6</v>
+        <v>11.71</v>
       </c>
       <c r="H150">
-        <v>4.22</v>
+        <v>11.71</v>
       </c>
       <c r="I150" s="6">
-        <v>44172</v>
-      </c>
-      <c r="J150" t="s">
-        <v>132</v>
+        <v>44042</v>
       </c>
     </row>
     <row r="151" spans="5:10">
@@ -6225,19 +6246,19 @@
         <v>212</v>
       </c>
       <c r="F151">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="G151">
-        <v>11.96</v>
+        <v>19.6</v>
       </c>
       <c r="H151">
-        <v>3.05</v>
+        <v>4.22</v>
       </c>
       <c r="I151" s="6">
         <v>44172</v>
       </c>
       <c r="J151" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="152" spans="5:10">
@@ -6245,19 +6266,19 @@
         <v>213</v>
       </c>
       <c r="F152">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
       <c r="G152">
-        <v>9.96</v>
+        <v>11.96</v>
       </c>
       <c r="H152">
-        <v>1.67</v>
+        <v>3.05</v>
       </c>
       <c r="I152" s="6">
-        <v>44014</v>
+        <v>44172</v>
       </c>
       <c r="J152" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="153" spans="5:10">
@@ -6265,19 +6286,19 @@
         <v>214</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G153">
-        <v>6.9</v>
+        <v>9.96</v>
       </c>
       <c r="H153">
-        <v>6.9</v>
+        <v>1.67</v>
       </c>
       <c r="I153" s="6">
-        <v>43982</v>
+        <v>44014</v>
       </c>
       <c r="J153" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="154" spans="5:10">
@@ -6285,19 +6306,19 @@
         <v>215</v>
       </c>
       <c r="F154">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G154">
-        <v>19.8</v>
+        <v>6.9</v>
       </c>
       <c r="H154">
-        <v>5.78</v>
+        <v>6.9</v>
       </c>
       <c r="I154" s="6">
-        <v>44006</v>
+        <v>43982</v>
       </c>
       <c r="J154" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="155" spans="5:10">
@@ -6305,19 +6326,19 @@
         <v>216</v>
       </c>
       <c r="F155">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="G155">
-        <v>9.96</v>
+        <v>19.8</v>
       </c>
       <c r="H155">
-        <v>3.29</v>
+        <v>5.78</v>
       </c>
       <c r="I155" s="6">
-        <v>44007</v>
+        <v>44006</v>
       </c>
       <c r="J155" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="156" spans="5:10">
@@ -6325,19 +6346,19 @@
         <v>217</v>
       </c>
       <c r="F156">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G156">
-        <v>11.96</v>
+        <v>9.96</v>
       </c>
       <c r="H156">
-        <v>2.39</v>
+        <v>3.29</v>
       </c>
       <c r="I156" s="6">
-        <v>44008</v>
+        <v>44007</v>
       </c>
       <c r="J156" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="157" spans="5:10">
@@ -6345,19 +6366,19 @@
         <v>218</v>
       </c>
       <c r="F157">
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="G157">
-        <v>13.6</v>
+        <v>11.96</v>
       </c>
       <c r="H157">
-        <v>4.38</v>
+        <v>2.39</v>
       </c>
       <c r="I157" s="6">
-        <v>43998</v>
+        <v>44008</v>
       </c>
       <c r="J157" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="158" spans="5:10">
@@ -6365,96 +6386,97 @@
         <v>219</v>
       </c>
       <c r="F158">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="G158">
         <v>13.6</v>
       </c>
       <c r="H158">
-        <v>2.2</v>
+        <v>4.38</v>
       </c>
       <c r="I158" s="6">
-        <v>43972</v>
+        <v>43998</v>
       </c>
       <c r="J158" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="159" customFormat="1" spans="1:10">
-      <c r="A159" s="2"/>
-      <c r="D159" s="2"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="159" spans="5:10">
       <c r="E159" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F159">
-        <v>0.31</v>
+        <v>0.16</v>
       </c>
       <c r="G159">
         <v>13.6</v>
       </c>
       <c r="H159">
-        <v>4.28</v>
+        <v>2.2</v>
       </c>
       <c r="I159" s="6">
-        <v>43992</v>
+        <v>43972</v>
       </c>
       <c r="J159" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="160" customFormat="1" spans="1:10">
       <c r="A160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F160">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="G160">
         <v>13.6</v>
       </c>
       <c r="H160">
+        <v>4.28</v>
+      </c>
+      <c r="I160" s="6">
+        <v>43992</v>
+      </c>
+      <c r="J160" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="161" customFormat="1" spans="1:10">
+      <c r="A161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F161">
+        <v>0.23</v>
+      </c>
+      <c r="G161">
+        <v>13.6</v>
+      </c>
+      <c r="H161">
         <v>3.14</v>
       </c>
-      <c r="I160" s="6">
+      <c r="I161" s="6">
         <v>44024</v>
       </c>
-      <c r="J160" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="161" spans="5:9">
-      <c r="E161" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F161">
+      <c r="J161" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="162" spans="5:9">
+      <c r="E162" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F162">
         <v>5</v>
       </c>
-      <c r="G161">
-        <v>1</v>
-      </c>
-      <c r="H161">
+      <c r="G162">
+        <v>1</v>
+      </c>
+      <c r="H162">
         <v>5</v>
-      </c>
-      <c r="I161" s="6">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="162" customFormat="1" spans="1:9">
-      <c r="A162" s="2"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F162">
-        <v>1.5</v>
-      </c>
-      <c r="G162">
-        <v>1</v>
-      </c>
-      <c r="H162">
-        <v>1.5</v>
       </c>
       <c r="I162" s="6">
         <v>44067</v>
@@ -6464,16 +6486,16 @@
       <c r="A163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F163">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G163">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I163" s="6">
         <v>44067</v>
@@ -6483,7 +6505,7 @@
       <c r="A164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F164">
         <v>2</v>
@@ -6495,23 +6517,23 @@
         <v>2</v>
       </c>
       <c r="I164" s="6">
-        <v>44070</v>
+        <v>44067</v>
       </c>
     </row>
     <row r="165" customFormat="1" spans="1:9">
       <c r="A165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F165">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G165">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" s="6">
         <v>44070</v>
@@ -6521,35 +6543,35 @@
       <c r="A166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F166">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G166">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="I166" s="6">
-        <v>43991</v>
+        <v>44070</v>
       </c>
     </row>
     <row r="167" customFormat="1" spans="1:9">
       <c r="A167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F167">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G167">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I167" s="6">
         <v>43991</v>
@@ -6559,7 +6581,7 @@
       <c r="A168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F168">
         <v>2</v>
@@ -6571,14 +6593,14 @@
         <v>2</v>
       </c>
       <c r="I168" s="6">
-        <v>43993</v>
+        <v>43991</v>
       </c>
     </row>
     <row r="169" customFormat="1" spans="1:9">
       <c r="A169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F169">
         <v>2</v>
@@ -6597,7 +6619,7 @@
       <c r="A170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F170">
         <v>2</v>
@@ -6609,14 +6631,14 @@
         <v>2</v>
       </c>
       <c r="I170" s="6">
-        <v>43982</v>
+        <v>43993</v>
       </c>
     </row>
     <row r="171" customFormat="1" spans="1:9">
       <c r="A171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F171">
         <v>2</v>
@@ -6628,14 +6650,14 @@
         <v>2</v>
       </c>
       <c r="I171" s="6">
-        <v>44006</v>
+        <v>43982</v>
       </c>
     </row>
     <row r="172" customFormat="1" spans="1:9">
       <c r="A172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F172">
         <v>2</v>
@@ -6647,86 +6669,88 @@
         <v>2</v>
       </c>
       <c r="I172" s="6">
-        <v>43994</v>
+        <v>44006</v>
       </c>
     </row>
     <row r="173" customFormat="1" spans="1:9">
       <c r="A173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F173">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G173">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="I173" s="6">
-        <v>44008</v>
+        <v>43994</v>
       </c>
     </row>
     <row r="174" customFormat="1" spans="1:9">
       <c r="A174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F174">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="G174">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="I174" s="6">
-        <v>44004</v>
+        <v>44008</v>
       </c>
     </row>
     <row r="175" customFormat="1" spans="1:9">
       <c r="A175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F175">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="G175">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="I175" s="6">
-        <v>44064</v>
+        <v>44004</v>
       </c>
     </row>
     <row r="176" customFormat="1" spans="1:9">
       <c r="A176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I176" s="6">
-        <v>43993</v>
-      </c>
-    </row>
-    <row r="177" spans="5:9">
+        <v>44064</v>
+      </c>
+    </row>
+    <row r="177" customFormat="1" spans="1:9">
+      <c r="A177" s="2"/>
+      <c r="D177" s="2"/>
       <c r="E177" s="2" t="s">
         <v>221</v>
       </c>
@@ -6734,13 +6758,13 @@
         <v>1</v>
       </c>
       <c r="G177">
-        <v>10.5</v>
+        <v>2</v>
       </c>
       <c r="H177">
-        <v>10.5</v>
+        <v>2</v>
       </c>
       <c r="I177" s="6">
-        <v>44037</v>
+        <v>43993</v>
       </c>
     </row>
     <row r="178" spans="5:9">
@@ -6748,20 +6772,34 @@
         <v>222</v>
       </c>
       <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178">
+        <v>10.5</v>
+      </c>
+      <c r="H178">
+        <v>10.5</v>
+      </c>
+      <c r="I178" s="6">
+        <v>44037</v>
+      </c>
+    </row>
+    <row r="179" spans="5:9">
+      <c r="E179" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F179">
         <v>0.08</v>
       </c>
-      <c r="G178">
+      <c r="G179">
         <v>53.6</v>
       </c>
-      <c r="H178">
+      <c r="H179">
         <v>4.29</v>
       </c>
-      <c r="I178" s="6">
+      <c r="I179" s="6">
         <v>44012</v>
       </c>
-    </row>
-    <row r="180" spans="9:9">
-      <c r="I180" s="6"/>
     </row>
     <row r="181" spans="9:9">
       <c r="I181" s="6"/>
@@ -6781,41 +6819,27 @@
     <row r="186" spans="9:9">
       <c r="I186" s="6"/>
     </row>
-    <row r="187" spans="5:10">
-      <c r="E187" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F187">
-        <v>0.28</v>
-      </c>
-      <c r="G187">
-        <v>33.6</v>
-      </c>
-      <c r="H187">
-        <v>7.61</v>
-      </c>
-      <c r="I187" s="6">
-        <v>44139</v>
-      </c>
-      <c r="J187" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="188" spans="5:9">
+    <row r="187" spans="9:9">
+      <c r="I187" s="6"/>
+    </row>
+    <row r="188" spans="5:10">
       <c r="E188" s="2" t="s">
         <v>224</v>
       </c>
       <c r="F188">
-        <v>0.18</v>
+        <v>0.28</v>
       </c>
       <c r="G188">
-        <v>19.8</v>
+        <v>33.6</v>
       </c>
       <c r="H188">
-        <v>3.48</v>
+        <v>7.61</v>
       </c>
       <c r="I188" s="6">
-        <v>44172</v>
+        <v>44139</v>
+      </c>
+      <c r="J188" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="189" spans="5:9">
@@ -6823,16 +6847,16 @@
         <v>225</v>
       </c>
       <c r="F189">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="G189">
-        <v>39.6</v>
+        <v>19.8</v>
       </c>
       <c r="H189">
-        <v>6.26</v>
+        <v>3.48</v>
       </c>
       <c r="I189" s="6">
-        <v>44082</v>
+        <v>44172</v>
       </c>
     </row>
     <row r="190" spans="5:9">
@@ -6840,16 +6864,16 @@
         <v>226</v>
       </c>
       <c r="F190">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="G190">
-        <v>25.2</v>
+        <v>39.6</v>
       </c>
       <c r="H190">
-        <v>3.4</v>
+        <v>6.26</v>
       </c>
       <c r="I190" s="6">
-        <v>44091</v>
+        <v>44082</v>
       </c>
     </row>
     <row r="191" spans="5:9">
@@ -6857,23 +6881,21 @@
         <v>227</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G191">
-        <v>3</v>
+        <v>25.2</v>
       </c>
       <c r="H191">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I191" s="6">
-        <v>44067</v>
-      </c>
-    </row>
-    <row r="192" customFormat="1" spans="1:10">
-      <c r="A192" s="2"/>
-      <c r="D192" s="2"/>
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="192" spans="5:9">
       <c r="E192" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F192">
         <v>1</v>
@@ -6885,17 +6907,14 @@
         <v>3</v>
       </c>
       <c r="I192" s="6">
-        <v>44075</v>
-      </c>
-      <c r="J192" t="s">
-        <v>175</v>
+        <v>44067</v>
       </c>
     </row>
     <row r="193" customFormat="1" spans="1:10">
       <c r="A193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F193">
         <v>1</v>
@@ -6910,14 +6929,14 @@
         <v>44075</v>
       </c>
       <c r="J193" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="194" customFormat="1" spans="1:10">
       <c r="A194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F194">
         <v>1</v>
@@ -6929,63 +6948,68 @@
         <v>3</v>
       </c>
       <c r="I194" s="6">
-        <v>44024</v>
+        <v>44075</v>
       </c>
       <c r="J194" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="195" spans="5:9">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="195" customFormat="1" spans="1:10">
+      <c r="A195" s="2"/>
+      <c r="D195" s="2"/>
       <c r="E195" s="2" t="s">
         <v>228</v>
       </c>
       <c r="F195">
+        <v>1</v>
+      </c>
+      <c r="G195">
+        <v>3</v>
+      </c>
+      <c r="H195">
+        <v>3</v>
+      </c>
+      <c r="I195" s="6">
+        <v>44024</v>
+      </c>
+      <c r="J195" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="196" spans="5:9">
+      <c r="E196" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F196">
         <v>0.29</v>
       </c>
-      <c r="G195">
+      <c r="G196">
         <v>43.6</v>
       </c>
-      <c r="H195">
+      <c r="H196">
         <v>5.82</v>
       </c>
-      <c r="I195" s="6">
+      <c r="I196" s="6">
         <v>44042</v>
       </c>
     </row>
-    <row r="196" customFormat="1" spans="1:9">
-      <c r="A196" s="2"/>
-      <c r="D196" s="2"/>
-      <c r="E196" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F196">
-        <v>0.21</v>
-      </c>
-      <c r="G196">
-        <v>48.6</v>
-      </c>
-      <c r="H196">
-        <v>4.58</v>
-      </c>
-      <c r="I196" s="6">
-        <v>44008</v>
-      </c>
-    </row>
-    <row r="197" spans="5:9">
+    <row r="197" customFormat="1" spans="1:9">
+      <c r="A197" s="2"/>
+      <c r="D197" s="2"/>
       <c r="E197" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F197">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="G197">
-        <v>47.6</v>
+        <v>48.6</v>
       </c>
       <c r="H197">
-        <v>9.47</v>
+        <v>4.58</v>
       </c>
       <c r="I197" s="6">
-        <v>44050</v>
+        <v>44008</v>
       </c>
     </row>
     <row r="198" spans="5:9">
@@ -6993,47 +7017,47 @@
         <v>230</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="G198">
-        <v>11.9</v>
+        <v>47.6</v>
       </c>
       <c r="H198">
-        <v>11.9</v>
+        <v>9.47</v>
       </c>
       <c r="I198" s="6">
-        <v>44100</v>
+        <v>44050</v>
       </c>
     </row>
     <row r="199" spans="5:9">
       <c r="E199" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F199">
         <v>1</v>
       </c>
       <c r="G199">
-        <v>3</v>
+        <v>11.9</v>
       </c>
       <c r="H199">
-        <v>3</v>
+        <v>11.9</v>
       </c>
       <c r="I199" s="6">
-        <v>44050</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="200" spans="5:9">
       <c r="E200" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F200">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G200">
-        <v>5.96</v>
+        <v>3</v>
       </c>
       <c r="H200">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="I200" s="6">
         <v>44050</v>
@@ -7044,16 +7068,16 @@
         <v>232</v>
       </c>
       <c r="F201">
-        <v>0.49</v>
+        <v>0.6</v>
       </c>
       <c r="G201">
-        <v>25.6</v>
+        <v>5.96</v>
       </c>
       <c r="H201">
-        <v>4.92</v>
+        <v>3.6</v>
       </c>
       <c r="I201" s="6">
-        <v>44036</v>
+        <v>44050</v>
       </c>
     </row>
     <row r="202" spans="5:9">
@@ -7061,13 +7085,13 @@
         <v>233</v>
       </c>
       <c r="F202">
-        <v>0.24</v>
+        <v>0.49</v>
       </c>
       <c r="G202">
-        <v>99.6</v>
+        <v>25.6</v>
       </c>
       <c r="H202">
-        <v>41.43</v>
+        <v>4.92</v>
       </c>
       <c r="I202" s="6">
         <v>44036</v>
@@ -7078,13 +7102,13 @@
         <v>234</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="G203">
-        <v>2.06</v>
+        <v>99.6</v>
       </c>
       <c r="H203">
-        <v>2.06</v>
+        <v>41.43</v>
       </c>
       <c r="I203" s="6">
         <v>44036</v>
@@ -7098,13 +7122,13 @@
         <v>1</v>
       </c>
       <c r="G204">
-        <v>10.5</v>
+        <v>2.06</v>
       </c>
       <c r="H204">
-        <v>10.5</v>
+        <v>2.06</v>
       </c>
       <c r="I204" s="6">
-        <v>44115</v>
+        <v>44036</v>
       </c>
     </row>
     <row r="205" spans="5:9">
@@ -7112,20 +7136,34 @@
         <v>236</v>
       </c>
       <c r="F205">
+        <v>1</v>
+      </c>
+      <c r="G205">
+        <v>10.5</v>
+      </c>
+      <c r="H205">
+        <v>10.5</v>
+      </c>
+      <c r="I205" s="6">
+        <v>44115</v>
+      </c>
+    </row>
+    <row r="206" spans="5:9">
+      <c r="E206" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F206">
         <v>0.86</v>
       </c>
-      <c r="G205">
+      <c r="G206">
         <v>6</v>
       </c>
-      <c r="H205">
+      <c r="H206">
         <v>5.15</v>
       </c>
-      <c r="I205" s="6">
+      <c r="I206" s="6">
         <v>44100</v>
       </c>
-    </row>
-    <row r="206" spans="9:9">
-      <c r="I206" s="6"/>
     </row>
     <row r="207" spans="9:9">
       <c r="I207" s="6"/>
@@ -7133,198 +7171,179 @@
     <row r="208" spans="9:9">
       <c r="I208" s="6"/>
     </row>
-    <row r="209" spans="5:10">
-      <c r="E209" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F209">
+    <row r="209" spans="9:9">
+      <c r="I209" s="6"/>
+    </row>
+    <row r="210" spans="5:10">
+      <c r="E210" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F210">
         <v>0.1</v>
       </c>
-      <c r="G209">
+      <c r="G210">
         <v>107.6</v>
       </c>
-      <c r="H209">
+      <c r="H210">
         <v>10.98</v>
       </c>
-      <c r="I209" s="6">
+      <c r="I210" s="6">
         <v>43972</v>
       </c>
-      <c r="J209" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="210" customFormat="1" spans="1:10">
-      <c r="A210" s="2"/>
-      <c r="D210" s="2"/>
-      <c r="E210" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F210">
-        <v>0.12</v>
-      </c>
-      <c r="G210">
-        <v>119.6</v>
-      </c>
-      <c r="H210">
-        <v>14.04</v>
-      </c>
-      <c r="I210" s="6">
-        <v>44082</v>
-      </c>
       <c r="J210" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="211" spans="5:10">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="211" customFormat="1" spans="1:10">
+      <c r="A211" s="2"/>
+      <c r="D211" s="2"/>
       <c r="E211" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F211">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="G211">
-        <v>15.96</v>
+        <v>119.6</v>
       </c>
       <c r="H211">
-        <v>4.95</v>
+        <v>14.04</v>
       </c>
       <c r="I211" s="6">
-        <v>43972</v>
+        <v>44082</v>
       </c>
       <c r="J211" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="212" customFormat="1" spans="1:10">
-      <c r="A212" s="2"/>
-      <c r="D212" s="2"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="212" spans="5:10">
       <c r="E212" s="2" t="s">
         <v>239</v>
       </c>
       <c r="F212">
-        <v>0.06</v>
+        <v>0.31</v>
       </c>
       <c r="G212">
-        <v>119.6</v>
+        <v>15.96</v>
       </c>
       <c r="H212">
-        <v>7.12</v>
+        <v>4.95</v>
       </c>
       <c r="I212" s="6">
-        <v>44041</v>
+        <v>43972</v>
       </c>
       <c r="J212" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="213" customFormat="1" spans="1:10">
       <c r="A213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F213">
-        <v>0.28</v>
+        <v>0.06</v>
       </c>
       <c r="G213">
-        <v>17.6</v>
+        <v>119.6</v>
       </c>
       <c r="H213">
-        <v>4.89</v>
+        <v>7.12</v>
       </c>
       <c r="I213" s="6">
         <v>44041</v>
       </c>
       <c r="J213" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="214" customFormat="1" spans="1:10">
       <c r="A214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F214">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="G214">
         <v>17.6</v>
       </c>
       <c r="H214">
-        <v>5.24</v>
+        <v>4.89</v>
       </c>
       <c r="I214" s="6">
-        <v>43991</v>
+        <v>44041</v>
       </c>
       <c r="J214" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="215" customFormat="1" spans="1:10">
       <c r="A215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F215">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="G215">
         <v>17.6</v>
       </c>
       <c r="H215">
-        <v>5.03</v>
+        <v>5.24</v>
       </c>
       <c r="I215" s="6">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="J215" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="216" customFormat="1" spans="1:10">
       <c r="A216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F216">
-        <v>0.49</v>
+        <v>0.29</v>
       </c>
       <c r="G216">
         <v>17.6</v>
       </c>
       <c r="H216">
-        <v>8.55</v>
+        <v>5.03</v>
       </c>
       <c r="I216" s="6">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="J216" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="217" customFormat="1" spans="1:10">
       <c r="A217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F217">
-        <v>0.26</v>
+        <v>0.49</v>
       </c>
       <c r="G217">
         <v>17.6</v>
       </c>
       <c r="H217">
-        <v>4.58</v>
+        <v>8.55</v>
       </c>
       <c r="I217" s="6">
-        <v>44008</v>
+        <v>43988</v>
       </c>
       <c r="J217" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="218" customFormat="1" spans="1:10">
@@ -7334,19 +7353,19 @@
         <v>241</v>
       </c>
       <c r="F218">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="G218">
-        <v>19.6</v>
+        <v>17.6</v>
       </c>
       <c r="H218">
-        <v>5.63</v>
+        <v>4.58</v>
       </c>
       <c r="I218" s="6">
-        <v>44009</v>
+        <v>44008</v>
       </c>
       <c r="J218" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="219" customFormat="1" spans="1:10">
@@ -7356,24 +7375,26 @@
         <v>242</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="G219">
-        <v>18.8</v>
+        <v>19.6</v>
       </c>
       <c r="H219">
-        <v>18.8</v>
+        <v>5.63</v>
       </c>
       <c r="I219" s="6">
-        <v>44149</v>
+        <v>44009</v>
       </c>
       <c r="J219" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="220" spans="5:10">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="220" customFormat="1" spans="1:10">
+      <c r="A220" s="2"/>
+      <c r="D220" s="2"/>
       <c r="E220" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F220">
         <v>1</v>
@@ -7385,98 +7406,101 @@
         <v>18.8</v>
       </c>
       <c r="I220" s="6">
+        <v>44149</v>
+      </c>
+      <c r="J220" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="221" spans="5:10">
+      <c r="E221" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F221">
+        <v>1</v>
+      </c>
+      <c r="G221">
+        <v>18.8</v>
+      </c>
+      <c r="H221">
+        <v>18.8</v>
+      </c>
+      <c r="I221" s="6">
         <v>44205</v>
       </c>
-      <c r="J220" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="221" customFormat="1" spans="1:10">
-      <c r="A221" s="2"/>
-      <c r="D221" s="2"/>
-      <c r="E221" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F221">
-        <v>0.65</v>
-      </c>
-      <c r="G221">
-        <v>27.6</v>
-      </c>
-      <c r="H221">
-        <v>17.88</v>
-      </c>
-      <c r="I221" s="6">
-        <v>44111</v>
-      </c>
       <c r="J221" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="222" spans="5:10">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="222" customFormat="1" spans="1:10">
+      <c r="A222" s="2"/>
+      <c r="D222" s="2"/>
       <c r="E222" s="2" t="s">
         <v>243</v>
       </c>
       <c r="F222">
+        <v>0.65</v>
+      </c>
+      <c r="G222">
+        <v>27.6</v>
+      </c>
+      <c r="H222">
+        <v>17.88</v>
+      </c>
+      <c r="I222" s="6">
+        <v>44111</v>
+      </c>
+      <c r="J222" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="223" spans="5:10">
+      <c r="E223" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F223">
         <v>0.24</v>
-      </c>
-      <c r="G222">
-        <v>37.6</v>
-      </c>
-      <c r="H222">
-        <v>9.17</v>
-      </c>
-      <c r="I222" s="6">
-        <v>44139</v>
-      </c>
-      <c r="J222" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="223" customFormat="1" spans="1:10">
-      <c r="A223" s="2"/>
-      <c r="D223" s="2"/>
-      <c r="E223" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F223">
-        <v>0.23</v>
       </c>
       <c r="G223">
         <v>37.6</v>
       </c>
       <c r="H223">
-        <v>8.72</v>
+        <v>9.17</v>
       </c>
       <c r="I223" s="6">
-        <v>44130</v>
+        <v>44139</v>
       </c>
       <c r="J223" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="224" customFormat="1" spans="1:9">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="224" customFormat="1" spans="1:10">
       <c r="A224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2" t="s">
         <v>244</v>
       </c>
       <c r="F224">
-        <v>1</v>
+        <v>0.23</v>
       </c>
       <c r="G224">
-        <v>12</v>
+        <v>37.6</v>
       </c>
       <c r="H224">
-        <v>12</v>
+        <v>8.72</v>
       </c>
       <c r="I224" s="6">
-        <v>44137</v>
-      </c>
-    </row>
-    <row r="225" spans="5:9">
+        <v>44130</v>
+      </c>
+      <c r="J224" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="225" customFormat="1" spans="1:9">
+      <c r="A225" s="2"/>
+      <c r="D225" s="2"/>
       <c r="E225" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F225">
         <v>1</v>
@@ -7488,121 +7512,119 @@
         <v>12</v>
       </c>
       <c r="I225" s="6">
-        <v>44142</v>
-      </c>
-    </row>
-    <row r="226" customFormat="1" spans="1:9">
-      <c r="A226" s="2"/>
-      <c r="D226" s="2"/>
+        <v>44137</v>
+      </c>
+    </row>
+    <row r="226" spans="5:9">
       <c r="E226" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F226">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G226">
         <v>12</v>
       </c>
       <c r="H226">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I226" s="6">
-        <v>44044</v>
+        <v>44142</v>
       </c>
     </row>
     <row r="227" customFormat="1" spans="1:9">
       <c r="A227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G227">
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="H227">
-        <v>10.8</v>
+        <v>9</v>
       </c>
       <c r="I227" s="6">
-        <v>44072</v>
+        <v>44044</v>
       </c>
     </row>
     <row r="228" customFormat="1" spans="1:9">
       <c r="A228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F228">
         <v>1</v>
       </c>
       <c r="G228">
-        <v>12</v>
+        <v>10.8</v>
       </c>
       <c r="H228">
-        <v>12</v>
+        <v>10.8</v>
       </c>
       <c r="I228" s="6">
-        <v>44024</v>
+        <v>44072</v>
       </c>
     </row>
     <row r="229" customFormat="1" spans="1:9">
       <c r="A229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F229">
         <v>1</v>
       </c>
       <c r="G229">
-        <v>9.9</v>
+        <v>12</v>
       </c>
       <c r="H229">
-        <v>9.9</v>
+        <v>12</v>
       </c>
       <c r="I229" s="6">
-        <v>44168</v>
+        <v>44024</v>
       </c>
     </row>
     <row r="230" customFormat="1" spans="1:9">
       <c r="A230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F230">
         <v>1</v>
       </c>
       <c r="G230">
-        <v>10.8</v>
+        <v>9.9</v>
       </c>
       <c r="H230">
-        <v>10.8</v>
+        <v>9.9</v>
       </c>
       <c r="I230" s="6">
-        <v>44064</v>
+        <v>44168</v>
       </c>
     </row>
     <row r="231" customFormat="1" spans="1:9">
       <c r="A231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F231">
         <v>1</v>
       </c>
       <c r="G231">
-        <v>9.9</v>
+        <v>10.8</v>
       </c>
       <c r="H231">
-        <v>9.9</v>
+        <v>10.8</v>
       </c>
       <c r="I231" s="6">
-        <v>44030</v>
+        <v>44064</v>
       </c>
     </row>
     <row r="232" customFormat="1" spans="1:9">
@@ -7612,83 +7634,85 @@
         <v>245</v>
       </c>
       <c r="F232">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="G232">
-        <v>59.6</v>
+        <v>9.9</v>
       </c>
       <c r="H232">
-        <v>9.8</v>
+        <v>9.9</v>
       </c>
       <c r="I232" s="6">
-        <v>44159</v>
+        <v>44030</v>
       </c>
     </row>
     <row r="233" customFormat="1" spans="1:9">
       <c r="A233" s="2"/>
       <c r="D233" s="2"/>
-      <c r="E233" s="2"/>
-      <c r="I233" s="6"/>
-    </row>
-    <row r="234" customFormat="1" spans="1:10">
+      <c r="E233" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F233">
+        <v>0.16</v>
+      </c>
+      <c r="G233">
+        <v>59.6</v>
+      </c>
+      <c r="H233">
+        <v>9.8</v>
+      </c>
+      <c r="I233" s="6">
+        <v>44159</v>
+      </c>
+    </row>
+    <row r="234" customFormat="1" spans="1:9">
       <c r="A234" s="2"/>
       <c r="D234" s="2"/>
-      <c r="E234" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F234">
-        <v>0.15</v>
-      </c>
-      <c r="G234">
-        <v>79.6</v>
-      </c>
-      <c r="H234">
-        <v>12.1</v>
-      </c>
-      <c r="I234" s="6">
-        <v>44021</v>
-      </c>
-      <c r="J234" t="s">
-        <v>132</v>
-      </c>
+      <c r="E234" s="2"/>
+      <c r="I234" s="6"/>
     </row>
     <row r="235" customFormat="1" spans="1:10">
       <c r="A235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F235">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="G235">
         <v>79.6</v>
       </c>
       <c r="H235">
-        <v>7.48</v>
+        <v>12.1</v>
       </c>
       <c r="I235" s="6">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="J235" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="236" spans="5:9">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="236" customFormat="1" spans="1:10">
+      <c r="A236" s="2"/>
+      <c r="D236" s="2"/>
       <c r="E236" s="2" t="s">
         <v>247</v>
       </c>
       <c r="F236">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
       <c r="G236">
-        <v>55.6</v>
+        <v>79.6</v>
       </c>
       <c r="H236">
-        <v>11.12</v>
+        <v>7.48</v>
       </c>
       <c r="I236" s="6">
-        <v>44010</v>
+        <v>44020</v>
+      </c>
+      <c r="J236" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="237" spans="5:9">
@@ -7696,54 +7720,52 @@
         <v>248</v>
       </c>
       <c r="F237">
+        <v>0.2</v>
+      </c>
+      <c r="G237">
+        <v>55.6</v>
+      </c>
+      <c r="H237">
+        <v>11.12</v>
+      </c>
+      <c r="I237" s="6">
+        <v>44010</v>
+      </c>
+    </row>
+    <row r="238" spans="5:9">
+      <c r="E238" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F238">
         <v>0.25</v>
-      </c>
-      <c r="G237">
-        <v>19.96</v>
-      </c>
-      <c r="H237">
-        <v>4.91</v>
-      </c>
-      <c r="I237" s="6">
-        <v>44023</v>
-      </c>
-    </row>
-    <row r="238" customFormat="1" spans="1:9">
-      <c r="A238" s="2"/>
-      <c r="D238" s="2"/>
-      <c r="E238" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F238">
-        <v>0.22</v>
       </c>
       <c r="G238">
         <v>19.96</v>
       </c>
       <c r="H238">
-        <v>4.43</v>
+        <v>4.91</v>
       </c>
       <c r="I238" s="6">
-        <v>44022</v>
+        <v>44023</v>
       </c>
     </row>
     <row r="239" customFormat="1" spans="1:9">
       <c r="A239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F239">
-        <v>0.47</v>
+        <v>0.22</v>
       </c>
       <c r="G239">
-        <v>17.96</v>
+        <v>19.96</v>
       </c>
       <c r="H239">
-        <v>8.44</v>
+        <v>4.43</v>
       </c>
       <c r="I239" s="6">
-        <v>44104</v>
+        <v>44022</v>
       </c>
     </row>
     <row r="240" customFormat="1" spans="1:9">
@@ -7753,102 +7775,107 @@
         <v>249</v>
       </c>
       <c r="F240">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="G240">
         <v>17.96</v>
       </c>
       <c r="H240">
+        <v>8.44</v>
+      </c>
+      <c r="I240" s="6">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="241" customFormat="1" spans="1:9">
+      <c r="A241" s="2"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F241">
+        <v>0.46</v>
+      </c>
+      <c r="G241">
+        <v>17.96</v>
+      </c>
+      <c r="H241">
         <v>8.3</v>
       </c>
-      <c r="I240" s="6">
+      <c r="I241" s="6">
         <v>44065</v>
       </c>
-    </row>
-    <row r="242" spans="9:9">
-      <c r="I242" s="6"/>
     </row>
     <row r="243" spans="9:9">
       <c r="I243" s="6"/>
     </row>
-    <row r="244" spans="5:9">
-      <c r="E244" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F244">
-        <v>1</v>
-      </c>
-      <c r="G244">
+    <row r="244" spans="9:9">
+      <c r="I244" s="6"/>
+    </row>
+    <row r="245" spans="5:9">
+      <c r="E245" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F245">
+        <v>1</v>
+      </c>
+      <c r="G245">
         <v>8.9</v>
       </c>
-      <c r="H244">
+      <c r="H245">
         <v>6.9</v>
       </c>
-      <c r="I244" s="6">
+      <c r="I245" s="6">
         <v>44197</v>
       </c>
-    </row>
-    <row r="245" spans="9:9">
-      <c r="I245" s="6"/>
     </row>
     <row r="246" spans="9:9">
       <c r="I246" s="6"/>
     </row>
-    <row r="247" spans="5:10">
-      <c r="E247" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F247">
-        <v>1</v>
-      </c>
-      <c r="G247">
+    <row r="247" spans="9:9">
+      <c r="I247" s="6"/>
+    </row>
+    <row r="248" spans="5:10">
+      <c r="E248" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248">
         <v>9.9</v>
       </c>
-      <c r="H247">
+      <c r="H248">
         <v>9.9</v>
       </c>
-      <c r="I247" s="6">
+      <c r="I248" s="6">
         <v>44206</v>
       </c>
-      <c r="J247" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="248" spans="9:9">
-      <c r="I248" s="6"/>
-    </row>
-    <row r="249" spans="5:10">
-      <c r="E249" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F249">
-        <v>1</v>
-      </c>
-      <c r="G249">
+      <c r="J248" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="249" spans="9:9">
+      <c r="I249" s="6"/>
+    </row>
+    <row r="250" spans="5:10">
+      <c r="E250" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="G250">
         <v>0.2</v>
       </c>
-      <c r="H249">
+      <c r="H250">
         <v>0.2</v>
       </c>
-      <c r="J249" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="250" spans="5:8">
-      <c r="E250" s="2" t="s">
+      <c r="J250" t="s">
         <v>254</v>
       </c>
-      <c r="F250">
-        <v>1</v>
-      </c>
-      <c r="G250">
-        <v>17.8</v>
-      </c>
-      <c r="H250">
-        <v>16.8</v>
-      </c>
-    </row>
-    <row r="251" spans="5:9">
+    </row>
+    <row r="251" spans="5:8">
       <c r="E251" s="2" t="s">
         <v>255</v>
       </c>
@@ -7856,13 +7883,10 @@
         <v>1</v>
       </c>
       <c r="G251">
-        <v>6.9</v>
+        <v>17.8</v>
       </c>
       <c r="H251">
-        <v>6.9</v>
-      </c>
-      <c r="I251" s="6">
-        <v>44039</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="252" spans="5:9">
@@ -7873,10 +7897,10 @@
         <v>1</v>
       </c>
       <c r="G252">
-        <v>16.9</v>
+        <v>6.9</v>
       </c>
       <c r="H252">
-        <v>9.9</v>
+        <v>6.9</v>
       </c>
       <c r="I252" s="6">
         <v>44039</v>
@@ -7890,16 +7914,16 @@
         <v>1</v>
       </c>
       <c r="G253">
-        <v>3.5</v>
+        <v>16.9</v>
       </c>
       <c r="H253">
-        <v>3.5</v>
+        <v>9.9</v>
       </c>
       <c r="I253" s="6">
-        <v>44023</v>
-      </c>
-    </row>
-    <row r="254" spans="5:12">
+        <v>44039</v>
+      </c>
+    </row>
+    <row r="254" spans="5:9">
       <c r="E254" s="2" t="s">
         <v>258</v>
       </c>
@@ -7907,40 +7931,54 @@
         <v>1</v>
       </c>
       <c r="G254">
-        <v>10.9</v>
+        <v>3.5</v>
       </c>
       <c r="H254">
-        <v>10.9</v>
+        <v>3.5</v>
       </c>
       <c r="I254" s="6">
-        <v>44164</v>
-      </c>
-      <c r="L254" t="s">
-        <v>259</v>
+        <v>44023</v>
       </c>
     </row>
     <row r="255" spans="5:12">
       <c r="E255" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F255">
         <v>1</v>
       </c>
       <c r="G255">
-        <v>2.9</v>
+        <v>10.9</v>
       </c>
       <c r="H255">
-        <v>2.9</v>
+        <v>10.9</v>
       </c>
       <c r="I255" s="6">
         <v>44164</v>
       </c>
       <c r="L255" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="256" spans="5:12">
+      <c r="E256" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="256" spans="9:9">
-      <c r="I256" s="6"/>
+      <c r="F256">
+        <v>1</v>
+      </c>
+      <c r="G256">
+        <v>2.9</v>
+      </c>
+      <c r="H256">
+        <v>2.9</v>
+      </c>
+      <c r="I256" s="6">
+        <v>44164</v>
+      </c>
+      <c r="L256" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="257" spans="9:9">
       <c r="I257" s="6"/>
@@ -7948,197 +7986,240 @@
     <row r="258" spans="9:9">
       <c r="I258" s="6"/>
     </row>
-    <row r="260" spans="5:10">
+    <row r="259" ht="27.6" spans="4:12">
+      <c r="D259" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F259">
+        <v>1</v>
+      </c>
+      <c r="H259">
+        <v>179</v>
+      </c>
+      <c r="I259" s="6">
+        <v>44215</v>
+      </c>
+      <c r="L259" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="260" spans="5:12">
       <c r="E260" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F260">
         <v>1</v>
       </c>
-      <c r="G260">
+      <c r="H260">
+        <v>198</v>
+      </c>
+      <c r="I260" s="6">
+        <v>44215</v>
+      </c>
+      <c r="L260" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="262" spans="4:10">
+      <c r="D262" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262">
         <v>9.9</v>
       </c>
-      <c r="H260">
+      <c r="H262">
         <v>9.9</v>
       </c>
-      <c r="I260" s="6">
+      <c r="I262" s="6">
         <v>44000</v>
       </c>
-      <c r="J260" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="261" spans="5:10">
-      <c r="E261" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F261">
-        <v>1</v>
-      </c>
-      <c r="G261">
+      <c r="J262" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="263" spans="4:10">
+      <c r="D263" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F263">
+        <v>1</v>
+      </c>
+      <c r="G263">
         <v>6.9</v>
       </c>
-      <c r="H261">
+      <c r="H263">
         <v>6.9</v>
       </c>
-      <c r="I261" s="6">
+      <c r="I263" s="6">
         <v>44000</v>
       </c>
-      <c r="J261" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="264" ht="27.6" spans="1:6">
-      <c r="A264" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E264" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="F264">
+      <c r="J263" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="266" ht="27.6" spans="1:6">
+      <c r="A266" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F266">
         <v>52</v>
       </c>
     </row>
-    <row r="265" ht="27.6" spans="5:6">
-      <c r="E265" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="F265">
+    <row r="267" ht="27.6" spans="5:6">
+      <c r="E267" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F267">
         <v>65.5</v>
       </c>
     </row>
-    <row r="266" ht="27.6" spans="5:9">
-      <c r="E266" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F266">
+    <row r="268" ht="27.6" spans="5:9">
+      <c r="E268" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F268">
         <v>111</v>
       </c>
-      <c r="I266" s="6">
+      <c r="I268" s="6">
         <v>43852</v>
       </c>
     </row>
-    <row r="270" ht="27.6" spans="1:8">
-      <c r="A270" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B270" t="s">
-        <v>270</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F270">
-        <v>1</v>
-      </c>
-      <c r="H270">
+    <row r="272" ht="27.6" spans="1:8">
+      <c r="A272" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B272" t="s">
+        <v>277</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F272">
+        <v>1</v>
+      </c>
+      <c r="H272">
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="5:8">
-      <c r="E271" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F271">
-        <v>1</v>
-      </c>
-      <c r="H271">
+    <row r="273" spans="5:8">
+      <c r="E273" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F273">
+        <v>1</v>
+      </c>
+      <c r="H273">
         <v>6</v>
       </c>
     </row>
-    <row r="274" ht="27.6" spans="4:10">
-      <c r="D274" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="F274">
-        <v>1</v>
-      </c>
-      <c r="G274">
+    <row r="276" ht="27.6" spans="4:10">
+      <c r="D276" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F276">
+        <v>1</v>
+      </c>
+      <c r="G276">
         <v>5.1</v>
       </c>
-      <c r="H274">
+      <c r="H276">
         <v>5.1</v>
       </c>
-      <c r="I274" s="6">
+      <c r="I276" s="6">
         <v>44199</v>
       </c>
-      <c r="J274" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="276" ht="27.6" spans="1:11">
-      <c r="A276" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B276" t="s">
-        <v>277</v>
-      </c>
-      <c r="C276" t="s">
-        <v>278</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="F276">
+      <c r="J276" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="278" ht="27.6" spans="1:11">
+      <c r="A278" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B278" t="s">
+        <v>284</v>
+      </c>
+      <c r="C278" t="s">
+        <v>285</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F278">
         <v>2</v>
       </c>
-      <c r="G276">
+      <c r="G278">
         <v>5.9</v>
       </c>
-      <c r="H276">
+      <c r="H278">
         <v>11.8</v>
       </c>
-      <c r="J276" t="s">
-        <v>281</v>
-      </c>
-      <c r="K276">
+      <c r="J278" t="s">
+        <v>288</v>
+      </c>
+      <c r="K278">
         <v>8.8</v>
       </c>
     </row>
-    <row r="277" spans="5:11">
-      <c r="E277" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="F277">
+    <row r="279" spans="5:11">
+      <c r="E279" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F279">
         <v>1.83</v>
       </c>
-      <c r="G277">
+      <c r="G279">
         <v>10.36</v>
       </c>
-      <c r="H277">
+      <c r="H279">
         <v>19</v>
       </c>
-      <c r="J277" t="s">
-        <v>283</v>
-      </c>
-      <c r="K277">
+      <c r="J279" t="s">
+        <v>290</v>
+      </c>
+      <c r="K279">
         <v>4.76</v>
       </c>
     </row>
-    <row r="278" spans="5:10">
-      <c r="E278" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F278">
+    <row r="280" spans="5:10">
+      <c r="E280" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F280">
         <v>1.63</v>
       </c>
-      <c r="G278">
+      <c r="G280">
         <v>4.96</v>
       </c>
-      <c r="H278">
+      <c r="H280">
         <v>8.1</v>
       </c>
-      <c r="J278" t="s">
-        <v>132</v>
+      <c r="J280" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
